--- a/docs/Bolão da Copa do Mundo - Catar 2022.xlsx
+++ b/docs/Bolão da Copa do Mundo - Catar 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Programing\Github\bolao\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F477C5E-3BE4-49E4-B7A8-E99C97930733}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C9C5B-0543-49B7-BE85-38DE12B1EE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6384" activeTab="1" xr2:uid="{779A00DC-359A-4F42-A9CB-BE9275E20E22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6384" tabRatio="754" firstSheet="7" activeTab="22" xr2:uid="{779A00DC-359A-4F42-A9CB-BE9275E20E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Seleções" sheetId="4" r:id="rId1"/>
@@ -22,8 +22,20 @@
     <sheet name="Juninho1" sheetId="17" r:id="rId7"/>
     <sheet name="Juninho2" sheetId="18" r:id="rId8"/>
     <sheet name="Luana" sheetId="12" r:id="rId9"/>
-    <sheet name="Alex" sheetId="13" r:id="rId10"/>
-    <sheet name="Mácio" sheetId="16" r:id="rId11"/>
+    <sheet name="Mácio" sheetId="16" r:id="rId10"/>
+    <sheet name="Alex" sheetId="13" r:id="rId11"/>
+    <sheet name="Jean" sheetId="19" r:id="rId12"/>
+    <sheet name="Robert" sheetId="20" r:id="rId13"/>
+    <sheet name="Roberto" sheetId="21" r:id="rId14"/>
+    <sheet name="Andréia" sheetId="22" r:id="rId15"/>
+    <sheet name="Joseir1" sheetId="23" r:id="rId16"/>
+    <sheet name="Joseir2" sheetId="24" r:id="rId17"/>
+    <sheet name="Ivani" sheetId="25" r:id="rId18"/>
+    <sheet name="Josimar" sheetId="26" r:id="rId19"/>
+    <sheet name="Julio" sheetId="27" r:id="rId20"/>
+    <sheet name="Talita" sheetId="30" r:id="rId21"/>
+    <sheet name="Gabriel" sheetId="28" r:id="rId22"/>
+    <sheet name="Ivan (12)" sheetId="29" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="528">
   <si>
     <t xml:space="preserve">-------------------- </t>
   </si>
@@ -1025,13 +1037,607 @@
   </si>
   <si>
     <t xml:space="preserve"> IVAN ALEX_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º: Mbape França </t>
+  </si>
+  <si>
+    <t>2º: Richarlisson Brasil</t>
+  </si>
+  <si>
+    <t>2º: Alemanha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguai 4 X 1 Coreia do Sul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 4 X 0 Gana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gana 1 X 4 Uruguai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil 3 X 1 Sérvia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil 2 X 0 Suíça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérvia 1 X 3 Suíça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croácia 3 X 1 Canadá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croácia 1 X 3 Bélgica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alemanha 4 X 2 Japão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanha 1 X 3 Alemanha </t>
+  </si>
+  <si>
+    <t>Costa Rica 2 X 4 Alemanha</t>
+  </si>
+  <si>
+    <t>França 4 X 0 Austrália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">França 3 X 1 Dinamarca </t>
+  </si>
+  <si>
+    <t>Austrália 1 X 1 Dinamarca</t>
+  </si>
+  <si>
+    <t>Argentina 4 X 1 Arábia Saudita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina 2 X 3 México </t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUA 4 X 1 Gales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglaterra 2 X 4 EUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holanda 3 X 0 Equador </t>
+  </si>
+  <si>
+    <t>Equador 0 X 1 Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JEAN</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROBERT</t>
+  </si>
+  <si>
+    <t>1º: Neymar/Brasil</t>
+  </si>
+  <si>
+    <t>2º: Cristiano Ronaldo/Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 3 X 1 Gana </t>
+  </si>
+  <si>
+    <t>Gana 1 X 2 Uruguai</t>
+  </si>
+  <si>
+    <t>Sérvia 1 X 1 Suíça</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croácia 1 X 1 Canadá </t>
+  </si>
+  <si>
+    <t>Canadá 2 X 2 Marrocos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanha 2 X 2 Alemanha </t>
+  </si>
+  <si>
+    <t>Costa Rica 0 X 3 Alemanha</t>
+  </si>
+  <si>
+    <t>Inglaterra 4 X 0 Irã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUA 2 X 2 Gales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gales 2 X 0 Irã </t>
+  </si>
+  <si>
+    <t>Catar x Equador - INVÁLIDO</t>
+  </si>
+  <si>
+    <t>2º: Messi/Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2º: Holanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguai 0 X 0 Coreia do Sul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coreia do Sul 2 X 2 Gana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 2 X 3 Uruguai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coreia do Sul 0 X 0 Portugal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suíça 0 X 3 Camarões </t>
+  </si>
+  <si>
+    <t>Sérvia 0 X 1 Suíça</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 3 X 0 Canadá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 0 X 0 Marrocos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadá 2 X 2 Marrocos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alemanha 3 X 0 Japão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanha 3 X 0 Costa Rica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japão 0 X 3 Costa Rica </t>
+  </si>
+  <si>
+    <t>Dinamarca 3 X 0 Tunísia</t>
+  </si>
+  <si>
+    <t>França 4 X 2 Austrália</t>
+  </si>
+  <si>
+    <t>Tunísia 0 X 3 Austrália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">França 4 X 2 Dinamarca </t>
+  </si>
+  <si>
+    <t>Austrália 3 X 2 Dinamarca</t>
+  </si>
+  <si>
+    <t>Polônia 0 X 0 Arábia Saudita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina 1 X 2 México </t>
+  </si>
+  <si>
+    <t>Arábia Saudita 2 X 3 México</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUA 0 X 1 Gales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglaterra 3 X 2 EUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ROBERTO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 1 X 1 Gana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suíça 1 X 3 Camarões </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camarões 2 X 1 Sérvia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marrocos 1 X 1 Croácia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 2 X 2 Canadá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 1 X 1 Marrocos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croácia 2 X 1 Bélgica </t>
+  </si>
+  <si>
+    <t>Canadá 2 X 1 Marrocos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alemanha 1 X 0 Japão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japão 0 X 2 Costa Rica </t>
+  </si>
+  <si>
+    <t>França 2 X 2 Austrália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">França 3 X 0 Dinamarca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunísia 2 X 2 França </t>
+  </si>
+  <si>
+    <t>Austrália 3 X 3 Dinamarca</t>
+  </si>
+  <si>
+    <t>Argentina 4 X 2 Arábia Saudita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México 3 X 1 Polônia </t>
+  </si>
+  <si>
+    <t>Polônia 3 X 4 Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUA 3 X 2 Gales </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglaterra 1 X 1 EUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irã 2 X 4 EUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANDRÉIA</t>
+  </si>
+  <si>
+    <t>Costa Rica 1 X 1 Alemanha</t>
+  </si>
+  <si>
+    <t>Holanda 4 X 1 Catar</t>
+  </si>
+  <si>
+    <t>1º: Neymar BR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2º: Vinício Jr </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º: Espanha </t>
+  </si>
+  <si>
+    <t>2º: Austrália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguai 0 X 1 Coreia do Sul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 0 X 1 Gana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 0 X 1 Uruguai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suíça 0 X 1 Camarões </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil 0 X 1 Sérvia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camarões 0 X 1 Sérvia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil 0 X 1 Suíça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérvia 0 X 1 Suíça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 0 X 1 Canadá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 0 X 1 Marrocos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croácia 0 X 1 Canadá </t>
+  </si>
+  <si>
+    <t>Canadá 0 X 1 Marrocos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alemanha 0 X 1 Japão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanha 0 X 1 Costa Rica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanha 0 X 1 Alemanha </t>
+  </si>
+  <si>
+    <t>Dinamarca 0 X 1 Tunísia</t>
+  </si>
+  <si>
+    <t>França 0 X 1 Austrália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">França 0 X 1 Dinamarca </t>
+  </si>
+  <si>
+    <t>Argentina 0 X 1 Arábia Saudita</t>
+  </si>
+  <si>
+    <t>Polônia 0 X 1 Arábia Saudita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina 0 X 1 México </t>
+  </si>
+  <si>
+    <t>Inglaterra 0 X 1 Irã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglaterra 0 X 1 EUA </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal 0 X 1 Holanda </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catar 0 X 1 Senegal </t>
+  </si>
+  <si>
+    <t>Holanda 0 X 1 Catar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOSEIR</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOSEIR_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gales 1 X 0 Irã </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Irã 1 X 0 EUA </t>
+  </si>
+  <si>
+    <t>Gales 1 X 0 Inglaterra</t>
+  </si>
+  <si>
+    <t>Argentina 1 X 0 Arábia Saudita</t>
+  </si>
+  <si>
+    <t>Polônia 1 X 0 Argentina</t>
+  </si>
+  <si>
+    <t>Arábia Saudita 1 X 0 México</t>
+  </si>
+  <si>
+    <t>Tunísia 1 X 0 Austrália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunísia 1 X 0 França </t>
+  </si>
+  <si>
+    <t>Austrália 1 X 0 Dinamarca</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanha 1 X 0 Costa Rica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanha 1 X 0 Alemanha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica 1 X 0 Alemanha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marrocos 1 X 0 Croácia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 1 X 0 Marrocos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croácia 1 X 0 Bélgica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camarões 1 X 0 Brasil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérvia 1 X 0 Suíça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uruguai 1 X 0 Coreia do Sul </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coreia do Sul 1 X 0 Portugal </t>
+  </si>
+  <si>
+    <t>1º: Richarlyson BR</t>
+  </si>
+  <si>
+    <t>2º: Messi AG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> IVANI</t>
+  </si>
+  <si>
+    <t>2º: Raphinha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coreia do Sul 1 X 1 Gana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil 4 X 1 Sérvia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marrocos 2 X 1 Croácia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 2 X 2 Marrocos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croácia 3 X 3 Canadá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Canadá 2 X 1 Marrocos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alemanha 1 X 2 Japão </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanha 2 X 3 Costa Rica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japão 3 X 2 Costa Rica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japão 2 X 1 Espanha </t>
+  </si>
+  <si>
+    <t>Costa Rica 2 X 2 Alemanha</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austrália 2 X 0 Dinamarca </t>
+  </si>
+  <si>
+    <t>Argentina 2 X 1 Arábia Saudita</t>
+  </si>
+  <si>
+    <t xml:space="preserve">México 2 X 2 Polônia </t>
+  </si>
+  <si>
+    <t>Polônia 2 X 1 Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUA 3 X 1 Gales </t>
+  </si>
+  <si>
+    <t>Gales 2 X 2 Inglaterra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Catar 0 X 13 Senegal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holanda 2 X 2 Equador </t>
+  </si>
+  <si>
+    <t>Holanda 1 X 1 Catar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JOSIMAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2º: Estados Unidos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º: Neymar Brasil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gana 1 X 1 Uruguai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suíça 1 X 1 Camarões </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 1 X 1 Canadá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica 2 X 3 Alemanha </t>
+  </si>
+  <si>
+    <t>França 1 X 1 Austrália</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austrália 2 X 1 Dinamarca </t>
+  </si>
+  <si>
+    <t>Inglaterra 1 X 1 Irã</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUA 2 X 1 Gales </t>
+  </si>
+  <si>
+    <t>Gales 2 X 1 Inglaterra</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> JULIO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> TALITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GABRIEL</t>
+  </si>
+  <si>
+    <t>1º: Cristiano Ronaldo/Portugal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2º: Kylian Mbappé/França </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2º: Portugal </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gana 0 X 2 Uruguai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camarões 0 X 3 Brasil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérvia 2 X 1 Suíça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marrocos 0 X 3 Croácia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 0 X 0 Canadá </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japão 0 X 0 Costa Rica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">França 2 X 2 Dinamarca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunísia 1 X 2 França </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Austrália 0 X 2 Dinamarca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argentina 1 X 1 México </t>
+  </si>
+  <si>
+    <t>Polônia 0 X 2 Argentina</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EUA 0 X 0 Gales </t>
+  </si>
+  <si>
+    <t>1º: Mbappe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 3 X 3 Uruguai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sérvia 2 X 0 Suíça </t>
+  </si>
+  <si>
+    <t xml:space="preserve">França 3 X 2 Dinamarca </t>
+  </si>
+  <si>
+    <t>Argentina 4 X 0 Arábia Saudita</t>
+  </si>
+  <si>
+    <t>Holanda 4 X 0 Catar</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1060,8 +1666,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1101,6 +1714,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF9999"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1369,7 +1988,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1474,12 +2093,18 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF9999"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2064,11 +2689,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BEF62C-6F28-4FDF-83A7-749A11BA777A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23972C9-B65E-420C-8C89-00E0AD8CC727}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2085,7 +2713,7 @@
         <v>165</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>250</v>
+        <v>301</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -2132,11 +2760,11 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>126</v>
+        <v>289</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>204</v>
+        <v>279</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="28" t="s">
@@ -2153,46 +2781,46 @@
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="28" t="s">
-        <v>255</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>251</v>
+        <v>290</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
-        <v>265</v>
+        <v>280</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="28" t="s">
-        <v>256</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>252</v>
+        <v>291</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
-        <v>205</v>
+        <v>153</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="28" t="s">
-        <v>257</v>
+        <v>244</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>195</v>
+        <v>6</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>22</v>
+        <v>206</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="28" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2201,11 +2829,11 @@
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25" t="s">
-        <v>111</v>
+        <v>281</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="28" t="s">
-        <v>53</v>
+        <v>215</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2249,20 +2877,20 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>45</v>
+        <v>285</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25" t="s">
-        <v>24</v>
+        <v>278</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="28" t="s">
-        <v>145</v>
+        <v>270</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>267</v>
+        <v>197</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
@@ -2270,12 +2898,12 @@
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="28" t="s">
-        <v>123</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
@@ -2288,15 +2916,15 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>198</v>
+        <v>287</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
-        <v>261</v>
+        <v>26</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="28" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
@@ -2314,7 +2942,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>104</v>
+        <v>288</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
@@ -2322,7 +2950,7 @@
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="28" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2364,24 +2992,24 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25" t="s">
-        <v>50</v>
+        <v>158</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="28" t="s">
-        <v>318</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>266</v>
+        <v>14</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25" t="s">
-        <v>116</v>
+        <v>159</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
@@ -2401,37 +3029,37 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>46</v>
+        <v>282</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25" t="s">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="28" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>16</v>
+        <v>283</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
-        <v>30</v>
+        <v>276</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="28" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>178</v>
+        <v>284</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27" t="s">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
@@ -2446,11 +3074,14 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23972C9-B65E-420C-8C89-00E0AD8CC727}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BEF62C-6F28-4FDF-83A7-749A11BA777A}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2467,7 +3098,7 @@
         <v>165</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>301</v>
+        <v>250</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -2514,7 +3145,1547 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>289</v>
+        <v>126</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>260</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6B19-5CD6-451C-AD0E-C9E1DA26EAEC}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>353</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>344</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>351</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>345</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>341</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>349</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>286</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>350</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>199</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>348</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A4F992-1080-4619-B6C7-39002C2BE298}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>354</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>205</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>234</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>364</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>365</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>363</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>347</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>360</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>340</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>361</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A217F9A-EC47-4C48-9AE7-DF29CDC027AD}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>382</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>383</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>384</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>385</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>386</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>285</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>380</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>381</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>343</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>376</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>387</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>377</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>388</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A267AEF9-F28F-4DD6-8299-AB1ADF00DE8A}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
@@ -2522,7 +4693,7 @@
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="28" t="s">
-        <v>51</v>
+        <v>394</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2531,33 +4702,1188 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>264</v>
+        <v>403</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="28" t="s">
-        <v>52</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>290</v>
+        <v>4</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
-        <v>280</v>
+        <v>232</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="28" t="s">
-        <v>273</v>
+        <v>395</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="24" t="s">
-        <v>291</v>
+        <v>194</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
-        <v>153</v>
+        <v>404</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>415</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>405</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>406</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>410</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>414</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>407</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>396</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>408</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>397</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>201</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>398</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>409</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>400</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB75744-B0E8-4C30-B782-AF415E37229F}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>446</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>435</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>443</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>436</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>444</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>437</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>445</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>441</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>432</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>433</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>442</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>434</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>130</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>239</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>438</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>428</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>429</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>440</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>283</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>431</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F53289E-FFA8-4469-A8A7-CA3E93CFF68C}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>231</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>454</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>455</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>456</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>401</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>457</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>458</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>450</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>459</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>451</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>460</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>461</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>452</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>462</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>453</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3AFBB9-B210-4CBE-A7D8-8654C929DB73}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>469</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>403</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>488</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>489</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>345</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="28" t="s">
@@ -2566,28 +5892,28 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>6</v>
+        <v>490</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>206</v>
+        <v>110</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="28" t="s">
-        <v>274</v>
+        <v>214</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>98</v>
+        <v>7</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25" t="s">
-        <v>281</v>
+        <v>482</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="28" t="s">
-        <v>215</v>
+        <v>427</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2631,80 +5957,80 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>285</v>
+        <v>99</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25" t="s">
-        <v>278</v>
+        <v>477</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="28" t="s">
-        <v>270</v>
+        <v>145</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>197</v>
+        <v>486</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>25</v>
+        <v>478</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="28" t="s">
-        <v>271</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>286</v>
+        <v>10</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
-        <v>112</v>
+        <v>479</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="28" t="s">
-        <v>253</v>
+        <v>471</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="24" t="s">
-        <v>287</v>
+        <v>411</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="28" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>269</v>
+        <v>449</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
-        <v>262</v>
+        <v>480</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="28" t="s">
-        <v>218</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="24" t="s">
-        <v>288</v>
+        <v>487</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
-        <v>263</v>
+        <v>481</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="28" t="s">
-        <v>272</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -2746,35 +6072,35 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>151</v>
+        <v>483</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25" t="s">
-        <v>158</v>
+        <v>473</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="28" t="s">
-        <v>326</v>
+        <v>492</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>14</v>
+        <v>484</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="24" t="s">
-        <v>133</v>
+        <v>387</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25" t="s">
-        <v>259</v>
+        <v>474</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="22" t="s">
@@ -2783,15 +6109,400 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>282</v>
+        <v>388</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25" t="s">
-        <v>275</v>
+        <v>475</v>
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="28" t="s">
-        <v>327</v>
+        <v>310</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>389</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>476</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9EC985-94AA-4640-B899-75BBE57DDBB5}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>491</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>498</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>110</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>352</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>499</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>500</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>501</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>502</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>497</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>200</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>496</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>439</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>229</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>493</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
@@ -2800,20 +6511,20 @@
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
-        <v>276</v>
+        <v>399</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="28" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>284</v>
+        <v>178</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27" t="s">
-        <v>277</v>
+        <v>31</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
@@ -2831,7 +6542,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64DF39F-3F82-40A1-8911-4EAF0D8AC5D2}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
@@ -3655,12 +7366,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970171A8-7284-4442-9B7C-D708590E55EE}">
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F087E5B8-7BE5-49ED-ABC5-FECA77748DB0}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P25" sqref="P25"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3677,7 +7391,7 @@
         <v>165</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>164</v>
+        <v>503</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -3723,8 +7437,8 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>43</v>
+      <c r="A5" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
@@ -4037,12 +7751,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24752F94-6767-4C3D-BA33-534BADE255F3}">
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177E6F08-332F-46CB-8F96-3E27ACE724EC}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4059,7 +7776,7 @@
         <v>165</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>329</v>
+        <v>504</v>
       </c>
       <c r="C1" s="42"/>
       <c r="D1" s="42"/>
@@ -4105,25 +7822,25 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>2</v>
+      <c r="A5" s="44" t="s">
+        <v>367</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>19</v>
+        <v>108</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="28" t="s">
-        <v>33</v>
+        <v>495</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>3</v>
+        <v>127</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="28" t="s">
@@ -4132,11 +7849,11 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
-        <v>4</v>
+        <v>444</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
-        <v>21</v>
+        <v>152</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="28" t="s">
@@ -4149,43 +7866,41 @@
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
-        <v>233</v>
+        <v>515</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="28" t="s">
-        <v>35</v>
+        <v>337</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="24" t="s">
-        <v>6</v>
+        <v>195</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>22</v>
+        <v>516</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="28" t="s">
-        <v>36</v>
+        <v>510</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="24" t="s">
-        <v>7</v>
+        <v>44</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25" t="s">
-        <v>297</v>
+        <v>517</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="28" t="s">
-        <v>292</v>
+        <v>511</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>0</v>
-      </c>
+      <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
         <v>0</v>
@@ -4223,41 +7938,41 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
-        <v>298</v>
+        <v>45</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25" t="s">
-        <v>24</v>
+        <v>379</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="28" t="s">
-        <v>38</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="24" t="s">
-        <v>9</v>
+        <v>520</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>25</v>
+        <v>156</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="28" t="s">
-        <v>39</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="24" t="s">
-        <v>10</v>
+        <v>101</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
-        <v>295</v>
+        <v>514</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="28" t="s">
-        <v>247</v>
+        <v>216</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
@@ -4266,24 +7981,24 @@
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
-        <v>26</v>
+        <v>113</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="28" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="24" t="s">
-        <v>299</v>
+        <v>103</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
-        <v>27</v>
+        <v>238</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="28" t="s">
-        <v>41</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
@@ -4292,11 +8007,11 @@
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="28" t="s">
-        <v>42</v>
+        <v>509</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -4333,29 +8048,29 @@
       </c>
       <c r="D22" s="25"/>
       <c r="E22" s="28" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="24" t="s">
-        <v>13</v>
+        <v>151</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25" t="s">
-        <v>293</v>
+        <v>512</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="28" t="s">
-        <v>305</v>
+        <v>508</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
-        <v>14</v>
+        <v>266</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25" t="s">
-        <v>294</v>
+        <v>513</v>
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
@@ -4366,7 +8081,7 @@
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25" t="s">
-        <v>240</v>
+        <v>461</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="22" t="s">
@@ -4375,7 +8090,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="24" t="s">
-        <v>15</v>
+        <v>518</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25" t="s">
@@ -4383,25 +8098,25 @@
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="28" t="s">
-        <v>307</v>
+        <v>506</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="24" t="s">
-        <v>16</v>
+        <v>519</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
-        <v>30</v>
+        <v>119</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="28" t="s">
-        <v>308</v>
+        <v>507</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="26" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27" t="s">
@@ -4419,12 +8134,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F648EBF-81CA-4195-8FA5-737E76FFE283}">
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF9E27-DF2C-408C-93BB-EF966D4B5C7A}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4441,6 +8159,1543 @@
         <v>165</v>
       </c>
       <c r="B1" s="42" t="s">
+        <v>505</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>524</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>526</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>207</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>208</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>411</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>525</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>339</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>202</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B607B886-7CB1-462C-8A78-EE2D9FCECC8F}">
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>527</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="44" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970171A8-7284-4442-9B7C-D708590E55EE}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24752F94-6767-4C3D-BA33-534BADE255F3}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="42"/>
+      <c r="D1" s="42"/>
+      <c r="E1" s="43"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>297</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>298</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>295</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>299</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>296</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>294</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>228</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F648EBF-81CA-4195-8FA5-737E76FFE283}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="42" t="s">
         <v>166</v>
       </c>
       <c r="C1" s="42"/>
@@ -4803,10 +10058,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06DFCCA-60D7-4B3E-A3EA-005CC8322C9C}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5185,10 +10443,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60C4445-4606-4FE5-852C-F657DED8F445}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5567,10 +10828,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BCDA78-BC55-42AA-BF84-23A54B50E435}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5949,10 +11213,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A7C80E-0F48-409F-907E-FF5EAB35AA2C}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K26" sqref="K26"/>
+      <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/docs/Bolão da Copa do Mundo - Catar 2022.xlsx
+++ b/docs/Bolão da Copa do Mundo - Catar 2022.xlsx
@@ -8,34 +8,35 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Programing\Github\bolao\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{718C9C5B-0543-49B7-BE85-38DE12B1EE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521D56B-1026-4895-A3F9-E9A8F6FE5B18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6384" tabRatio="754" firstSheet="7" activeTab="22" xr2:uid="{779A00DC-359A-4F42-A9CB-BE9275E20E22}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6384" tabRatio="754" activeTab="1" xr2:uid="{779A00DC-359A-4F42-A9CB-BE9275E20E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Seleções" sheetId="4" r:id="rId1"/>
-    <sheet name="Tabela" sheetId="1" r:id="rId2"/>
-    <sheet name="Ivan" sheetId="3" r:id="rId3"/>
-    <sheet name="Ivan-TK" sheetId="10" r:id="rId4"/>
-    <sheet name="Macélio" sheetId="11" r:id="rId5"/>
-    <sheet name="Bruno-TK" sheetId="6" r:id="rId6"/>
-    <sheet name="Juninho1" sheetId="17" r:id="rId7"/>
-    <sheet name="Juninho2" sheetId="18" r:id="rId8"/>
-    <sheet name="Luana" sheetId="12" r:id="rId9"/>
-    <sheet name="Mácio" sheetId="16" r:id="rId10"/>
-    <sheet name="Alex" sheetId="13" r:id="rId11"/>
-    <sheet name="Jean" sheetId="19" r:id="rId12"/>
-    <sheet name="Robert" sheetId="20" r:id="rId13"/>
-    <sheet name="Roberto" sheetId="21" r:id="rId14"/>
-    <sheet name="Andréia" sheetId="22" r:id="rId15"/>
-    <sheet name="Joseir1" sheetId="23" r:id="rId16"/>
-    <sheet name="Joseir2" sheetId="24" r:id="rId17"/>
-    <sheet name="Ivani" sheetId="25" r:id="rId18"/>
-    <sheet name="Josimar" sheetId="26" r:id="rId19"/>
-    <sheet name="Julio" sheetId="27" r:id="rId20"/>
-    <sheet name="Talita" sheetId="30" r:id="rId21"/>
-    <sheet name="Gabriel" sheetId="28" r:id="rId22"/>
-    <sheet name="Ivan (12)" sheetId="29" r:id="rId23"/>
+    <sheet name="Classificação" sheetId="31" r:id="rId2"/>
+    <sheet name="Tabela" sheetId="1" r:id="rId3"/>
+    <sheet name="Ivan" sheetId="3" r:id="rId4"/>
+    <sheet name="Ivan-TK" sheetId="10" r:id="rId5"/>
+    <sheet name="Macélio" sheetId="11" r:id="rId6"/>
+    <sheet name="Bruno-TK" sheetId="6" r:id="rId7"/>
+    <sheet name="Juninho1" sheetId="17" r:id="rId8"/>
+    <sheet name="Juninho2" sheetId="18" r:id="rId9"/>
+    <sheet name="Luana" sheetId="12" r:id="rId10"/>
+    <sheet name="Mácio" sheetId="16" r:id="rId11"/>
+    <sheet name="Alex" sheetId="13" r:id="rId12"/>
+    <sheet name="Jean" sheetId="19" r:id="rId13"/>
+    <sheet name="Robert" sheetId="20" r:id="rId14"/>
+    <sheet name="Roberto" sheetId="21" r:id="rId15"/>
+    <sheet name="Andréia" sheetId="22" r:id="rId16"/>
+    <sheet name="Joseir1" sheetId="23" r:id="rId17"/>
+    <sheet name="Joseir2" sheetId="24" r:id="rId18"/>
+    <sheet name="Ivani" sheetId="25" r:id="rId19"/>
+    <sheet name="Josimar" sheetId="26" r:id="rId20"/>
+    <sheet name="Julio" sheetId="27" r:id="rId21"/>
+    <sheet name="Talita" sheetId="30" r:id="rId22"/>
+    <sheet name="Gabriel" sheetId="28" r:id="rId23"/>
+    <sheet name="Ivan (12)" sheetId="29" r:id="rId24"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -47,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1897" uniqueCount="528">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="536">
   <si>
     <t xml:space="preserve">-------------------- </t>
   </si>
@@ -1631,13 +1632,40 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Vencedor Fase de Grupos</t>
+  </si>
+  <si>
+    <t>Total de Participantes</t>
+  </si>
+  <si>
+    <t>Valor R$ de cada aposta</t>
+  </si>
+  <si>
+    <t>Valor Arrecadado</t>
+  </si>
+  <si>
+    <t>1º Colocado (50%)</t>
+  </si>
+  <si>
+    <t>2º Colocado (30%)</t>
+  </si>
+  <si>
+    <t>3º Colocado (20%)</t>
+  </si>
+  <si>
+    <t>1º, 2º e 3º Colocados</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1673,8 +1701,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1720,6 +1762,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF9999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1988,7 +2048,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2054,6 +2114,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2093,7 +2154,33 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2689,6 +2776,392 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A7C80E-0F48-409F-907E-FF5EAB35AA2C}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>191</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="24" t="s">
+        <v>169</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>134</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="24" t="s">
+        <v>170</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>179</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>180</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="24" t="s">
+        <v>172</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="24" t="s">
+        <v>173</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="24" t="s">
+        <v>174</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="24" t="s">
+        <v>175</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>183</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="24" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="26" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E23972C9-B65E-420C-8C89-00E0AD8CC727}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -2712,12 +3185,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -3073,7 +3546,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BEF62C-6F28-4FDF-83A7-749A11BA777A}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3097,12 +3570,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -3458,7 +3931,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6B19-5CD6-451C-AD0E-C9E1DA26EAEC}">
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
@@ -3482,12 +3955,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -3529,7 +4002,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -3843,7 +4316,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A4F992-1080-4619-B6C7-39002C2BE298}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -3867,12 +4340,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>354</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -3914,7 +4387,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -4228,7 +4701,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A217F9A-EC47-4C48-9AE7-DF29CDC027AD}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4252,12 +4725,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -4299,7 +4772,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -4613,7 +5086,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A267AEF9-F28F-4DD6-8299-AB1ADF00DE8A}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -4637,12 +5110,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>413</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -4684,7 +5157,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -4998,7 +5471,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBB75744-B0E8-4C30-B782-AF415E37229F}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -5022,12 +5495,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -5069,7 +5542,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -5383,7 +5856,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F53289E-FFA8-4469-A8A7-CA3E93CFF68C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -5407,12 +5880,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -5454,7 +5927,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -5768,7 +6241,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB3AFBB9-B210-4CBE-A7D8-8654C929DB73}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -5792,12 +6265,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -6153,7 +6626,21 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE989A00-3C9C-4649-9815-06CC07EBF763}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AB9EC985-94AA-4640-B899-75BBE57DDBB5}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -6177,12 +6664,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>491</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -6224,7 +6711,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -6538,835 +7025,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64DF39F-3F82-40A1-8911-4EAF0D8AC5D2}">
-  <dimension ref="A1:O30"/>
-  <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="5.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="8.88671875" style="3"/>
-    <col min="14" max="15" width="16.6640625" style="3" customWidth="1"/>
-    <col min="16" max="16384" width="8.88671875" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:15" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="B1" s="34"/>
-      <c r="C1" s="34"/>
-      <c r="D1" s="34"/>
-      <c r="E1" s="34"/>
-      <c r="F1" s="34"/>
-      <c r="G1" s="34"/>
-      <c r="H1" s="34"/>
-      <c r="I1" s="34"/>
-      <c r="J1" s="34"/>
-      <c r="K1" s="35"/>
-    </row>
-    <row r="2" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="41" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31"/>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="36"/>
-      <c r="G2" s="31" t="s">
-        <v>91</v>
-      </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="32"/>
-      <c r="N2" s="39" t="s">
-        <v>90</v>
-      </c>
-      <c r="O2" s="40"/>
-    </row>
-    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B3" s="11">
-        <v>0</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D3" s="11">
-        <v>2</v>
-      </c>
-      <c r="E3" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="O3" s="12" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A4" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D4" s="7"/>
-      <c r="E4" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J4" s="7"/>
-      <c r="K4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="O4" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D5" s="7"/>
-      <c r="E5" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J5" s="7"/>
-      <c r="K5" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="N5" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="O5" s="12" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A6" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="7"/>
-      <c r="E6" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J6" s="7"/>
-      <c r="K6" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N6" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="O6" s="12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A7" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="7"/>
-      <c r="E7" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" s="7"/>
-      <c r="K7" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="O7" s="12" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D8" s="7"/>
-      <c r="E8" s="15" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="6" t="s">
-        <v>66</v>
-      </c>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="7"/>
-      <c r="K8" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="O8" s="12" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="31"/>
-      <c r="C9" s="31"/>
-      <c r="D9" s="31"/>
-      <c r="E9" s="31"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="31" t="s">
-        <v>92</v>
-      </c>
-      <c r="H9" s="31"/>
-      <c r="I9" s="31"/>
-      <c r="J9" s="31"/>
-      <c r="K9" s="32"/>
-      <c r="N9" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="O9" s="12" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A10" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="11"/>
-      <c r="E10" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F10" s="37"/>
-      <c r="G10" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="11"/>
-      <c r="K10" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="O10" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A11" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D11" s="7"/>
-      <c r="E11" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="F11" s="37"/>
-      <c r="G11" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H11" s="7"/>
-      <c r="I11" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J11" s="7"/>
-      <c r="K11" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N11" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="O11" s="12" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A12" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="F12" s="37"/>
-      <c r="G12" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="H12" s="7"/>
-      <c r="I12" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J12" s="7"/>
-      <c r="K12" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="O12" s="12" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D13" s="7"/>
-      <c r="E13" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F13" s="37"/>
-      <c r="G13" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J13" s="7"/>
-      <c r="K13" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="O13" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D14" s="7"/>
-      <c r="E14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="F14" s="37"/>
-      <c r="G14" s="6" t="s">
-        <v>67</v>
-      </c>
-      <c r="H14" s="7"/>
-      <c r="I14" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J14" s="7"/>
-      <c r="K14" s="12" t="s">
-        <v>60</v>
-      </c>
-      <c r="N14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="O14" s="12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="7"/>
-      <c r="E15" s="15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" s="37"/>
-      <c r="G15" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="7"/>
-      <c r="I15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J15" s="7"/>
-      <c r="K15" s="12" t="s">
-        <v>78</v>
-      </c>
-      <c r="N15" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="O15" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A16" s="41" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="31"/>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="37"/>
-      <c r="G16" s="31" t="s">
-        <v>93</v>
-      </c>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="32"/>
-      <c r="N16" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="O16" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F17" s="37"/>
-      <c r="G17" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J17" s="11"/>
-      <c r="K17" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="N17" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="O17" s="12" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D18" s="7"/>
-      <c r="E18" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="F18" s="37"/>
-      <c r="G18" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H18" s="7"/>
-      <c r="I18" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J18" s="7"/>
-      <c r="K18" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="N18" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="O18" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="7"/>
-      <c r="E19" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="F19" s="37"/>
-      <c r="G19" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H19" s="7"/>
-      <c r="I19" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J19" s="7"/>
-      <c r="K19" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="7"/>
-      <c r="E20" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F20" s="37"/>
-      <c r="G20" s="6" t="s">
-        <v>61</v>
-      </c>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J20" s="7"/>
-      <c r="K20" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D21" s="7"/>
-      <c r="E21" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="37"/>
-      <c r="G21" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="7"/>
-      <c r="I21" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J21" s="7"/>
-      <c r="K21" s="12" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D22" s="7"/>
-      <c r="E22" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="F22" s="37"/>
-      <c r="G22" s="6" t="s">
-        <v>84</v>
-      </c>
-      <c r="H22" s="7"/>
-      <c r="I22" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J22" s="7"/>
-      <c r="K22" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="31"/>
-      <c r="C23" s="31"/>
-      <c r="D23" s="31"/>
-      <c r="E23" s="31"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="31" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="31"/>
-      <c r="I23" s="31"/>
-      <c r="J23" s="31"/>
-      <c r="K23" s="32"/>
-    </row>
-    <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B24" s="11"/>
-      <c r="C24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D24" s="11"/>
-      <c r="E24" s="15" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24" s="37"/>
-      <c r="G24" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J24" s="11"/>
-      <c r="K24" s="12" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D25" s="7"/>
-      <c r="E25" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F25" s="37"/>
-      <c r="G25" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="7"/>
-      <c r="I25" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J25" s="7"/>
-      <c r="K25" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A26" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="F26" s="37"/>
-      <c r="G26" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J26" s="7"/>
-      <c r="K26" s="12" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A27" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="F27" s="37"/>
-      <c r="G27" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J27" s="7"/>
-      <c r="K27" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A28" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="F28" s="37"/>
-      <c r="G28" s="6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J28" s="7"/>
-      <c r="K28" s="12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="10"/>
-      <c r="C29" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="10"/>
-      <c r="E29" s="16" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="H29" s="10"/>
-      <c r="I29" s="10" t="s">
-        <v>88</v>
-      </c>
-      <c r="J29" s="10"/>
-      <c r="K29" s="14" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="11">
-    <mergeCell ref="G16:K16"/>
-    <mergeCell ref="G23:K23"/>
-    <mergeCell ref="A1:K1"/>
-    <mergeCell ref="F2:F29"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A9:E9"/>
-    <mergeCell ref="A16:E16"/>
-    <mergeCell ref="A23:E23"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="G9:K9"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F087E5B8-7BE5-49ED-ABC5-FECA77748DB0}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7390,12 +7049,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>503</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -7437,7 +7096,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -7751,7 +7410,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{177E6F08-332F-46CB-8F96-3E27ACE724EC}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -7775,12 +7434,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>504</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -7822,7 +7481,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -8134,7 +7793,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3BF9E27-DF2C-408C-93BB-EF966D4B5C7A}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -8158,12 +7817,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>505</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -8205,7 +7864,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -8519,11 +8178,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B607B886-7CB1-462C-8A78-EE2D9FCECC8F}">
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
@@ -8540,12 +8199,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>527</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -8587,7 +8246,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="44" t="s">
+      <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
@@ -8902,6 +8561,973 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64DF39F-3F82-40A1-8911-4EAF0D8AC5D2}">
+  <dimension ref="A1:V30"/>
+  <sheetViews>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.21875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.77734375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.21875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.44140625" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.88671875" style="3"/>
+    <col min="13" max="14" width="16.6640625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="3"/>
+    <col min="16" max="16" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="17" max="19" width="8.88671875" style="3"/>
+    <col min="20" max="22" width="11.33203125" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="34" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="35"/>
+      <c r="C1" s="35"/>
+      <c r="D1" s="35"/>
+      <c r="E1" s="35"/>
+      <c r="F1" s="35"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+      <c r="J1" s="35"/>
+      <c r="K1" s="36"/>
+    </row>
+    <row r="2" spans="1:22" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="37"/>
+      <c r="G2" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H2" s="32"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="33"/>
+      <c r="M2" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="N2" s="41"/>
+      <c r="P2" s="52" t="s">
+        <v>528</v>
+      </c>
+      <c r="Q2" s="52"/>
+      <c r="R2" s="52"/>
+      <c r="T2" s="53" t="s">
+        <v>529</v>
+      </c>
+      <c r="U2" s="53"/>
+      <c r="V2" s="53"/>
+    </row>
+    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B3" s="11">
+        <v>0</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="38"/>
+      <c r="G3" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="N3" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="P3" s="48">
+        <v>50</v>
+      </c>
+      <c r="Q3" s="48"/>
+      <c r="R3" s="48"/>
+      <c r="T3" s="47">
+        <v>20</v>
+      </c>
+      <c r="U3" s="47"/>
+      <c r="V3" s="47"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="7"/>
+      <c r="E4" s="15" t="s">
+        <v>74</v>
+      </c>
+      <c r="F4" s="38"/>
+      <c r="G4" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J4" s="7"/>
+      <c r="K4" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="N4" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="P4" s="48"/>
+      <c r="Q4" s="48"/>
+      <c r="R4" s="48"/>
+      <c r="T4" s="47"/>
+      <c r="U4" s="47"/>
+      <c r="V4" s="47"/>
+    </row>
+    <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D5" s="7"/>
+      <c r="E5" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F5" s="38"/>
+      <c r="G5" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H5" s="7"/>
+      <c r="I5" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J5" s="7"/>
+      <c r="K5" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="M5" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" s="48"/>
+      <c r="Q5" s="48"/>
+      <c r="R5" s="48"/>
+      <c r="T5" s="47"/>
+      <c r="U5" s="47"/>
+      <c r="V5" s="47"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A6" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" s="7"/>
+      <c r="C6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D6" s="7"/>
+      <c r="E6" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6" s="38"/>
+      <c r="G6" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J6" s="7"/>
+      <c r="K6" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M6" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="N6" s="12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" s="7"/>
+      <c r="C7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D7" s="7"/>
+      <c r="E7" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="F7" s="38"/>
+      <c r="G7" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J7" s="7"/>
+      <c r="K7" s="12" t="s">
+        <v>70</v>
+      </c>
+      <c r="M7" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N7" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="P7" s="51" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q7" s="51"/>
+      <c r="R7" s="51"/>
+      <c r="T7" s="53" t="s">
+        <v>530</v>
+      </c>
+      <c r="U7" s="53"/>
+      <c r="V7" s="53"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B8" s="7"/>
+      <c r="C8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D8" s="7"/>
+      <c r="E8" s="15" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="38"/>
+      <c r="G8" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H8" s="7"/>
+      <c r="I8" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="7"/>
+      <c r="K8" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="N8" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="48">
+        <f>T16*0.5</f>
+        <v>75</v>
+      </c>
+      <c r="Q8" s="48"/>
+      <c r="R8" s="48"/>
+      <c r="T8" s="45">
+        <v>10</v>
+      </c>
+      <c r="U8" s="45"/>
+      <c r="V8" s="45"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32"/>
+      <c r="C9" s="32"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="H9" s="32"/>
+      <c r="I9" s="32"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="33"/>
+      <c r="M9" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="P9" s="48"/>
+      <c r="Q9" s="48"/>
+      <c r="R9" s="48"/>
+      <c r="T9" s="45"/>
+      <c r="U9" s="45"/>
+      <c r="V9" s="45"/>
+    </row>
+    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="A10" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B10" s="11"/>
+      <c r="C10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F10" s="38"/>
+      <c r="G10" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="11"/>
+      <c r="K10" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A11" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D11" s="7"/>
+      <c r="E11" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="38"/>
+      <c r="G11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J11" s="7"/>
+      <c r="K11" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M11" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="N11" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="P11" s="50" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="T11" s="53" t="s">
+        <v>531</v>
+      </c>
+      <c r="U11" s="53"/>
+      <c r="V11" s="53"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A12" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D12" s="7"/>
+      <c r="E12" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F12" s="38"/>
+      <c r="G12" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" s="7"/>
+      <c r="K12" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="N12" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="P12" s="48">
+        <f>T16*0.3</f>
+        <v>45</v>
+      </c>
+      <c r="Q12" s="48"/>
+      <c r="R12" s="48"/>
+      <c r="T12" s="46">
+        <f>T3*T8</f>
+        <v>200</v>
+      </c>
+      <c r="U12" s="47"/>
+      <c r="V12" s="47"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A13" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D13" s="7"/>
+      <c r="E13" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F13" s="38"/>
+      <c r="G13" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J13" s="7"/>
+      <c r="K13" s="12" t="s">
+        <v>63</v>
+      </c>
+      <c r="M13" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N13" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="P13" s="48"/>
+      <c r="Q13" s="48"/>
+      <c r="R13" s="48"/>
+      <c r="T13" s="47"/>
+      <c r="U13" s="47"/>
+      <c r="V13" s="47"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A14" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D14" s="7"/>
+      <c r="E14" s="15" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="38"/>
+      <c r="G14" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="H14" s="7"/>
+      <c r="I14" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J14" s="7"/>
+      <c r="K14" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="N14" s="12" t="s">
+        <v>83</v>
+      </c>
+      <c r="T14" s="47"/>
+      <c r="U14" s="47"/>
+      <c r="V14" s="47"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A15" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="7"/>
+      <c r="C15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="7"/>
+      <c r="E15" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="38"/>
+      <c r="G15" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J15" s="7"/>
+      <c r="K15" s="12" t="s">
+        <v>78</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="N15" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="P15" s="49" t="s">
+        <v>534</v>
+      </c>
+      <c r="Q15" s="49"/>
+      <c r="R15" s="49"/>
+      <c r="T15" s="53" t="s">
+        <v>535</v>
+      </c>
+      <c r="U15" s="53"/>
+      <c r="V15" s="53"/>
+    </row>
+    <row r="16" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="32"/>
+      <c r="C16" s="32"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="H16" s="32"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="32"/>
+      <c r="K16" s="33"/>
+      <c r="M16" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N16" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P16" s="48">
+        <f>T16*0.2</f>
+        <v>30</v>
+      </c>
+      <c r="Q16" s="48"/>
+      <c r="R16" s="48"/>
+      <c r="T16" s="46">
+        <f>T12-P3</f>
+        <v>150</v>
+      </c>
+      <c r="U16" s="46"/>
+      <c r="V16" s="46"/>
+    </row>
+    <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="11"/>
+      <c r="C17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F17" s="38"/>
+      <c r="G17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J17" s="11"/>
+      <c r="K17" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="M17" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N17" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="P17" s="48"/>
+      <c r="Q17" s="48"/>
+      <c r="R17" s="48"/>
+      <c r="T17" s="46"/>
+      <c r="U17" s="46"/>
+      <c r="V17" s="46"/>
+    </row>
+    <row r="18" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="7"/>
+      <c r="E18" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="F18" s="38"/>
+      <c r="G18" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J18" s="7"/>
+      <c r="K18" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="M18" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19" s="7"/>
+      <c r="C19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D19" s="7"/>
+      <c r="E19" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="F19" s="38"/>
+      <c r="G19" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J19" s="7"/>
+      <c r="K19" s="12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="B20" s="7"/>
+      <c r="C20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="7"/>
+      <c r="E20" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F20" s="38"/>
+      <c r="G20" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J20" s="7"/>
+      <c r="K20" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A21" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="B21" s="7"/>
+      <c r="C21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D21" s="7"/>
+      <c r="E21" s="15" t="s">
+        <v>58</v>
+      </c>
+      <c r="F21" s="38"/>
+      <c r="G21" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J21" s="7"/>
+      <c r="K21" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="B22" s="7"/>
+      <c r="C22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D22" s="7"/>
+      <c r="E22" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="F22" s="38"/>
+      <c r="G22" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J22" s="7"/>
+      <c r="K22" s="12" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="32"/>
+      <c r="I23" s="32"/>
+      <c r="J23" s="32"/>
+      <c r="K23" s="33"/>
+    </row>
+    <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="A24" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="11"/>
+      <c r="C24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D24" s="11"/>
+      <c r="E24" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24" s="38"/>
+      <c r="G24" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J24" s="11"/>
+      <c r="K24" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B25" s="7"/>
+      <c r="C25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D25" s="7"/>
+      <c r="E25" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F25" s="38"/>
+      <c r="G25" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J25" s="7"/>
+      <c r="K25" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B26" s="7"/>
+      <c r="C26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" s="38"/>
+      <c r="G26" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J26" s="7"/>
+      <c r="K26" s="12" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B27" s="7"/>
+      <c r="C27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="F27" s="38"/>
+      <c r="G27" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J27" s="7"/>
+      <c r="K27" s="12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="7"/>
+      <c r="C28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="15" t="s">
+        <v>72</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="J28" s="7"/>
+      <c r="K28" s="12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="10"/>
+      <c r="C29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29" s="39"/>
+      <c r="G29" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="J29" s="10"/>
+      <c r="K29" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+  </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P12:R13"/>
+    <mergeCell ref="P8:R9"/>
+    <mergeCell ref="T3:V5"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T8:V9"/>
+    <mergeCell ref="P3:R5"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="T12:V14"/>
+    <mergeCell ref="P16:R17"/>
+    <mergeCell ref="T16:V17"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="G23:K23"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="F2:F29"/>
+    <mergeCell ref="M2:N2"/>
+    <mergeCell ref="A2:E2"/>
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A16:E16"/>
+    <mergeCell ref="A23:E23"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="G9:K9"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{970171A8-7284-4442-9B7C-D708590E55EE}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -8909,7 +9535,7 @@
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8925,12 +9551,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -9286,7 +9912,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24752F94-6767-4C3D-BA33-534BADE255F3}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9310,12 +9936,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -9671,7 +10297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F648EBF-81CA-4195-8FA5-737E76FFE283}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -9695,12 +10321,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -10056,7 +10682,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06DFCCA-60D7-4B3E-A3EA-005CC8322C9C}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -10080,12 +10706,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -10441,7 +11067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D60C4445-4606-4FE5-852C-F657DED8F445}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -10465,12 +11091,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -10826,7 +11452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82BCDA78-BC55-42AA-BF84-23A54B50E435}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
@@ -10850,12 +11476,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="42" t="s">
+      <c r="B1" s="43" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="24" t="s">
@@ -11209,390 +11835,4 @@
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22A7C80E-0F48-409F-907E-FF5EAB35AA2C}">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-  </sheetPr>
-  <dimension ref="A1:E29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
-    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
-    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>165</v>
-      </c>
-      <c r="B1" s="42" t="s">
-        <v>191</v>
-      </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="43"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="19" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="25"/>
-      <c r="C3" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
-        <v>167</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" s="25"/>
-      <c r="E5" s="28" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" s="25"/>
-      <c r="E6" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="24" t="s">
-        <v>169</v>
-      </c>
-      <c r="B7" s="25"/>
-      <c r="C7" s="25" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="24" t="s">
-        <v>170</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25" t="s">
-        <v>153</v>
-      </c>
-      <c r="D8" s="25"/>
-      <c r="E8" s="28" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
-        <v>171</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25" t="s">
-        <v>179</v>
-      </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25" t="s">
-        <v>180</v>
-      </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="24" t="s">
-        <v>172</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="25" t="s">
-        <v>112</v>
-      </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="28" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="24" t="s">
-        <v>173</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25" t="s">
-        <v>181</v>
-      </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="28" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="24" t="s">
-        <v>174</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25" t="s">
-        <v>182</v>
-      </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="28" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="24" t="s">
-        <v>175</v>
-      </c>
-      <c r="B19" s="25"/>
-      <c r="C19" s="25" t="s">
-        <v>140</v>
-      </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="28" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="25"/>
-      <c r="C20" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="22" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="25"/>
-      <c r="C23" s="25" t="s">
-        <v>141</v>
-      </c>
-      <c r="D23" s="25"/>
-      <c r="E23" s="28" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="24" t="s">
-        <v>176</v>
-      </c>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25" t="s">
-        <v>183</v>
-      </c>
-      <c r="D24" s="25"/>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25" t="s">
-        <v>117</v>
-      </c>
-      <c r="D25" s="25"/>
-      <c r="E25" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25" t="s">
-        <v>142</v>
-      </c>
-      <c r="D26" s="25"/>
-      <c r="E26" s="28" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>177</v>
-      </c>
-      <c r="B27" s="25"/>
-      <c r="C27" s="25" t="s">
-        <v>184</v>
-      </c>
-      <c r="D27" s="25"/>
-      <c r="E27" s="28" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="26" t="s">
-        <v>178</v>
-      </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
-  </mergeCells>
-  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/docs/Bolão da Copa do Mundo - Catar 2022.xlsx
+++ b/docs/Bolão da Copa do Mundo - Catar 2022.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20392"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Study\Programing\Github\bolao\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.alex\Documents\@Ivan_Alex\GitHub\bolao\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F521D56B-1026-4895-A3F9-E9A8F6FE5B18}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141C1D49-5926-4BCA-ADEE-B3D4DB1CC186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="6384" tabRatio="754" activeTab="1" xr2:uid="{779A00DC-359A-4F42-A9CB-BE9275E20E22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="754" firstSheet="1" activeTab="2" xr2:uid="{779A00DC-359A-4F42-A9CB-BE9275E20E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Seleções" sheetId="4" r:id="rId1"/>
@@ -36,19 +36,30 @@
     <sheet name="Julio" sheetId="27" r:id="rId21"/>
     <sheet name="Talita" sheetId="30" r:id="rId22"/>
     <sheet name="Gabriel" sheetId="28" r:id="rId23"/>
-    <sheet name="Ivan (12)" sheetId="29" r:id="rId24"/>
+    <sheet name="Anderson" sheetId="32" r:id="rId24"/>
+    <sheet name="Luis" sheetId="29" r:id="rId25"/>
+    <sheet name="Ivan (14)" sheetId="33" r:id="rId26"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1905" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="574">
   <si>
     <t xml:space="preserve">-------------------- </t>
   </si>
@@ -1656,6 +1667,120 @@
   </si>
   <si>
     <t>1º, 2º e 3º Colocados</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º: Mbape France </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> ANDERSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> LUIS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coreia do Sul 0 X 3 Portugal </t>
+  </si>
+  <si>
+    <t>Gana 0 X 2 Uruguai</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Suíça 2 X 0 Camarões </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brasil 2 X 1 Sérvia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Japão 2 X 0 Costa Rica </t>
+  </si>
+  <si>
+    <t>França 3 X 0 Austrália</t>
+  </si>
+  <si>
+    <t>Arábia Saudita 1 X 1 México</t>
+  </si>
+  <si>
+    <t>Gales 1 X 1 Inglaterra</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2º: Mapape França </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Senegal 1 X 0 Holanda </t>
+  </si>
+  <si>
+    <t>quem for entrando.</t>
+  </si>
+  <si>
+    <t>classificação</t>
+  </si>
+  <si>
+    <t>regras</t>
+  </si>
+  <si>
+    <t>Validem suas apostas</t>
+  </si>
+  <si>
+    <t>Valores &gt;&gt;&gt;&gt;&gt;&gt;</t>
+  </si>
+  <si>
+    <t>Desempate</t>
+  </si>
+  <si>
+    <t>Aposta no vampeão</t>
+  </si>
+  <si>
+    <t>artilheiro</t>
+  </si>
+  <si>
+    <t>Holanda 5 X 0 Catar</t>
+  </si>
+  <si>
+    <t>Equador 2 X 2 Senegal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inglaterra 3 X 1 EUA </t>
+  </si>
+  <si>
+    <t>Argentina 5 X 0 Arábia Saudita</t>
+  </si>
+  <si>
+    <t>Polônia 0 X 3 Argentina</t>
+  </si>
+  <si>
+    <t>Dinamarca 3 X 1 Tunísia</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tunísia 0 X 4 França </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Espanha 4 X 1 Costa Rica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Costa Rica 0 X 5 Alemanha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bélgica 3 X 1 Marrocos </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Croácia 2 X 2 Bélgica </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 3 X 0 Gana </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portugal 3 X 1 Uruguai </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coreia do Sul 1 X 4 Portugal </t>
+  </si>
+  <si>
+    <t>2º: França</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1º: Neymar/Brasil </t>
+  </si>
+  <si>
+    <t xml:space="preserve">2º: Mbappé/França </t>
   </si>
 </sst>
 </file>
@@ -1784,7 +1909,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -2044,11 +2169,91 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2154,32 +2359,125 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2506,14 +2804,14 @@
       <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="2"/>
-    <col min="2" max="2" width="13.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="1" width="8.85546875" style="2"/>
+    <col min="2" max="2" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="8.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="2">
         <v>1</v>
       </c>
@@ -2521,7 +2819,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>2</v>
       </c>
@@ -2529,7 +2827,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>3</v>
       </c>
@@ -2537,7 +2835,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>4</v>
       </c>
@@ -2545,7 +2843,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>5</v>
       </c>
@@ -2553,7 +2851,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>6</v>
       </c>
@@ -2561,7 +2859,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>7</v>
       </c>
@@ -2569,7 +2867,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>8</v>
       </c>
@@ -2577,7 +2875,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>9</v>
       </c>
@@ -2585,7 +2883,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>10</v>
       </c>
@@ -2593,7 +2891,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>11</v>
       </c>
@@ -2601,7 +2899,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>12</v>
       </c>
@@ -2609,7 +2907,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>13</v>
       </c>
@@ -2617,7 +2915,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>14</v>
       </c>
@@ -2625,7 +2923,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>15</v>
       </c>
@@ -2633,7 +2931,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>16</v>
       </c>
@@ -2641,7 +2939,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>17</v>
       </c>
@@ -2649,7 +2947,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>18</v>
       </c>
@@ -2657,7 +2955,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>19</v>
       </c>
@@ -2665,7 +2963,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>20</v>
       </c>
@@ -2673,7 +2971,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>21</v>
       </c>
@@ -2681,7 +2979,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>22</v>
       </c>
@@ -2689,7 +2987,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>23</v>
       </c>
@@ -2697,7 +2995,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>24</v>
       </c>
@@ -2705,7 +3003,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>25</v>
       </c>
@@ -2713,7 +3011,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>26</v>
       </c>
@@ -2721,7 +3019,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>27</v>
       </c>
@@ -2729,7 +3027,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>28</v>
       </c>
@@ -2737,7 +3035,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>29</v>
       </c>
@@ -2745,7 +3043,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>30</v>
       </c>
@@ -2753,7 +3051,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>31</v>
       </c>
@@ -2761,7 +3059,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>32</v>
       </c>
@@ -2772,6 +3070,9 @@
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -2786,16 +3087,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -2806,7 +3107,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -2819,7 +3120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -2832,7 +3133,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -2845,7 +3146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>167</v>
       </c>
@@ -2858,7 +3159,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>168</v>
       </c>
@@ -2871,7 +3172,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>169</v>
       </c>
@@ -2884,7 +3185,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>170</v>
       </c>
@@ -2897,7 +3198,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>171</v>
       </c>
@@ -2910,7 +3211,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>44</v>
       </c>
@@ -2923,7 +3224,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -2936,7 +3237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -2949,7 +3250,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -2962,7 +3263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -2975,7 +3276,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
@@ -2988,7 +3289,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>172</v>
       </c>
@@ -3001,7 +3302,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>173</v>
       </c>
@@ -3014,7 +3315,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>174</v>
       </c>
@@ -3027,7 +3328,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>175</v>
       </c>
@@ -3040,7 +3341,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -3051,7 +3352,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -3064,7 +3365,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -3077,7 +3378,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>13</v>
       </c>
@@ -3090,7 +3391,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>176</v>
       </c>
@@ -3101,7 +3402,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -3114,7 +3415,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>107</v>
       </c>
@@ -3127,7 +3428,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>177</v>
       </c>
@@ -3140,7 +3441,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>178</v>
       </c>
@@ -3151,13 +3452,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -3172,16 +3476,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -3192,7 +3496,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -3205,7 +3509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -3218,7 +3522,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -3231,7 +3535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>289</v>
       </c>
@@ -3244,7 +3548,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -3257,7 +3561,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>290</v>
       </c>
@@ -3270,7 +3574,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>291</v>
       </c>
@@ -3283,7 +3587,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
@@ -3296,7 +3600,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>98</v>
       </c>
@@ -3309,7 +3613,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -3322,7 +3626,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -3335,7 +3639,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -3348,7 +3652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>285</v>
       </c>
@@ -3361,7 +3665,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>197</v>
       </c>
@@ -3374,7 +3678,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>286</v>
       </c>
@@ -3387,7 +3691,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>287</v>
       </c>
@@ -3400,7 +3704,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>269</v>
       </c>
@@ -3413,7 +3717,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>288</v>
       </c>
@@ -3426,7 +3730,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -3437,7 +3741,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -3450,7 +3754,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -3463,7 +3767,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>151</v>
       </c>
@@ -3476,7 +3780,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
@@ -3487,7 +3791,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -3500,7 +3804,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>282</v>
       </c>
@@ -3513,7 +3817,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>283</v>
       </c>
@@ -3526,7 +3830,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>284</v>
       </c>
@@ -3537,19 +3841,23 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09BEF62C-6F28-4FDF-83A7-749A11BA777A}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -3557,16 +3865,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -3577,7 +3885,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -3590,7 +3898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -3603,7 +3911,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -3616,7 +3924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>126</v>
       </c>
@@ -3629,7 +3937,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -3642,7 +3950,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>251</v>
       </c>
@@ -3655,7 +3963,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>252</v>
       </c>
@@ -3668,7 +3976,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>195</v>
       </c>
@@ -3681,7 +3989,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>98</v>
       </c>
@@ -3694,7 +4002,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -3707,7 +4015,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -3720,7 +4028,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -3733,7 +4041,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -3746,7 +4054,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>267</v>
       </c>
@@ -3759,7 +4067,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>268</v>
       </c>
@@ -3772,7 +4080,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>198</v>
       </c>
@@ -3785,7 +4093,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>269</v>
       </c>
@@ -3798,7 +4106,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>104</v>
       </c>
@@ -3811,7 +4119,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -3822,7 +4130,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -3835,7 +4143,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -3848,7 +4156,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>13</v>
       </c>
@@ -3861,7 +4169,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>266</v>
       </c>
@@ -3872,7 +4180,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -3885,7 +4193,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>46</v>
       </c>
@@ -3898,7 +4206,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>16</v>
       </c>
@@ -3911,7 +4219,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>178</v>
       </c>
@@ -3922,19 +4230,23 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FDE6B19-5CD6-451C-AD0E-C9E1DA26EAEC}">
   <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
+    <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
@@ -3942,16 +4254,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -3962,7 +4274,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -3975,7 +4287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -3988,7 +4300,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4001,7 +4313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -4014,7 +4326,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>222</v>
       </c>
@@ -4027,7 +4339,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>128</v>
       </c>
@@ -4040,7 +4352,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>351</v>
       </c>
@@ -4053,7 +4365,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>97</v>
       </c>
@@ -4066,7 +4378,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>352</v>
       </c>
@@ -4079,7 +4391,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -4092,7 +4404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -4105,7 +4417,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -4118,7 +4430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>285</v>
       </c>
@@ -4131,7 +4443,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>349</v>
       </c>
@@ -4144,7 +4456,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>286</v>
       </c>
@@ -4157,7 +4469,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>350</v>
       </c>
@@ -4170,7 +4482,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>199</v>
       </c>
@@ -4183,7 +4495,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>131</v>
       </c>
@@ -4196,7 +4508,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -4207,7 +4519,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -4220,7 +4532,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -4233,7 +4545,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>347</v>
       </c>
@@ -4246,7 +4558,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>266</v>
       </c>
@@ -4257,7 +4569,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>106</v>
       </c>
@@ -4270,7 +4582,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>348</v>
       </c>
@@ -4283,7 +4595,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>202</v>
       </c>
@@ -4296,7 +4608,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>47</v>
       </c>
@@ -4307,12 +4619,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4327,16 +4643,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -4347,7 +4663,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -4360,7 +4676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -4373,7 +4689,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4386,7 +4702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -4399,7 +4715,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>222</v>
       </c>
@@ -4412,7 +4728,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
@@ -4425,7 +4741,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>96</v>
       </c>
@@ -4438,7 +4754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>195</v>
       </c>
@@ -4451,7 +4767,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>44</v>
       </c>
@@ -4464,7 +4780,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -4477,7 +4793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -4490,7 +4806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -4503,7 +4819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>364</v>
       </c>
@@ -4516,7 +4832,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>365</v>
       </c>
@@ -4529,7 +4845,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>366</v>
       </c>
@@ -4542,7 +4858,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
@@ -4555,7 +4871,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>130</v>
       </c>
@@ -4568,7 +4884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>104</v>
       </c>
@@ -4581,7 +4897,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -4592,7 +4908,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -4605,7 +4921,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -4618,7 +4934,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>347</v>
       </c>
@@ -4631,7 +4947,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
@@ -4642,7 +4958,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>228</v>
       </c>
@@ -4655,7 +4971,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>46</v>
       </c>
@@ -4668,7 +4984,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>202</v>
       </c>
@@ -4681,7 +4997,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>47</v>
       </c>
@@ -4692,12 +5008,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -4712,16 +5032,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -4732,7 +5052,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -4745,7 +5065,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -4758,7 +5078,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -4771,7 +5091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -4784,7 +5104,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>222</v>
       </c>
@@ -4797,7 +5117,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>193</v>
       </c>
@@ -4810,7 +5130,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>224</v>
       </c>
@@ -4823,7 +5143,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
@@ -4836,7 +5156,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
@@ -4849,7 +5169,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -4862,7 +5182,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -4875,7 +5195,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -4888,7 +5208,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>285</v>
       </c>
@@ -4901,7 +5221,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>390</v>
       </c>
@@ -4914,7 +5234,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>101</v>
       </c>
@@ -4927,7 +5247,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>391</v>
       </c>
@@ -4940,7 +5260,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>103</v>
       </c>
@@ -4953,7 +5273,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>300</v>
       </c>
@@ -4966,7 +5286,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -4977,7 +5297,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -4990,7 +5310,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -5003,7 +5323,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>105</v>
       </c>
@@ -5016,7 +5336,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>266</v>
       </c>
@@ -5027,7 +5347,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>387</v>
       </c>
@@ -5040,7 +5360,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>388</v>
       </c>
@@ -5053,7 +5373,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>177</v>
       </c>
@@ -5066,7 +5386,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>389</v>
       </c>
@@ -5077,12 +5397,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5097,16 +5421,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -5117,7 +5441,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -5130,7 +5454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -5143,7 +5467,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5156,7 +5480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -5169,7 +5493,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -5182,7 +5506,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
@@ -5195,7 +5519,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>194</v>
       </c>
@@ -5208,7 +5532,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>415</v>
       </c>
@@ -5221,7 +5545,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>196</v>
       </c>
@@ -5234,7 +5558,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -5247,7 +5571,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -5260,7 +5584,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -5273,7 +5597,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>99</v>
       </c>
@@ -5286,7 +5610,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>410</v>
       </c>
@@ -5299,7 +5623,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>101</v>
       </c>
@@ -5312,7 +5636,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>411</v>
       </c>
@@ -5325,7 +5649,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>412</v>
       </c>
@@ -5338,7 +5662,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>104</v>
       </c>
@@ -5351,7 +5675,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -5362,7 +5686,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -5375,7 +5699,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -5388,7 +5712,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>407</v>
       </c>
@@ -5401,7 +5725,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>408</v>
       </c>
@@ -5412,7 +5736,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>201</v>
       </c>
@@ -5425,7 +5749,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>15</v>
       </c>
@@ -5438,7 +5762,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>409</v>
       </c>
@@ -5451,7 +5775,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
@@ -5462,12 +5786,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5482,16 +5810,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -5502,7 +5830,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -5515,7 +5843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -5528,7 +5856,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5541,7 +5869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -5554,7 +5882,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>443</v>
       </c>
@@ -5567,7 +5895,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>444</v>
       </c>
@@ -5580,7 +5908,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>170</v>
       </c>
@@ -5593,7 +5921,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>445</v>
       </c>
@@ -5606,7 +5934,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>352</v>
       </c>
@@ -5619,7 +5947,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -5632,7 +5960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -5645,7 +5973,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -5658,7 +5986,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>441</v>
       </c>
@@ -5671,7 +5999,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>390</v>
       </c>
@@ -5684,7 +6012,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>129</v>
       </c>
@@ -5697,7 +6025,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>442</v>
       </c>
@@ -5710,7 +6038,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>130</v>
       </c>
@@ -5723,7 +6051,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>175</v>
       </c>
@@ -5736,7 +6064,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -5747,7 +6075,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -5760,7 +6088,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -5773,7 +6101,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>438</v>
       </c>
@@ -5786,7 +6114,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>176</v>
       </c>
@@ -5797,7 +6125,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>439</v>
       </c>
@@ -5810,7 +6138,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>440</v>
       </c>
@@ -5823,7 +6151,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>283</v>
       </c>
@@ -5836,7 +6164,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
@@ -5847,12 +6175,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -5867,16 +6199,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -5887,7 +6219,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -5900,7 +6232,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -5913,7 +6245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -5926,7 +6258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -5939,7 +6271,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -5952,7 +6284,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>193</v>
       </c>
@@ -5965,7 +6297,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>252</v>
       </c>
@@ -5978,7 +6310,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>171</v>
       </c>
@@ -5991,7 +6323,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>150</v>
       </c>
@@ -6004,7 +6336,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -6017,7 +6349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -6030,7 +6362,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -6043,7 +6375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>298</v>
       </c>
@@ -6056,7 +6388,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
@@ -6069,7 +6401,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>448</v>
       </c>
@@ -6082,7 +6414,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>198</v>
       </c>
@@ -6095,7 +6427,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>449</v>
       </c>
@@ -6108,7 +6440,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>450</v>
       </c>
@@ -6121,7 +6453,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -6132,7 +6464,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -6145,7 +6477,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -6158,7 +6490,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>451</v>
       </c>
@@ -6171,7 +6503,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>200</v>
       </c>
@@ -6182,7 +6514,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>228</v>
       </c>
@@ -6195,7 +6527,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>229</v>
       </c>
@@ -6208,7 +6540,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>452</v>
       </c>
@@ -6221,7 +6553,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>453</v>
       </c>
@@ -6232,12 +6564,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6252,16 +6588,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -6272,7 +6608,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -6285,7 +6621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -6298,7 +6634,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -6311,7 +6647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>43</v>
       </c>
@@ -6324,7 +6660,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -6337,7 +6673,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>488</v>
       </c>
@@ -6350,7 +6686,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>489</v>
       </c>
@@ -6363,7 +6699,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>490</v>
       </c>
@@ -6376,7 +6712,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
@@ -6389,7 +6725,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -6402,7 +6738,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -6415,7 +6751,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -6428,7 +6764,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>99</v>
       </c>
@@ -6441,7 +6777,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>486</v>
       </c>
@@ -6454,7 +6790,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
@@ -6467,7 +6803,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>411</v>
       </c>
@@ -6480,7 +6816,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>449</v>
       </c>
@@ -6493,7 +6829,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>487</v>
       </c>
@@ -6506,7 +6842,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -6517,7 +6853,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -6530,7 +6866,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -6543,7 +6879,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>483</v>
       </c>
@@ -6556,7 +6892,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>484</v>
       </c>
@@ -6567,7 +6903,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>387</v>
       </c>
@@ -6580,7 +6916,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>388</v>
       </c>
@@ -6593,7 +6929,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>485</v>
       </c>
@@ -6606,7 +6942,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>389</v>
       </c>
@@ -6617,12 +6953,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6630,13 +6970,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE989A00-3C9C-4649-9815-06CC07EBF763}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -6651,16 +6995,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -6671,7 +7015,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -6684,7 +7028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -6697,7 +7041,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -6710,7 +7054,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -6723,7 +7067,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -6736,7 +7080,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
@@ -6749,7 +7093,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>194</v>
       </c>
@@ -6762,7 +7106,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>195</v>
       </c>
@@ -6775,7 +7119,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>352</v>
       </c>
@@ -6788,7 +7132,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -6801,7 +7145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -6814,7 +7158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -6827,7 +7171,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>500</v>
       </c>
@@ -6840,7 +7184,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>501</v>
       </c>
@@ -6853,7 +7197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>448</v>
       </c>
@@ -6866,7 +7210,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>173</v>
       </c>
@@ -6879,7 +7223,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>103</v>
       </c>
@@ -6892,7 +7236,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>502</v>
       </c>
@@ -6905,7 +7249,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -6916,7 +7260,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -6929,7 +7273,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -6942,7 +7286,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>13</v>
       </c>
@@ -6955,7 +7299,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>200</v>
       </c>
@@ -6966,7 +7310,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>439</v>
       </c>
@@ -6979,7 +7323,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>229</v>
       </c>
@@ -6992,7 +7336,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>283</v>
       </c>
@@ -7005,7 +7349,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>178</v>
       </c>
@@ -7016,12 +7360,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7029,23 +7377,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F087E5B8-7BE5-49ED-ABC5-FECA77748DB0}">
   <sheetPr>
     <tabColor rgb="FF00B050"/>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
   <dimension ref="A1:E29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -7056,7 +7405,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -7069,7 +7418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -7082,7 +7431,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -7095,48 +7444,48 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>19</v>
+        <v>562</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="28" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>3</v>
+        <v>222</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>20</v>
+        <v>544</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>128</v>
+        <v>251</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>5</v>
+        <v>291</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
@@ -7144,36 +7493,36 @@
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>6</v>
+        <v>557</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>154</v>
+        <v>563</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="28" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>150</v>
+        <v>558</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25" t="s">
-        <v>155</v>
+        <v>111</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -7186,7 +7535,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -7199,7 +7548,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -7212,9 +7561,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>45</v>
+        <v>364</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25" t="s">
@@ -7225,72 +7574,72 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>9</v>
+        <v>100</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>156</v>
+        <v>564</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
-        <v>112</v>
+        <v>543</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>11</v>
+        <v>559</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
-        <v>26</v>
+        <v>362</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>103</v>
+        <v>269</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
-        <v>27</v>
+        <v>139</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>131</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
-        <v>157</v>
+        <v>565</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="28" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -7301,7 +7650,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -7314,7 +7663,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -7327,22 +7676,22 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>151</v>
+        <v>560</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25" t="s">
-        <v>158</v>
+        <v>50</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>14</v>
+        <v>484</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25" t="s">
@@ -7351,22 +7700,22 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25" t="s">
-        <v>117</v>
+        <v>566</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="22" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>46</v>
+        <v>15</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25" t="s">
@@ -7374,39 +7723,43 @@
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>16</v>
+        <v>561</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
-        <v>119</v>
+        <v>567</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="28" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>17</v>
+        <v>178</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27" t="s">
-        <v>31</v>
+        <v>143</v>
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7421,16 +7774,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -7441,7 +7794,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -7454,7 +7807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -7467,7 +7820,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -7480,7 +7833,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -7493,7 +7846,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>127</v>
       </c>
@@ -7506,7 +7859,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>444</v>
       </c>
@@ -7519,7 +7872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
@@ -7532,7 +7885,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>195</v>
       </c>
@@ -7545,7 +7898,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>44</v>
       </c>
@@ -7558,7 +7911,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24"/>
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
@@ -7569,7 +7922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -7582,7 +7935,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -7595,7 +7948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -7608,7 +7961,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>520</v>
       </c>
@@ -7621,7 +7974,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>101</v>
       </c>
@@ -7634,7 +7987,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -7647,7 +8000,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>103</v>
       </c>
@@ -7660,7 +8013,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>300</v>
       </c>
@@ -7673,7 +8026,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -7684,7 +8037,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -7697,7 +8050,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -7710,7 +8063,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>151</v>
       </c>
@@ -7723,7 +8076,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>266</v>
       </c>
@@ -7734,7 +8087,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>228</v>
       </c>
@@ -7747,7 +8100,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>518</v>
       </c>
@@ -7760,7 +8113,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>519</v>
       </c>
@@ -7773,7 +8126,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>178</v>
       </c>
@@ -7784,12 +8137,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -7804,16 +8161,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -7824,7 +8181,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -7837,7 +8194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -7850,7 +8207,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -7863,7 +8220,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -7876,7 +8233,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>222</v>
       </c>
@@ -7889,7 +8246,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>251</v>
       </c>
@@ -7902,7 +8259,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>96</v>
       </c>
@@ -7915,7 +8272,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>526</v>
       </c>
@@ -7928,7 +8285,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
@@ -7941,7 +8298,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -7954,7 +8311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -7967,7 +8324,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -7980,7 +8337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>99</v>
       </c>
@@ -7993,7 +8350,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>100</v>
       </c>
@@ -8006,7 +8363,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>448</v>
       </c>
@@ -8019,7 +8376,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>411</v>
       </c>
@@ -8032,7 +8389,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>269</v>
       </c>
@@ -8045,7 +8402,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>104</v>
       </c>
@@ -8058,7 +8415,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -8069,7 +8426,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -8082,7 +8439,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -8095,7 +8452,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>525</v>
       </c>
@@ -8108,7 +8465,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>266</v>
       </c>
@@ -8119,7 +8476,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -8132,7 +8489,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>518</v>
       </c>
@@ -8145,7 +8502,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>202</v>
       </c>
@@ -8158,7 +8515,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>178</v>
       </c>
@@ -8169,33 +8526,817 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56A8C732-4BF5-4D5C-979F-4361EDCEC600}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>544</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>194</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>195</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>346</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>379</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>267</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>366</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>543</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>391</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>362</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>269</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>262</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>546</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>293</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>240</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>545</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B607B886-7CB1-462C-8A78-EE2D9FCECC8F}">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:E29"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="43" t="s">
+        <v>538</v>
+      </c>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="44"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="31" t="s">
+        <v>367</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>548</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>251</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>252</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>196</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>268</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>449</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>115</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>116</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>259</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>518</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>118</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>485</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>399</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF9A4D2-B918-4160-A304-A6CDBA5BA349}">
   <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -8206,7 +9347,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -8219,7 +9360,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -8232,7 +9373,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -8245,7 +9386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="31" t="s">
         <v>367</v>
       </c>
@@ -8258,7 +9399,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -8271,7 +9412,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>128</v>
       </c>
@@ -8284,7 +9425,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
@@ -8297,7 +9438,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
@@ -8310,7 +9451,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>150</v>
       </c>
@@ -8323,7 +9464,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -8336,7 +9477,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -8349,7 +9490,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -8362,7 +9503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -8375,7 +9516,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
@@ -8388,7 +9529,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
@@ -8401,7 +9542,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -8414,7 +9555,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>103</v>
       </c>
@@ -8427,7 +9568,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>131</v>
       </c>
@@ -8440,7 +9581,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -8451,7 +9592,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -8464,7 +9605,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -8477,7 +9618,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>151</v>
       </c>
@@ -8490,7 +9631,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
@@ -8501,7 +9642,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -8514,7 +9655,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>46</v>
       </c>
@@ -8527,7 +9668,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>16</v>
       </c>
@@ -8540,7 +9681,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
@@ -8551,12 +9692,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -8564,29 +9709,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64DF39F-3F82-40A1-8911-4EAF0D8AC5D2}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="M20" sqref="M20"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T25" sqref="T25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="5.21875" style="4" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="1.77734375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="10" width="5.21875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" style="13" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="8.88671875" style="3"/>
-    <col min="13" max="14" width="16.6640625" style="3" customWidth="1"/>
-    <col min="15" max="15" width="8.88671875" style="3"/>
-    <col min="16" max="16" width="11.5546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="17" max="19" width="8.88671875" style="3"/>
-    <col min="20" max="22" width="11.33203125" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="3"/>
+    <col min="1" max="1" width="15.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="5.28515625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="1.7109375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="5.28515625" style="3" customWidth="1"/>
+    <col min="11" max="11" width="13.42578125" style="13" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="1.85546875" style="3" customWidth="1"/>
+    <col min="13" max="14" width="16.7109375" style="3" customWidth="1"/>
+    <col min="15" max="15" width="1.85546875" style="3" customWidth="1"/>
+    <col min="16" max="18" width="8.140625" style="3" customWidth="1"/>
+    <col min="19" max="19" width="1.85546875" style="3" customWidth="1"/>
+    <col min="20" max="22" width="8.140625" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="16.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="34" t="s">
         <v>95</v>
       </c>
@@ -8601,7 +9746,7 @@
       <c r="J1" s="35"/>
       <c r="K1" s="36"/>
     </row>
-    <row r="2" spans="1:22" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="42" t="s">
         <v>1</v>
       </c>
@@ -8621,18 +9766,18 @@
         <v>90</v>
       </c>
       <c r="N2" s="41"/>
-      <c r="P2" s="52" t="s">
+      <c r="P2" s="54" t="s">
         <v>528</v>
       </c>
-      <c r="Q2" s="52"/>
-      <c r="R2" s="52"/>
-      <c r="T2" s="53" t="s">
+      <c r="Q2" s="55"/>
+      <c r="R2" s="56"/>
+      <c r="T2" s="45" t="s">
         <v>529</v>
       </c>
-      <c r="U2" s="53"/>
-      <c r="V2" s="53"/>
-    </row>
-    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U2" s="46"/>
+      <c r="V2" s="47"/>
+    </row>
+    <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>64</v>
       </c>
@@ -8666,18 +9811,18 @@
       <c r="N3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="48">
+      <c r="P3" s="57">
         <v>50</v>
       </c>
-      <c r="Q3" s="48"/>
-      <c r="R3" s="48"/>
-      <c r="T3" s="47">
-        <v>20</v>
-      </c>
-      <c r="U3" s="47"/>
-      <c r="V3" s="47"/>
-    </row>
-    <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="Q3" s="58"/>
+      <c r="R3" s="59"/>
+      <c r="T3" s="48">
+        <v>22</v>
+      </c>
+      <c r="U3" s="49"/>
+      <c r="V3" s="50"/>
+    </row>
+    <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>83</v>
       </c>
@@ -8707,14 +9852,14 @@
       <c r="N4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48"/>
-      <c r="R4" s="48"/>
-      <c r="T4" s="47"/>
-      <c r="U4" s="47"/>
-      <c r="V4" s="47"/>
-    </row>
-    <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="P4" s="57"/>
+      <c r="Q4" s="58"/>
+      <c r="R4" s="59"/>
+      <c r="T4" s="48"/>
+      <c r="U4" s="49"/>
+      <c r="V4" s="50"/>
+    </row>
+    <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>64</v>
       </c>
@@ -8744,14 +9889,14 @@
       <c r="N5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="48"/>
-      <c r="Q5" s="48"/>
-      <c r="R5" s="48"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P5" s="60"/>
+      <c r="Q5" s="61"/>
+      <c r="R5" s="62"/>
+      <c r="T5" s="51"/>
+      <c r="U5" s="52"/>
+      <c r="V5" s="53"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>74</v>
       </c>
@@ -8782,7 +9927,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>74</v>
       </c>
@@ -8812,18 +9957,18 @@
       <c r="N7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="51" t="s">
+      <c r="P7" s="63" t="s">
         <v>532</v>
       </c>
-      <c r="Q7" s="51"/>
-      <c r="R7" s="51"/>
-      <c r="T7" s="53" t="s">
+      <c r="Q7" s="64"/>
+      <c r="R7" s="65"/>
+      <c r="T7" s="45" t="s">
         <v>530</v>
       </c>
-      <c r="U7" s="53"/>
-      <c r="V7" s="53"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U7" s="46"/>
+      <c r="V7" s="47"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>69</v>
       </c>
@@ -8853,19 +9998,19 @@
       <c r="N8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="48">
+      <c r="P8" s="57">
         <f>T16*0.5</f>
-        <v>75</v>
-      </c>
-      <c r="Q8" s="48"/>
-      <c r="R8" s="48"/>
-      <c r="T8" s="45">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="58"/>
+      <c r="R8" s="59"/>
+      <c r="T8" s="72">
         <v>10</v>
       </c>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U8" s="73"/>
+      <c r="V8" s="74"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
@@ -8887,14 +10032,14 @@
       <c r="N9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="48"/>
-      <c r="Q9" s="48"/>
-      <c r="R9" s="48"/>
-      <c r="T9" s="45"/>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45"/>
-    </row>
-    <row r="10" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="P9" s="60"/>
+      <c r="Q9" s="61"/>
+      <c r="R9" s="62"/>
+      <c r="T9" s="75"/>
+      <c r="U9" s="76"/>
+      <c r="V9" s="77"/>
+    </row>
+    <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
@@ -8925,7 +10070,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
         <v>71</v>
       </c>
@@ -8955,18 +10100,18 @@
       <c r="N11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="50" t="s">
+      <c r="P11" s="66" t="s">
         <v>533</v>
       </c>
-      <c r="Q11" s="50"/>
-      <c r="R11" s="50"/>
-      <c r="T11" s="53" t="s">
+      <c r="Q11" s="67"/>
+      <c r="R11" s="68"/>
+      <c r="T11" s="45" t="s">
         <v>531</v>
       </c>
-      <c r="U11" s="53"/>
-      <c r="V11" s="53"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="U11" s="46"/>
+      <c r="V11" s="47"/>
+    </row>
+    <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
         <v>89</v>
       </c>
@@ -8996,20 +10141,20 @@
       <c r="N12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="48">
+      <c r="P12" s="57">
         <f>T16*0.3</f>
-        <v>45</v>
-      </c>
-      <c r="Q12" s="48"/>
-      <c r="R12" s="48"/>
-      <c r="T12" s="46">
+        <v>51</v>
+      </c>
+      <c r="Q12" s="58"/>
+      <c r="R12" s="59"/>
+      <c r="T12" s="78">
         <f>T3*T8</f>
-        <v>200</v>
-      </c>
-      <c r="U12" s="47"/>
-      <c r="V12" s="47"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.3">
+        <v>220</v>
+      </c>
+      <c r="U12" s="79"/>
+      <c r="V12" s="80"/>
+    </row>
+    <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
         <v>75</v>
       </c>
@@ -9039,14 +10184,14 @@
       <c r="N13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="48"/>
-      <c r="Q13" s="48"/>
-      <c r="R13" s="48"/>
-      <c r="T13" s="47"/>
-      <c r="U13" s="47"/>
-      <c r="V13" s="47"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="P13" s="60"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="62"/>
+      <c r="T13" s="81"/>
+      <c r="U13" s="82"/>
+      <c r="V13" s="83"/>
+    </row>
+    <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
         <v>76</v>
       </c>
@@ -9076,11 +10221,11 @@
       <c r="N14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="T14" s="47"/>
-      <c r="U14" s="47"/>
-      <c r="V14" s="47"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="T14" s="84"/>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
         <v>89</v>
       </c>
@@ -9110,18 +10255,18 @@
       <c r="N15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="49" t="s">
+      <c r="P15" s="69" t="s">
         <v>534</v>
       </c>
-      <c r="Q15" s="49"/>
-      <c r="R15" s="49"/>
-      <c r="T15" s="53" t="s">
+      <c r="Q15" s="70"/>
+      <c r="R15" s="71"/>
+      <c r="T15" s="45" t="s">
         <v>535</v>
       </c>
-      <c r="U15" s="53"/>
-      <c r="V15" s="53"/>
-    </row>
-    <row r="16" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="U15" s="46"/>
+      <c r="V15" s="47"/>
+    </row>
+    <row r="16" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>12</v>
       </c>
@@ -9143,20 +10288,20 @@
       <c r="N16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="48">
+      <c r="P16" s="57">
         <f>T16*0.2</f>
-        <v>30</v>
-      </c>
-      <c r="Q16" s="48"/>
-      <c r="R16" s="48"/>
-      <c r="T16" s="46">
+        <v>34</v>
+      </c>
+      <c r="Q16" s="58"/>
+      <c r="R16" s="59"/>
+      <c r="T16" s="78">
         <f>T12-P3</f>
-        <v>150</v>
-      </c>
-      <c r="U16" s="46"/>
-      <c r="V16" s="46"/>
-    </row>
-    <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+      <c r="U16" s="79"/>
+      <c r="V16" s="80"/>
+    </row>
+    <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>58</v>
       </c>
@@ -9186,14 +10331,14 @@
       <c r="N17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P17" s="48"/>
-      <c r="Q17" s="48"/>
-      <c r="R17" s="48"/>
-      <c r="T17" s="46"/>
-      <c r="U17" s="46"/>
-      <c r="V17" s="46"/>
-    </row>
-    <row r="18" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P17" s="60"/>
+      <c r="Q17" s="61"/>
+      <c r="R17" s="62"/>
+      <c r="T17" s="81"/>
+      <c r="U17" s="82"/>
+      <c r="V17" s="83"/>
+    </row>
+    <row r="18" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
         <v>79</v>
       </c>
@@ -9224,7 +10369,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="19" spans="1:22" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>81</v>
       </c>
@@ -9249,7 +10394,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A20" s="5" t="s">
         <v>58</v>
       </c>
@@ -9273,8 +10418,11 @@
       <c r="K20" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M20" s="3" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>81</v>
       </c>
@@ -9298,8 +10446,14 @@
       <c r="K21" s="12" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M21" s="3" t="s">
+        <v>550</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>57</v>
       </c>
@@ -9323,8 +10477,14 @@
       <c r="K22" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="M22" s="3" t="s">
+        <v>551</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" s="42" t="s">
         <v>18</v>
       </c>
@@ -9340,8 +10500,14 @@
       <c r="I23" s="32"/>
       <c r="J23" s="32"/>
       <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="1:22" ht="18" x14ac:dyDescent="0.3">
+      <c r="M23" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>68</v>
       </c>
@@ -9365,8 +10531,11 @@
       <c r="K24" s="12" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N24" s="3" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>72</v>
       </c>
@@ -9391,7 +10560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>86</v>
       </c>
@@ -9416,7 +10585,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>72</v>
       </c>
@@ -9441,7 +10610,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>86</v>
       </c>
@@ -9466,7 +10635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="29" spans="1:22" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="8" t="s">
         <v>59</v>
       </c>
@@ -9491,26 +10660,9 @@
         <v>87</v>
       </c>
     </row>
-    <row r="30" spans="1:22" ht="16.2" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="P2:R2"/>
-    <mergeCell ref="P15:R15"/>
-    <mergeCell ref="P11:R11"/>
-    <mergeCell ref="P7:R7"/>
-    <mergeCell ref="P12:R13"/>
-    <mergeCell ref="P8:R9"/>
-    <mergeCell ref="T3:V5"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="T8:V9"/>
-    <mergeCell ref="P3:R5"/>
-    <mergeCell ref="T11:V11"/>
-    <mergeCell ref="T12:V14"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="T16:V17"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="G16:K16"/>
     <mergeCell ref="G23:K23"/>
     <mergeCell ref="A1:K1"/>
     <mergeCell ref="F2:F29"/>
@@ -9521,9 +10673,29 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G9:K9"/>
+    <mergeCell ref="P16:R17"/>
+    <mergeCell ref="T16:V17"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="G16:K16"/>
+    <mergeCell ref="T12:V13"/>
+    <mergeCell ref="T3:V5"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="T8:V9"/>
+    <mergeCell ref="P3:R5"/>
+    <mergeCell ref="T11:V11"/>
+    <mergeCell ref="P2:R2"/>
+    <mergeCell ref="P15:R15"/>
+    <mergeCell ref="P11:R11"/>
+    <mergeCell ref="P7:R7"/>
+    <mergeCell ref="P12:R13"/>
+    <mergeCell ref="P8:R9"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -9538,16 +10710,16 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -9558,7 +10730,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -9571,7 +10743,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -9584,7 +10756,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -9597,7 +10769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>43</v>
       </c>
@@ -9610,7 +10782,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -9623,7 +10795,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>128</v>
       </c>
@@ -9636,7 +10808,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
@@ -9649,7 +10821,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
@@ -9662,7 +10834,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>150</v>
       </c>
@@ -9675,7 +10847,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -9688,7 +10860,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -9701,7 +10873,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -9714,7 +10886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -9727,7 +10899,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
@@ -9740,7 +10912,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
@@ -9753,7 +10925,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -9766,7 +10938,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>103</v>
       </c>
@@ -9779,7 +10951,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>131</v>
       </c>
@@ -9792,7 +10964,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -9803,7 +10975,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -9816,7 +10988,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -9829,7 +11001,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>151</v>
       </c>
@@ -9842,7 +11014,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
@@ -9853,7 +11025,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -9866,7 +11038,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>46</v>
       </c>
@@ -9879,7 +11051,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>16</v>
       </c>
@@ -9892,7 +11064,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
@@ -9903,12 +11075,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -9923,16 +11099,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -9943,7 +11119,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -9956,7 +11132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -9969,7 +11145,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -9982,7 +11158,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
@@ -9995,7 +11171,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -10008,7 +11184,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
@@ -10021,7 +11197,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
@@ -10034,7 +11210,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
@@ -10047,7 +11223,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
@@ -10060,7 +11236,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -10073,7 +11249,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -10086,7 +11262,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -10099,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>298</v>
       </c>
@@ -10112,7 +11288,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
@@ -10125,7 +11301,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
@@ -10138,7 +11314,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -10151,7 +11327,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>299</v>
       </c>
@@ -10164,7 +11340,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>300</v>
       </c>
@@ -10177,7 +11353,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -10188,7 +11364,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -10201,7 +11377,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -10214,7 +11390,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>13</v>
       </c>
@@ -10227,7 +11403,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
@@ -10238,7 +11414,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>228</v>
       </c>
@@ -10251,7 +11427,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>15</v>
       </c>
@@ -10264,7 +11440,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>16</v>
       </c>
@@ -10277,7 +11453,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
@@ -10288,12 +11464,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -10308,16 +11488,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -10328,7 +11508,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -10341,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -10354,7 +11534,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -10367,7 +11547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>2</v>
       </c>
@@ -10380,7 +11560,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -10393,7 +11573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>4</v>
       </c>
@@ -10406,7 +11586,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>96</v>
       </c>
@@ -10419,7 +11599,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>97</v>
       </c>
@@ -10432,7 +11612,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>98</v>
       </c>
@@ -10445,7 +11625,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -10458,7 +11638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -10471,7 +11651,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -10484,7 +11664,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>99</v>
       </c>
@@ -10497,7 +11677,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>100</v>
       </c>
@@ -10510,7 +11690,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>101</v>
       </c>
@@ -10523,7 +11703,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>102</v>
       </c>
@@ -10536,7 +11716,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>103</v>
       </c>
@@ -10549,7 +11729,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>104</v>
       </c>
@@ -10562,7 +11742,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -10573,7 +11753,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -10586,7 +11766,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -10599,7 +11779,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>105</v>
       </c>
@@ -10612,7 +11792,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
@@ -10623,7 +11803,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>106</v>
       </c>
@@ -10636,7 +11816,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>107</v>
       </c>
@@ -10649,7 +11829,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>16</v>
       </c>
@@ -10662,7 +11842,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>47</v>
       </c>
@@ -10673,12 +11853,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -10693,16 +11877,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="3.28515625" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="3.33203125" customWidth="1"/>
+    <col min="4" max="4" width="3.28515625" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -10713,7 +11897,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -10726,7 +11910,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -10739,7 +11923,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -10752,7 +11936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>126</v>
       </c>
@@ -10765,7 +11949,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>127</v>
       </c>
@@ -10778,7 +11962,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>128</v>
       </c>
@@ -10791,7 +11975,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
@@ -10804,7 +11988,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
@@ -10817,7 +12001,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>7</v>
       </c>
@@ -10830,7 +12014,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -10843,7 +12027,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -10856,7 +12040,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -10869,7 +12053,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -10882,7 +12066,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
@@ -10895,7 +12079,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>129</v>
       </c>
@@ -10908,7 +12092,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -10921,7 +12105,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>130</v>
       </c>
@@ -10934,7 +12118,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>131</v>
       </c>
@@ -10947,7 +12131,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -10958,7 +12142,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -10971,7 +12155,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -10984,7 +12168,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>13</v>
       </c>
@@ -10997,7 +12181,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>132</v>
       </c>
@@ -11008,7 +12192,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="18"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -11021,7 +12205,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>15</v>
       </c>
@@ -11034,7 +12218,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>16</v>
       </c>
@@ -11047,7 +12231,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
@@ -11058,12 +12242,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="23"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -11078,16 +12266,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -11098,7 +12286,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -11111,7 +12299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -11124,7 +12312,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -11137,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>43</v>
       </c>
@@ -11150,7 +12338,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>127</v>
       </c>
@@ -11163,7 +12351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>193</v>
       </c>
@@ -11176,7 +12364,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>194</v>
       </c>
@@ -11189,7 +12377,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>195</v>
       </c>
@@ -11202,7 +12390,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>196</v>
       </c>
@@ -11215,7 +12403,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -11228,7 +12416,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -11241,7 +12429,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -11254,7 +12442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -11267,7 +12455,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>197</v>
       </c>
@@ -11280,7 +12468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>101</v>
       </c>
@@ -11293,7 +12481,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>198</v>
       </c>
@@ -11306,7 +12494,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>199</v>
       </c>
@@ -11319,7 +12507,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>131</v>
       </c>
@@ -11332,7 +12520,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -11343,7 +12531,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -11356,7 +12544,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -11369,7 +12557,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>13</v>
       </c>
@@ -11382,7 +12570,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>200</v>
       </c>
@@ -11393,7 +12581,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>201</v>
       </c>
@@ -11406,7 +12594,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>46</v>
       </c>
@@ -11419,7 +12607,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>202</v>
       </c>
@@ -11432,7 +12620,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>203</v>
       </c>
@@ -11443,12 +12631,16 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
@@ -11463,16 +12655,16 @@
       <selection activeCell="B1" sqref="B1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="3.44140625" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
@@ -11483,7 +12675,7 @@
       <c r="D1" s="43"/>
       <c r="E1" s="44"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -11496,7 +12688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -11509,7 +12701,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -11522,7 +12714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>167</v>
       </c>
@@ -11535,7 +12727,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>222</v>
       </c>
@@ -11548,7 +12740,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>223</v>
       </c>
@@ -11561,7 +12753,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>224</v>
       </c>
@@ -11574,7 +12766,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>195</v>
       </c>
@@ -11587,7 +12779,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>196</v>
       </c>
@@ -11600,7 +12792,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -11613,7 +12805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -11626,7 +12818,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -11639,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -11652,7 +12844,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>225</v>
       </c>
@@ -11665,7 +12857,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
@@ -11678,7 +12870,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>226</v>
       </c>
@@ -11691,7 +12883,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>130</v>
       </c>
@@ -11704,7 +12896,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>131</v>
       </c>
@@ -11717,7 +12909,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -11728,7 +12920,7 @@
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -11741,7 +12933,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -11754,7 +12946,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>151</v>
       </c>
@@ -11767,7 +12959,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>227</v>
       </c>
@@ -11778,7 +12970,7 @@
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>228</v>
       </c>
@@ -11791,7 +12983,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>229</v>
       </c>
@@ -11804,7 +12996,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>16</v>
       </c>
@@ -11817,7 +13009,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>178</v>
       </c>
@@ -11828,11 +13020,15 @@
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
     </row>
-    <row r="29" spans="1:5" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:E1"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/docs/Bolão da Copa do Mundo - Catar 2022.xlsx
+++ b/docs/Bolão da Copa do Mundo - Catar 2022.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ivan.alex\Documents\@Ivan_Alex\GitHub\bolao\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{141C1D49-5926-4BCA-ADEE-B3D4DB1CC186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{176262DA-F7AF-47D7-BF75-3B5B700DB703}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" tabRatio="754" firstSheet="1" activeTab="2" xr2:uid="{779A00DC-359A-4F42-A9CB-BE9275E20E22}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="754" activeTab="3" xr2:uid="{779A00DC-359A-4F42-A9CB-BE9275E20E22}"/>
   </bookViews>
   <sheets>
     <sheet name="Seleções" sheetId="4" r:id="rId1"/>
@@ -38,7 +38,8 @@
     <sheet name="Gabriel" sheetId="28" r:id="rId23"/>
     <sheet name="Anderson" sheetId="32" r:id="rId24"/>
     <sheet name="Luis" sheetId="29" r:id="rId25"/>
-    <sheet name="Ivan (14)" sheetId="33" r:id="rId26"/>
+    <sheet name="Cleófaz" sheetId="34" r:id="rId26"/>
+    <sheet name="NEW" sheetId="35" r:id="rId27"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -59,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2073" uniqueCount="574">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2464" uniqueCount="577">
   <si>
     <t xml:space="preserve">-------------------- </t>
   </si>
@@ -1642,9 +1643,6 @@
     <t>Holanda 4 X 0 Catar</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Vencedor Fase de Grupos</t>
   </si>
   <si>
@@ -1781,6 +1779,18 @@
   </si>
   <si>
     <t xml:space="preserve">2º: Mbappé/França </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> CLEÓFAZ</t>
+  </si>
+  <si>
+    <t>APOSTA</t>
+  </si>
+  <si>
+    <t>RESULTADO</t>
+  </si>
+  <si>
+    <t>TOTAL DE PONTOS</t>
   </si>
 </sst>
 </file>
@@ -1790,7 +1800,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_-[$R$-416]\ * #,##0.00_-;\-[$R$-416]\ * #,##0.00_-;_-[$R$-416]\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1836,6 +1846,13 @@
     <font>
       <sz val="16"/>
       <color rgb="FF0070C0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2253,7 +2270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2320,10 +2337,131 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2353,131 +2491,38 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="28" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3100,12 +3145,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>191</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -3489,12 +3534,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -3878,12 +3923,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>250</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -4267,12 +4312,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>353</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -4656,12 +4701,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>354</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -5045,12 +5090,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>392</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -5434,12 +5479,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>413</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -5823,12 +5868,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>446</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -6212,12 +6257,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>447</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -6601,12 +6646,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>469</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7008,12 +7053,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>491</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7398,12 +7443,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>503</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -7450,7 +7495,7 @@
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="28" t="s">
@@ -7463,7 +7508,7 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="28" t="s">
@@ -7498,11 +7543,11 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="28" t="s">
@@ -7511,7 +7556,7 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25" t="s">
@@ -7580,11 +7625,11 @@
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="28" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -7593,7 +7638,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="28" t="s">
@@ -7602,7 +7647,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
@@ -7610,7 +7655,7 @@
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="28" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -7623,7 +7668,7 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="28" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -7632,7 +7677,7 @@
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="28" t="s">
@@ -7678,7 +7723,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25" t="s">
@@ -7686,7 +7731,7 @@
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="28" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
@@ -7706,7 +7751,7 @@
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="D25" s="25"/>
       <c r="E25" s="22" t="s">
@@ -7723,20 +7768,20 @@
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="28" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="28" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7787,12 +7832,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>504</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -8174,12 +8219,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>505</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -8564,12 +8609,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>537</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="85" t="s">
+        <v>536</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -8620,7 +8665,7 @@
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="28" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -8629,11 +8674,11 @@
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="28" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -8759,7 +8804,7 @@
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="28" t="s">
@@ -8789,12 +8834,12 @@
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="28" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
@@ -8802,7 +8847,7 @@
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="28" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
@@ -8889,7 +8934,7 @@
       </c>
       <c r="D26" s="25"/>
       <c r="E26" s="28" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
@@ -8907,7 +8952,7 @@
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B28" s="27"/>
       <c r="C28" s="27" t="s">
@@ -8954,12 +8999,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>538</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="B1" s="85" t="s">
+        <v>537</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -9015,7 +9060,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
@@ -9292,7 +9337,7 @@
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="28" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -9320,11 +9365,14 @@
 </file>
 
 <file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCF9A4D2-B918-4160-A304-A6CDBA5BA349}">
-  <dimension ref="A1:E29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA4E645-B7DC-4A70-A682-FDA9132CDC67}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AD35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9334,20 +9382,29 @@
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3" customWidth="1"/>
+    <col min="8" max="11" width="4" customWidth="1"/>
+    <col min="12" max="14" width="3" customWidth="1"/>
+    <col min="15" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="20" max="23" width="4" customWidth="1"/>
+    <col min="24" max="26" width="3" customWidth="1"/>
+    <col min="27" max="30" width="4" customWidth="1"/>
+    <col min="31" max="65" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
-        <v>527</v>
-      </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="85" t="s">
+        <v>573</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
         <v>0</v>
       </c>
@@ -9359,8 +9416,58 @@
       <c r="E2" s="28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H2" s="84" t="str">
+        <f>Tabela!A3</f>
+        <v>Catar</v>
+      </c>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="2">
+        <f>Tabela!B3</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="2">
+        <f>Tabela!D3</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="84" t="str">
+        <f>Tabela!E3</f>
+        <v>Equador</v>
+      </c>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="T2" s="84" t="str">
+        <f>Tabela!G3</f>
+        <v>Alemanha</v>
+      </c>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2">
+        <f>Tabela!H3</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2">
+        <f>Tabela!J3</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="84" t="str">
+        <f>Tabela!K3</f>
+        <v>Japão</v>
+      </c>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>1</v>
       </c>
@@ -9372,8 +9479,58 @@
       <c r="E3" s="21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" s="84" t="str">
+        <f>Tabela!A4</f>
+        <v>Senegal</v>
+      </c>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="2">
+        <f>Tabela!B4</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="2">
+        <f>Tabela!D4</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="84" t="str">
+        <f>Tabela!E4</f>
+        <v>Holanda</v>
+      </c>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="T3" s="84" t="str">
+        <f>Tabela!G4</f>
+        <v>Espanha</v>
+      </c>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3">
+        <f>Tabela!H4</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3">
+        <f>Tabela!J4</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="84" t="str">
+        <f>Tabela!K4</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
         <v>0</v>
       </c>
@@ -9385,10 +9542,60 @@
       <c r="E4" s="28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
-        <v>367</v>
+      <c r="H4" s="84" t="str">
+        <f>Tabela!A5</f>
+        <v>Catar</v>
+      </c>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="2">
+        <f>Tabela!B5</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="2">
+        <f>Tabela!D5</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="84" t="str">
+        <f>Tabela!E5</f>
+        <v>Senegal</v>
+      </c>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="T4" s="84" t="str">
+        <f>Tabela!G5</f>
+        <v>Japão</v>
+      </c>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4">
+        <f>Tabela!H5</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4">
+        <f>Tabela!J5</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="84" t="str">
+        <f>Tabela!K5</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>43</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
@@ -9398,8 +9605,58 @@
       <c r="E5" s="28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H5" s="84" t="str">
+        <f>Tabela!A6</f>
+        <v>Holanda</v>
+      </c>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="2">
+        <f>Tabela!B6</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2">
+        <f>Tabela!D6</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="84" t="str">
+        <f>Tabela!E6</f>
+        <v>Equador</v>
+      </c>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="T5" s="84" t="str">
+        <f>Tabela!G6</f>
+        <v>Espanha</v>
+      </c>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5">
+        <f>Tabela!H6</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5">
+        <f>Tabela!J6</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="84" t="str">
+        <f>Tabela!K6</f>
+        <v>Alemanha</v>
+      </c>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
         <v>3</v>
       </c>
@@ -9411,8 +9668,58 @@
       <c r="E6" s="28" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H6" s="84" t="str">
+        <f>Tabela!A7</f>
+        <v>Holanda</v>
+      </c>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="2">
+        <f>Tabela!B7</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="2">
+        <f>Tabela!D7</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="84" t="str">
+        <f>Tabela!E7</f>
+        <v>Catar</v>
+      </c>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="T6" s="84" t="str">
+        <f>Tabela!G7</f>
+        <v>Japão</v>
+      </c>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6">
+        <f>Tabela!H7</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6">
+        <f>Tabela!J7</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="84" t="str">
+        <f>Tabela!K7</f>
+        <v>Espanha</v>
+      </c>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
         <v>128</v>
       </c>
@@ -9424,8 +9731,58 @@
       <c r="E7" s="28" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H7" s="84" t="str">
+        <f>Tabela!A8</f>
+        <v>Equador</v>
+      </c>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="2">
+        <f>Tabela!B8</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="2">
+        <f>Tabela!D8</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="84" t="str">
+        <f>Tabela!E8</f>
+        <v>Senegal</v>
+      </c>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="T7" s="84" t="str">
+        <f>Tabela!G8</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7">
+        <f>Tabela!H8</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7">
+        <f>Tabela!J8</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="84" t="str">
+        <f>Tabela!K8</f>
+        <v>Alemanha</v>
+      </c>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
         <v>5</v>
       </c>
@@ -9437,8 +9794,58 @@
       <c r="E8" s="28" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H8" s="84" t="str">
+        <f>Tabela!A9</f>
+        <v>Grupo B</v>
+      </c>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="2">
+        <f>Tabela!B9</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="2">
+        <f>Tabela!D9</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="84">
+        <f>Tabela!E9</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="T8" s="84" t="str">
+        <f>Tabela!G9</f>
+        <v>Grupo F</v>
+      </c>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8">
+        <f>Tabela!H9</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8">
+        <f>Tabela!J9</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="84">
+        <f>Tabela!K9</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>6</v>
       </c>
@@ -9450,8 +9857,58 @@
       <c r="E9" s="28" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H9" s="84" t="str">
+        <f>Tabela!A10</f>
+        <v>Inglaterra</v>
+      </c>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="2">
+        <f>Tabela!B10</f>
+        <v>6</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="2">
+        <f>Tabela!D10</f>
+        <v>2</v>
+      </c>
+      <c r="O9" s="84" t="str">
+        <f>Tabela!E10</f>
+        <v>Irã</v>
+      </c>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="T9" s="84" t="str">
+        <f>Tabela!G10</f>
+        <v>Marrocos</v>
+      </c>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9">
+        <f>Tabela!H10</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z9">
+        <f>Tabela!J10</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="84" t="str">
+        <f>Tabela!K10</f>
+        <v>Croácia</v>
+      </c>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>150</v>
       </c>
@@ -9463,8 +9920,58 @@
       <c r="E10" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H10" s="84" t="str">
+        <f>Tabela!A11</f>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="2">
+        <f>Tabela!B11</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="2">
+        <f>Tabela!D11</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="84" t="str">
+        <f>Tabela!E11</f>
+        <v>Gales</v>
+      </c>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="T10" s="84" t="str">
+        <f>Tabela!G11</f>
+        <v>Bélgica</v>
+      </c>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10">
+        <f>Tabela!H11</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z10">
+        <f>Tabela!J11</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="84" t="str">
+        <f>Tabela!K11</f>
+        <v>Canadá</v>
+      </c>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>0</v>
       </c>
@@ -9476,8 +9983,58 @@
       <c r="E11" s="28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H11" s="84" t="str">
+        <f>Tabela!A12</f>
+        <v>Gales</v>
+      </c>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="2">
+        <f>Tabela!B12</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="2">
+        <f>Tabela!D12</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="84" t="str">
+        <f>Tabela!E12</f>
+        <v>Irã</v>
+      </c>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="T11" s="84" t="str">
+        <f>Tabela!G12</f>
+        <v>Bélgica</v>
+      </c>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11">
+        <f>Tabela!H12</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z11">
+        <f>Tabela!J12</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="84" t="str">
+        <f>Tabela!K12</f>
+        <v>Marrocos</v>
+      </c>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A12" s="19" t="s">
         <v>8</v>
       </c>
@@ -9489,8 +10046,58 @@
       <c r="E12" s="21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H12" s="84" t="str">
+        <f>Tabela!A13</f>
+        <v>Inglaterra</v>
+      </c>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="2">
+        <f>Tabela!B13</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="2">
+        <f>Tabela!D13</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="84" t="str">
+        <f>Tabela!E13</f>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="T12" s="84" t="str">
+        <f>Tabela!G13</f>
+        <v>Croácia</v>
+      </c>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12">
+        <f>Tabela!H13</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12">
+        <f>Tabela!J13</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="84" t="str">
+        <f>Tabela!K13</f>
+        <v>Canadá</v>
+      </c>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A13" s="24" t="s">
         <v>0</v>
       </c>
@@ -9502,8 +10109,58 @@
       <c r="E13" s="28" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H13" s="84" t="str">
+        <f>Tabela!A14</f>
+        <v>Irã</v>
+      </c>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="2">
+        <f>Tabela!B14</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="2">
+        <f>Tabela!D14</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="84" t="str">
+        <f>Tabela!E14</f>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="T13" s="84" t="str">
+        <f>Tabela!G14</f>
+        <v>Croácia</v>
+      </c>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13">
+        <f>Tabela!H14</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13">
+        <f>Tabela!J14</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="84" t="str">
+        <f>Tabela!K14</f>
+        <v>Bélgica</v>
+      </c>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>45</v>
       </c>
@@ -9515,8 +10172,58 @@
       <c r="E14" s="28" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H14" s="84" t="str">
+        <f>Tabela!A15</f>
+        <v>Gales</v>
+      </c>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="2">
+        <f>Tabela!B15</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="2">
+        <f>Tabela!D15</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="84" t="str">
+        <f>Tabela!E15</f>
+        <v>Inglaterra</v>
+      </c>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="T14" s="84" t="str">
+        <f>Tabela!G15</f>
+        <v>Canadá</v>
+      </c>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14">
+        <f>Tabela!H15</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z14">
+        <f>Tabela!J15</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="84" t="str">
+        <f>Tabela!K15</f>
+        <v>Marrocos</v>
+      </c>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
         <v>9</v>
       </c>
@@ -9528,8 +10235,58 @@
       <c r="E15" s="28" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H15" s="84" t="str">
+        <f>Tabela!A16</f>
+        <v>Grupo C</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="2">
+        <f>Tabela!B16</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="2">
+        <f>Tabela!D16</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="84">
+        <f>Tabela!E16</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="T15" s="84" t="str">
+        <f>Tabela!G16</f>
+        <v>Grupo G</v>
+      </c>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15">
+        <f>Tabela!H16</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15">
+        <f>Tabela!J16</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="84">
+        <f>Tabela!K16</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
         <v>10</v>
       </c>
@@ -9541,8 +10298,58 @@
       <c r="E16" s="28" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H16" s="84" t="str">
+        <f>Tabela!A17</f>
+        <v>Argentina</v>
+      </c>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="2">
+        <f>Tabela!B17</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="2">
+        <f>Tabela!D17</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="84" t="str">
+        <f>Tabela!E17</f>
+        <v>Arábia Saudita</v>
+      </c>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="T16" s="84" t="str">
+        <f>Tabela!G17</f>
+        <v>Suíça</v>
+      </c>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16">
+        <f>Tabela!H17</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z16">
+        <f>Tabela!J17</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="84" t="str">
+        <f>Tabela!K17</f>
+        <v>Camarões</v>
+      </c>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
         <v>11</v>
       </c>
@@ -9554,8 +10361,58 @@
       <c r="E17" s="28" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H17" s="84" t="str">
+        <f>Tabela!A18</f>
+        <v>México</v>
+      </c>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="2">
+        <f>Tabela!B18</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="2">
+        <f>Tabela!D18</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="84" t="str">
+        <f>Tabela!E18</f>
+        <v>Polônia</v>
+      </c>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="T17" s="84" t="str">
+        <f>Tabela!G18</f>
+        <v>Brasil</v>
+      </c>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17">
+        <f>Tabela!H18</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z17">
+        <f>Tabela!J18</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="84" t="str">
+        <f>Tabela!K18</f>
+        <v>Sérvia</v>
+      </c>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
         <v>103</v>
       </c>
@@ -9567,8 +10424,58 @@
       <c r="E18" s="28" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H18" s="84" t="str">
+        <f>Tabela!A19</f>
+        <v>Polônia</v>
+      </c>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="2">
+        <f>Tabela!B19</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="2">
+        <f>Tabela!D19</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="84" t="str">
+        <f>Tabela!E19</f>
+        <v>Arábia Saudita</v>
+      </c>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="T18" s="84" t="str">
+        <f>Tabela!G19</f>
+        <v>Camarões</v>
+      </c>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18">
+        <f>Tabela!H19</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z18">
+        <f>Tabela!J19</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="84" t="str">
+        <f>Tabela!K19</f>
+        <v>Sérvia</v>
+      </c>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
         <v>131</v>
       </c>
@@ -9580,8 +10487,58 @@
       <c r="E19" s="28" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H19" s="84" t="str">
+        <f>Tabela!A20</f>
+        <v>Argentina</v>
+      </c>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="2">
+        <f>Tabela!B20</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="2">
+        <f>Tabela!D20</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="84" t="str">
+        <f>Tabela!E20</f>
+        <v>México</v>
+      </c>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="T19" s="84" t="str">
+        <f>Tabela!G20</f>
+        <v>Brasil</v>
+      </c>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19">
+        <f>Tabela!H20</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19">
+        <f>Tabela!J20</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="84" t="str">
+        <f>Tabela!K20</f>
+        <v>Suíça</v>
+      </c>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
         <v>0</v>
       </c>
@@ -9591,8 +10548,58 @@
       </c>
       <c r="D20" s="25"/>
       <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H20" s="84" t="str">
+        <f>Tabela!A21</f>
+        <v>Polônia</v>
+      </c>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="2">
+        <f>Tabela!B21</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="2">
+        <f>Tabela!D21</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="84" t="str">
+        <f>Tabela!E21</f>
+        <v>Argentina</v>
+      </c>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="T20" s="84" t="str">
+        <f>Tabela!G21</f>
+        <v>Camarões</v>
+      </c>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20">
+        <f>Tabela!H21</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z20">
+        <f>Tabela!J21</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="84" t="str">
+        <f>Tabela!K21</f>
+        <v>Brasil</v>
+      </c>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A21" s="19" t="s">
         <v>12</v>
       </c>
@@ -9604,8 +10611,58 @@
       <c r="E21" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H21" s="84" t="str">
+        <f>Tabela!A22</f>
+        <v>Arábia Saudita</v>
+      </c>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="2">
+        <f>Tabela!B22</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="2">
+        <f>Tabela!D22</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="84" t="str">
+        <f>Tabela!E22</f>
+        <v>México</v>
+      </c>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="T21" s="84" t="str">
+        <f>Tabela!G22</f>
+        <v>Sérvia</v>
+      </c>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21">
+        <f>Tabela!H22</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z21">
+        <f>Tabela!J22</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="84" t="str">
+        <f>Tabela!K22</f>
+        <v>Suíça</v>
+      </c>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A22" s="24" t="s">
         <v>0</v>
       </c>
@@ -9617,8 +10674,58 @@
       <c r="E22" s="28" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H22" s="84" t="str">
+        <f>Tabela!A23</f>
+        <v>Grupo D</v>
+      </c>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="2">
+        <f>Tabela!B23</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="2">
+        <f>Tabela!D23</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="84">
+        <f>Tabela!E23</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="T22" s="84" t="str">
+        <f>Tabela!G23</f>
+        <v>Grupo H</v>
+      </c>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22">
+        <f>Tabela!H23</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z22">
+        <f>Tabela!J23</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="84">
+        <f>Tabela!K23</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
         <v>151</v>
       </c>
@@ -9630,8 +10737,58 @@
       <c r="E23" s="28" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H23" s="84" t="str">
+        <f>Tabela!A24</f>
+        <v>Dinamarca</v>
+      </c>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="2">
+        <f>Tabela!B24</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="2">
+        <f>Tabela!D24</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="84" t="str">
+        <f>Tabela!E24</f>
+        <v>Tunísia</v>
+      </c>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="T23" s="84" t="str">
+        <f>Tabela!G24</f>
+        <v>Uruguai</v>
+      </c>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23">
+        <f>Tabela!H24</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z23">
+        <f>Tabela!J24</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="84" t="str">
+        <f>Tabela!K24</f>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
         <v>14</v>
       </c>
@@ -9641,8 +10798,58 @@
       </c>
       <c r="D24" s="25"/>
       <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H24" s="84" t="str">
+        <f>Tabela!A25</f>
+        <v>França</v>
+      </c>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="2">
+        <f>Tabela!B25</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="2">
+        <f>Tabela!D25</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="84" t="str">
+        <f>Tabela!E25</f>
+        <v>Austrália</v>
+      </c>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="T24" s="84" t="str">
+        <f>Tabela!G25</f>
+        <v>Portugal</v>
+      </c>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24">
+        <f>Tabela!H25</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24">
+        <f>Tabela!J25</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="84" t="str">
+        <f>Tabela!K25</f>
+        <v>Gana</v>
+      </c>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
         <v>133</v>
       </c>
@@ -9654,8 +10861,58 @@
       <c r="E25" s="22" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H25" s="84" t="str">
+        <f>Tabela!A26</f>
+        <v>Tunísia</v>
+      </c>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="2">
+        <f>Tabela!B26</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="2">
+        <f>Tabela!D26</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="84" t="str">
+        <f>Tabela!E26</f>
+        <v>Austrália</v>
+      </c>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="T25" s="84" t="str">
+        <f>Tabela!G26</f>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25">
+        <f>Tabela!H26</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z25">
+        <f>Tabela!J26</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="84" t="str">
+        <f>Tabela!K26</f>
+        <v>Gana</v>
+      </c>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
         <v>46</v>
       </c>
@@ -9667,8 +10924,58 @@
       <c r="E26" s="28" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H26" s="84" t="str">
+        <f>Tabela!A27</f>
+        <v>França</v>
+      </c>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="2">
+        <f>Tabela!B27</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="2">
+        <f>Tabela!D27</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="84" t="str">
+        <f>Tabela!E27</f>
+        <v>Dinamarca</v>
+      </c>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="T26" s="84" t="str">
+        <f>Tabela!G27</f>
+        <v>Portugal</v>
+      </c>
+      <c r="U26" s="84"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="84"/>
+      <c r="X26">
+        <f>Tabela!H27</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z26">
+        <f>Tabela!J27</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="84" t="str">
+        <f>Tabela!K27</f>
+        <v>Uruguai</v>
+      </c>
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="84"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
         <v>16</v>
       </c>
@@ -9680,8 +10987,58 @@
       <c r="E27" s="28" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H27" s="84" t="str">
+        <f>Tabela!A28</f>
+        <v>Tunísia</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="2">
+        <f>Tabela!B28</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="2">
+        <f>Tabela!D28</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="84" t="str">
+        <f>Tabela!E28</f>
+        <v>França</v>
+      </c>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="T27" s="84" t="str">
+        <f>Tabela!G28</f>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27">
+        <f>Tabela!H28</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z27">
+        <f>Tabela!J28</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="84" t="str">
+        <f>Tabela!K28</f>
+        <v>Portugal</v>
+      </c>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="26" t="s">
         <v>17</v>
       </c>
@@ -9691,11 +11048,2131 @@
       </c>
       <c r="D28" s="27"/>
       <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="H28" s="84" t="str">
+        <f>Tabela!A29</f>
+        <v>Austrália</v>
+      </c>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="2">
+        <f>Tabela!B29</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="2">
+        <f>Tabela!D29</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="84" t="str">
+        <f>Tabela!E29</f>
+        <v>Dinamarca</v>
+      </c>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="T28" s="84" t="str">
+        <f>Tabela!G29</f>
+        <v>Gana</v>
+      </c>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="84"/>
+      <c r="X28">
+        <f>Tabela!H29</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z28">
+        <f>Tabela!J29</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="84" t="str">
+        <f>Tabela!K29</f>
+        <v>Uruguai</v>
+      </c>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="113">
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="AA5:AD5"/>
     <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="AA3:AD3"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="AA9:AD9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="AA27:AD27"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <headerFooter>
+    <oddFooter>&amp;C&amp;1#&amp;"Calibri"&amp;8&amp;K000000Documento publico/Public document</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E4754A-16B0-49C1-8281-2A00D222607B}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:AD35"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23:R23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="26.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="3.42578125" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="3.42578125" customWidth="1"/>
+    <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="3" customWidth="1"/>
+    <col min="8" max="11" width="4" customWidth="1"/>
+    <col min="12" max="14" width="3" customWidth="1"/>
+    <col min="15" max="18" width="4" customWidth="1"/>
+    <col min="19" max="19" width="3" customWidth="1"/>
+    <col min="20" max="23" width="4" customWidth="1"/>
+    <col min="24" max="26" width="3" customWidth="1"/>
+    <col min="27" max="30" width="4" customWidth="1"/>
+    <col min="31" max="65" width="3" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:30" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="B1" s="85" t="s">
+        <v>164</v>
+      </c>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
+    </row>
+    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="25"/>
+      <c r="C2" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="25"/>
+      <c r="E2" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H2" s="84" t="str">
+        <f>Tabela!A3</f>
+        <v>Catar</v>
+      </c>
+      <c r="I2" s="84"/>
+      <c r="J2" s="84"/>
+      <c r="K2" s="84"/>
+      <c r="L2" s="2">
+        <f>Tabela!B3</f>
+        <v>0</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N2" s="2">
+        <f>Tabela!D3</f>
+        <v>2</v>
+      </c>
+      <c r="O2" s="84" t="str">
+        <f>Tabela!E3</f>
+        <v>Equador</v>
+      </c>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="T2" s="84" t="str">
+        <f>Tabela!G3</f>
+        <v>Alemanha</v>
+      </c>
+      <c r="U2" s="84"/>
+      <c r="V2" s="84"/>
+      <c r="W2" s="84"/>
+      <c r="X2">
+        <f>Tabela!H3</f>
+        <v>0</v>
+      </c>
+      <c r="Y2" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z2">
+        <f>Tabela!J3</f>
+        <v>0</v>
+      </c>
+      <c r="AA2" s="84" t="str">
+        <f>Tabela!K3</f>
+        <v>Japão</v>
+      </c>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+    </row>
+    <row r="3" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H3" s="84" t="str">
+        <f>Tabela!A4</f>
+        <v>Senegal</v>
+      </c>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="2">
+        <f>Tabela!B4</f>
+        <v>0</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N3" s="2">
+        <f>Tabela!D4</f>
+        <v>0</v>
+      </c>
+      <c r="O3" s="84" t="str">
+        <f>Tabela!E4</f>
+        <v>Holanda</v>
+      </c>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="84"/>
+      <c r="T3" s="84" t="str">
+        <f>Tabela!G4</f>
+        <v>Espanha</v>
+      </c>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3">
+        <f>Tabela!H4</f>
+        <v>0</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z3">
+        <f>Tabela!J4</f>
+        <v>0</v>
+      </c>
+      <c r="AA3" s="84" t="str">
+        <f>Tabela!K4</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="AB3" s="84"/>
+      <c r="AC3" s="84"/>
+      <c r="AD3" s="84"/>
+    </row>
+    <row r="4" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H4" s="84" t="str">
+        <f>Tabela!A5</f>
+        <v>Catar</v>
+      </c>
+      <c r="I4" s="84"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="2">
+        <f>Tabela!B5</f>
+        <v>0</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="2">
+        <f>Tabela!D5</f>
+        <v>0</v>
+      </c>
+      <c r="O4" s="84" t="str">
+        <f>Tabela!E5</f>
+        <v>Senegal</v>
+      </c>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="84"/>
+      <c r="T4" s="84" t="str">
+        <f>Tabela!G5</f>
+        <v>Japão</v>
+      </c>
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4">
+        <f>Tabela!H5</f>
+        <v>0</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z4">
+        <f>Tabela!J5</f>
+        <v>0</v>
+      </c>
+      <c r="AA4" s="84" t="str">
+        <f>Tabela!K5</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="AB4" s="84"/>
+      <c r="AC4" s="84"/>
+      <c r="AD4" s="84"/>
+    </row>
+    <row r="5" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="B5" s="25"/>
+      <c r="C5" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="28" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="84" t="str">
+        <f>Tabela!A6</f>
+        <v>Holanda</v>
+      </c>
+      <c r="I5" s="84"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="2">
+        <f>Tabela!B6</f>
+        <v>0</v>
+      </c>
+      <c r="M5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N5" s="2">
+        <f>Tabela!D6</f>
+        <v>0</v>
+      </c>
+      <c r="O5" s="84" t="str">
+        <f>Tabela!E6</f>
+        <v>Equador</v>
+      </c>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="T5" s="84" t="str">
+        <f>Tabela!G6</f>
+        <v>Espanha</v>
+      </c>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5">
+        <f>Tabela!H6</f>
+        <v>0</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z5">
+        <f>Tabela!J6</f>
+        <v>0</v>
+      </c>
+      <c r="AA5" s="84" t="str">
+        <f>Tabela!K6</f>
+        <v>Alemanha</v>
+      </c>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+    </row>
+    <row r="6" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A6" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="25"/>
+      <c r="C6" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="28" t="s">
+        <v>52</v>
+      </c>
+      <c r="H6" s="84" t="str">
+        <f>Tabela!A7</f>
+        <v>Holanda</v>
+      </c>
+      <c r="I6" s="84"/>
+      <c r="J6" s="84"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="2">
+        <f>Tabela!B7</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N6" s="2">
+        <f>Tabela!D7</f>
+        <v>0</v>
+      </c>
+      <c r="O6" s="84" t="str">
+        <f>Tabela!E7</f>
+        <v>Catar</v>
+      </c>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="T6" s="84" t="str">
+        <f>Tabela!G7</f>
+        <v>Japão</v>
+      </c>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6">
+        <f>Tabela!H7</f>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z6">
+        <f>Tabela!J7</f>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="84" t="str">
+        <f>Tabela!K7</f>
+        <v>Espanha</v>
+      </c>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+    </row>
+    <row r="7" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A7" s="24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B7" s="25"/>
+      <c r="C7" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="H7" s="84" t="str">
+        <f>Tabela!A8</f>
+        <v>Equador</v>
+      </c>
+      <c r="I7" s="84"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="2">
+        <f>Tabela!B8</f>
+        <v>0</v>
+      </c>
+      <c r="M7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N7" s="2">
+        <f>Tabela!D8</f>
+        <v>0</v>
+      </c>
+      <c r="O7" s="84" t="str">
+        <f>Tabela!E8</f>
+        <v>Senegal</v>
+      </c>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="84"/>
+      <c r="T7" s="84" t="str">
+        <f>Tabela!G8</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="U7" s="84"/>
+      <c r="V7" s="84"/>
+      <c r="W7" s="84"/>
+      <c r="X7">
+        <f>Tabela!H8</f>
+        <v>0</v>
+      </c>
+      <c r="Y7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z7">
+        <f>Tabela!J8</f>
+        <v>0</v>
+      </c>
+      <c r="AA7" s="84" t="str">
+        <f>Tabela!K8</f>
+        <v>Alemanha</v>
+      </c>
+      <c r="AB7" s="84"/>
+      <c r="AC7" s="84"/>
+      <c r="AD7" s="84"/>
+    </row>
+    <row r="8" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A8" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="25"/>
+      <c r="C8" s="25" t="s">
+        <v>153</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="H8" s="84" t="str">
+        <f>Tabela!A9</f>
+        <v>Grupo B</v>
+      </c>
+      <c r="I8" s="84"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="2">
+        <f>Tabela!B9</f>
+        <v>0</v>
+      </c>
+      <c r="M8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N8" s="2">
+        <f>Tabela!D9</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="84">
+        <f>Tabela!E9</f>
+        <v>0</v>
+      </c>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="84"/>
+      <c r="T8" s="84" t="str">
+        <f>Tabela!G9</f>
+        <v>Grupo F</v>
+      </c>
+      <c r="U8" s="84"/>
+      <c r="V8" s="84"/>
+      <c r="W8" s="84"/>
+      <c r="X8">
+        <f>Tabela!H9</f>
+        <v>0</v>
+      </c>
+      <c r="Y8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z8">
+        <f>Tabela!J9</f>
+        <v>0</v>
+      </c>
+      <c r="AA8" s="84">
+        <f>Tabela!K9</f>
+        <v>0</v>
+      </c>
+      <c r="AB8" s="84"/>
+      <c r="AC8" s="84"/>
+      <c r="AD8" s="84"/>
+    </row>
+    <row r="9" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A9" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="25"/>
+      <c r="C9" s="25" t="s">
+        <v>154</v>
+      </c>
+      <c r="D9" s="25"/>
+      <c r="E9" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="H9" s="84" t="str">
+        <f>Tabela!A10</f>
+        <v>Inglaterra</v>
+      </c>
+      <c r="I9" s="84"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="2">
+        <f>Tabela!B10</f>
+        <v>6</v>
+      </c>
+      <c r="M9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N9" s="2">
+        <f>Tabela!D10</f>
+        <v>2</v>
+      </c>
+      <c r="O9" s="84" t="str">
+        <f>Tabela!E10</f>
+        <v>Irã</v>
+      </c>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="84"/>
+      <c r="T9" s="84" t="str">
+        <f>Tabela!G10</f>
+        <v>Marrocos</v>
+      </c>
+      <c r="U9" s="84"/>
+      <c r="V9" s="84"/>
+      <c r="W9" s="84"/>
+      <c r="X9">
+        <f>Tabela!H10</f>
+        <v>0</v>
+      </c>
+      <c r="Y9" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z9">
+        <f>Tabela!J10</f>
+        <v>0</v>
+      </c>
+      <c r="AA9" s="84" t="str">
+        <f>Tabela!K10</f>
+        <v>Croácia</v>
+      </c>
+      <c r="AB9" s="84"/>
+      <c r="AC9" s="84"/>
+      <c r="AD9" s="84"/>
+    </row>
+    <row r="10" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A10" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B10" s="25"/>
+      <c r="C10" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="25"/>
+      <c r="E10" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="84" t="str">
+        <f>Tabela!A11</f>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="I10" s="84"/>
+      <c r="J10" s="84"/>
+      <c r="K10" s="84"/>
+      <c r="L10" s="2">
+        <f>Tabela!B11</f>
+        <v>0</v>
+      </c>
+      <c r="M10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10" s="2">
+        <f>Tabela!D11</f>
+        <v>0</v>
+      </c>
+      <c r="O10" s="84" t="str">
+        <f>Tabela!E11</f>
+        <v>Gales</v>
+      </c>
+      <c r="P10" s="84"/>
+      <c r="Q10" s="84"/>
+      <c r="R10" s="84"/>
+      <c r="T10" s="84" t="str">
+        <f>Tabela!G11</f>
+        <v>Bélgica</v>
+      </c>
+      <c r="U10" s="84"/>
+      <c r="V10" s="84"/>
+      <c r="W10" s="84"/>
+      <c r="X10">
+        <f>Tabela!H11</f>
+        <v>0</v>
+      </c>
+      <c r="Y10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z10">
+        <f>Tabela!J11</f>
+        <v>0</v>
+      </c>
+      <c r="AA10" s="84" t="str">
+        <f>Tabela!K11</f>
+        <v>Canadá</v>
+      </c>
+      <c r="AB10" s="84"/>
+      <c r="AC10" s="84"/>
+      <c r="AD10" s="84"/>
+    </row>
+    <row r="11" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A11" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B11" s="25"/>
+      <c r="C11" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" s="25"/>
+      <c r="E11" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H11" s="84" t="str">
+        <f>Tabela!A12</f>
+        <v>Gales</v>
+      </c>
+      <c r="I11" s="84"/>
+      <c r="J11" s="84"/>
+      <c r="K11" s="84"/>
+      <c r="L11" s="2">
+        <f>Tabela!B12</f>
+        <v>0</v>
+      </c>
+      <c r="M11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N11" s="2">
+        <f>Tabela!D12</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="84" t="str">
+        <f>Tabela!E12</f>
+        <v>Irã</v>
+      </c>
+      <c r="P11" s="84"/>
+      <c r="Q11" s="84"/>
+      <c r="R11" s="84"/>
+      <c r="T11" s="84" t="str">
+        <f>Tabela!G12</f>
+        <v>Bélgica</v>
+      </c>
+      <c r="U11" s="84"/>
+      <c r="V11" s="84"/>
+      <c r="W11" s="84"/>
+      <c r="X11">
+        <f>Tabela!H12</f>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z11">
+        <f>Tabela!J12</f>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="84" t="str">
+        <f>Tabela!K12</f>
+        <v>Marrocos</v>
+      </c>
+      <c r="AB11" s="84"/>
+      <c r="AC11" s="84"/>
+      <c r="AD11" s="84"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="H12" s="84" t="str">
+        <f>Tabela!A13</f>
+        <v>Inglaterra</v>
+      </c>
+      <c r="I12" s="84"/>
+      <c r="J12" s="84"/>
+      <c r="K12" s="84"/>
+      <c r="L12" s="2">
+        <f>Tabela!B13</f>
+        <v>0</v>
+      </c>
+      <c r="M12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="2">
+        <f>Tabela!D13</f>
+        <v>0</v>
+      </c>
+      <c r="O12" s="84" t="str">
+        <f>Tabela!E13</f>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="P12" s="84"/>
+      <c r="Q12" s="84"/>
+      <c r="R12" s="84"/>
+      <c r="T12" s="84" t="str">
+        <f>Tabela!G13</f>
+        <v>Croácia</v>
+      </c>
+      <c r="U12" s="84"/>
+      <c r="V12" s="84"/>
+      <c r="W12" s="84"/>
+      <c r="X12">
+        <f>Tabela!H13</f>
+        <v>0</v>
+      </c>
+      <c r="Y12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z12">
+        <f>Tabela!J13</f>
+        <v>0</v>
+      </c>
+      <c r="AA12" s="84" t="str">
+        <f>Tabela!K13</f>
+        <v>Canadá</v>
+      </c>
+      <c r="AB12" s="84"/>
+      <c r="AC12" s="84"/>
+      <c r="AD12" s="84"/>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A13" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B13" s="25"/>
+      <c r="C13" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D13" s="25"/>
+      <c r="E13" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="H13" s="84" t="str">
+        <f>Tabela!A14</f>
+        <v>Irã</v>
+      </c>
+      <c r="I13" s="84"/>
+      <c r="J13" s="84"/>
+      <c r="K13" s="84"/>
+      <c r="L13" s="2">
+        <f>Tabela!B14</f>
+        <v>0</v>
+      </c>
+      <c r="M13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N13" s="2">
+        <f>Tabela!D14</f>
+        <v>0</v>
+      </c>
+      <c r="O13" s="84" t="str">
+        <f>Tabela!E14</f>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="P13" s="84"/>
+      <c r="Q13" s="84"/>
+      <c r="R13" s="84"/>
+      <c r="T13" s="84" t="str">
+        <f>Tabela!G14</f>
+        <v>Croácia</v>
+      </c>
+      <c r="U13" s="84"/>
+      <c r="V13" s="84"/>
+      <c r="W13" s="84"/>
+      <c r="X13">
+        <f>Tabela!H14</f>
+        <v>0</v>
+      </c>
+      <c r="Y13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z13">
+        <f>Tabela!J14</f>
+        <v>0</v>
+      </c>
+      <c r="AA13" s="84" t="str">
+        <f>Tabela!K14</f>
+        <v>Bélgica</v>
+      </c>
+      <c r="AB13" s="84"/>
+      <c r="AC13" s="84"/>
+      <c r="AD13" s="84"/>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A14" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="25"/>
+      <c r="C14" s="25" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="25"/>
+      <c r="E14" s="28" t="s">
+        <v>160</v>
+      </c>
+      <c r="H14" s="84" t="str">
+        <f>Tabela!A15</f>
+        <v>Gales</v>
+      </c>
+      <c r="I14" s="84"/>
+      <c r="J14" s="84"/>
+      <c r="K14" s="84"/>
+      <c r="L14" s="2">
+        <f>Tabela!B15</f>
+        <v>0</v>
+      </c>
+      <c r="M14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N14" s="2">
+        <f>Tabela!D15</f>
+        <v>0</v>
+      </c>
+      <c r="O14" s="84" t="str">
+        <f>Tabela!E15</f>
+        <v>Inglaterra</v>
+      </c>
+      <c r="P14" s="84"/>
+      <c r="Q14" s="84"/>
+      <c r="R14" s="84"/>
+      <c r="T14" s="84" t="str">
+        <f>Tabela!G15</f>
+        <v>Canadá</v>
+      </c>
+      <c r="U14" s="84"/>
+      <c r="V14" s="84"/>
+      <c r="W14" s="84"/>
+      <c r="X14">
+        <f>Tabela!H15</f>
+        <v>0</v>
+      </c>
+      <c r="Y14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z14">
+        <f>Tabela!J15</f>
+        <v>0</v>
+      </c>
+      <c r="AA14" s="84" t="str">
+        <f>Tabela!K15</f>
+        <v>Marrocos</v>
+      </c>
+      <c r="AB14" s="84"/>
+      <c r="AC14" s="84"/>
+      <c r="AD14" s="84"/>
+    </row>
+    <row r="15" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="B15" s="25"/>
+      <c r="C15" s="25" t="s">
+        <v>156</v>
+      </c>
+      <c r="D15" s="25"/>
+      <c r="E15" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="H15" s="84" t="str">
+        <f>Tabela!A16</f>
+        <v>Grupo C</v>
+      </c>
+      <c r="I15" s="84"/>
+      <c r="J15" s="84"/>
+      <c r="K15" s="84"/>
+      <c r="L15" s="2">
+        <f>Tabela!B16</f>
+        <v>0</v>
+      </c>
+      <c r="M15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" s="2">
+        <f>Tabela!D16</f>
+        <v>0</v>
+      </c>
+      <c r="O15" s="84">
+        <f>Tabela!E16</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="84"/>
+      <c r="Q15" s="84"/>
+      <c r="R15" s="84"/>
+      <c r="T15" s="84" t="str">
+        <f>Tabela!G16</f>
+        <v>Grupo G</v>
+      </c>
+      <c r="U15" s="84"/>
+      <c r="V15" s="84"/>
+      <c r="W15" s="84"/>
+      <c r="X15">
+        <f>Tabela!H16</f>
+        <v>0</v>
+      </c>
+      <c r="Y15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z15">
+        <f>Tabela!J16</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="84">
+        <f>Tabela!K16</f>
+        <v>0</v>
+      </c>
+      <c r="AB15" s="84"/>
+      <c r="AC15" s="84"/>
+      <c r="AD15" s="84"/>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="B16" s="25"/>
+      <c r="C16" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="D16" s="25"/>
+      <c r="E16" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="H16" s="84" t="str">
+        <f>Tabela!A17</f>
+        <v>Argentina</v>
+      </c>
+      <c r="I16" s="84"/>
+      <c r="J16" s="84"/>
+      <c r="K16" s="84"/>
+      <c r="L16" s="2">
+        <f>Tabela!B17</f>
+        <v>0</v>
+      </c>
+      <c r="M16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N16" s="2">
+        <f>Tabela!D17</f>
+        <v>0</v>
+      </c>
+      <c r="O16" s="84" t="str">
+        <f>Tabela!E17</f>
+        <v>Arábia Saudita</v>
+      </c>
+      <c r="P16" s="84"/>
+      <c r="Q16" s="84"/>
+      <c r="R16" s="84"/>
+      <c r="T16" s="84" t="str">
+        <f>Tabela!G17</f>
+        <v>Suíça</v>
+      </c>
+      <c r="U16" s="84"/>
+      <c r="V16" s="84"/>
+      <c r="W16" s="84"/>
+      <c r="X16">
+        <f>Tabela!H17</f>
+        <v>0</v>
+      </c>
+      <c r="Y16" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z16">
+        <f>Tabela!J17</f>
+        <v>0</v>
+      </c>
+      <c r="AA16" s="84" t="str">
+        <f>Tabela!K17</f>
+        <v>Camarões</v>
+      </c>
+      <c r="AB16" s="84"/>
+      <c r="AC16" s="84"/>
+      <c r="AD16" s="84"/>
+    </row>
+    <row r="17" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A17" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="25"/>
+      <c r="E17" s="28" t="s">
+        <v>55</v>
+      </c>
+      <c r="H17" s="84" t="str">
+        <f>Tabela!A18</f>
+        <v>México</v>
+      </c>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="2">
+        <f>Tabela!B18</f>
+        <v>0</v>
+      </c>
+      <c r="M17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N17" s="2">
+        <f>Tabela!D18</f>
+        <v>0</v>
+      </c>
+      <c r="O17" s="84" t="str">
+        <f>Tabela!E18</f>
+        <v>Polônia</v>
+      </c>
+      <c r="P17" s="84"/>
+      <c r="Q17" s="84"/>
+      <c r="R17" s="84"/>
+      <c r="T17" s="84" t="str">
+        <f>Tabela!G18</f>
+        <v>Brasil</v>
+      </c>
+      <c r="U17" s="84"/>
+      <c r="V17" s="84"/>
+      <c r="W17" s="84"/>
+      <c r="X17">
+        <f>Tabela!H18</f>
+        <v>0</v>
+      </c>
+      <c r="Y17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z17">
+        <f>Tabela!J18</f>
+        <v>0</v>
+      </c>
+      <c r="AA17" s="84" t="str">
+        <f>Tabela!K18</f>
+        <v>Sérvia</v>
+      </c>
+      <c r="AB17" s="84"/>
+      <c r="AC17" s="84"/>
+      <c r="AD17" s="84"/>
+    </row>
+    <row r="18" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A18" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="B18" s="25"/>
+      <c r="C18" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" s="25"/>
+      <c r="E18" s="28" t="s">
+        <v>162</v>
+      </c>
+      <c r="H18" s="84" t="str">
+        <f>Tabela!A19</f>
+        <v>Polônia</v>
+      </c>
+      <c r="I18" s="84"/>
+      <c r="J18" s="84"/>
+      <c r="K18" s="84"/>
+      <c r="L18" s="2">
+        <f>Tabela!B19</f>
+        <v>0</v>
+      </c>
+      <c r="M18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N18" s="2">
+        <f>Tabela!D19</f>
+        <v>0</v>
+      </c>
+      <c r="O18" s="84" t="str">
+        <f>Tabela!E19</f>
+        <v>Arábia Saudita</v>
+      </c>
+      <c r="P18" s="84"/>
+      <c r="Q18" s="84"/>
+      <c r="R18" s="84"/>
+      <c r="T18" s="84" t="str">
+        <f>Tabela!G19</f>
+        <v>Camarões</v>
+      </c>
+      <c r="U18" s="84"/>
+      <c r="V18" s="84"/>
+      <c r="W18" s="84"/>
+      <c r="X18">
+        <f>Tabela!H19</f>
+        <v>0</v>
+      </c>
+      <c r="Y18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z18">
+        <f>Tabela!J19</f>
+        <v>0</v>
+      </c>
+      <c r="AA18" s="84" t="str">
+        <f>Tabela!K19</f>
+        <v>Sérvia</v>
+      </c>
+      <c r="AB18" s="84"/>
+      <c r="AC18" s="84"/>
+      <c r="AD18" s="84"/>
+    </row>
+    <row r="19" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A19" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="B19" s="25"/>
+      <c r="C19" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="D19" s="25"/>
+      <c r="E19" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="H19" s="84" t="str">
+        <f>Tabela!A20</f>
+        <v>Argentina</v>
+      </c>
+      <c r="I19" s="84"/>
+      <c r="J19" s="84"/>
+      <c r="K19" s="84"/>
+      <c r="L19" s="2">
+        <f>Tabela!B20</f>
+        <v>0</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N19" s="2">
+        <f>Tabela!D20</f>
+        <v>0</v>
+      </c>
+      <c r="O19" s="84" t="str">
+        <f>Tabela!E20</f>
+        <v>México</v>
+      </c>
+      <c r="P19" s="84"/>
+      <c r="Q19" s="84"/>
+      <c r="R19" s="84"/>
+      <c r="T19" s="84" t="str">
+        <f>Tabela!G20</f>
+        <v>Brasil</v>
+      </c>
+      <c r="U19" s="84"/>
+      <c r="V19" s="84"/>
+      <c r="W19" s="84"/>
+      <c r="X19">
+        <f>Tabela!H20</f>
+        <v>0</v>
+      </c>
+      <c r="Y19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z19">
+        <f>Tabela!J20</f>
+        <v>0</v>
+      </c>
+      <c r="AA19" s="84" t="str">
+        <f>Tabela!K20</f>
+        <v>Suíça</v>
+      </c>
+      <c r="AB19" s="84"/>
+      <c r="AC19" s="84"/>
+      <c r="AD19" s="84"/>
+    </row>
+    <row r="20" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A20" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="25"/>
+      <c r="C20" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D20" s="25"/>
+      <c r="E20" s="28"/>
+      <c r="H20" s="84" t="str">
+        <f>Tabela!A21</f>
+        <v>Polônia</v>
+      </c>
+      <c r="I20" s="84"/>
+      <c r="J20" s="84"/>
+      <c r="K20" s="84"/>
+      <c r="L20" s="2">
+        <f>Tabela!B21</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N20" s="2">
+        <f>Tabela!D21</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="84" t="str">
+        <f>Tabela!E21</f>
+        <v>Argentina</v>
+      </c>
+      <c r="P20" s="84"/>
+      <c r="Q20" s="84"/>
+      <c r="R20" s="84"/>
+      <c r="T20" s="84" t="str">
+        <f>Tabela!G21</f>
+        <v>Camarões</v>
+      </c>
+      <c r="U20" s="84"/>
+      <c r="V20" s="84"/>
+      <c r="W20" s="84"/>
+      <c r="X20">
+        <f>Tabela!H21</f>
+        <v>0</v>
+      </c>
+      <c r="Y20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z20">
+        <f>Tabela!J21</f>
+        <v>0</v>
+      </c>
+      <c r="AA20" s="84" t="str">
+        <f>Tabela!K21</f>
+        <v>Brasil</v>
+      </c>
+      <c r="AB20" s="84"/>
+      <c r="AC20" s="84"/>
+      <c r="AD20" s="84"/>
+    </row>
+    <row r="21" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="22" t="s">
+        <v>149</v>
+      </c>
+      <c r="H21" s="84" t="str">
+        <f>Tabela!A22</f>
+        <v>Arábia Saudita</v>
+      </c>
+      <c r="I21" s="84"/>
+      <c r="J21" s="84"/>
+      <c r="K21" s="84"/>
+      <c r="L21" s="2">
+        <f>Tabela!B22</f>
+        <v>0</v>
+      </c>
+      <c r="M21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N21" s="2">
+        <f>Tabela!D22</f>
+        <v>0</v>
+      </c>
+      <c r="O21" s="84" t="str">
+        <f>Tabela!E22</f>
+        <v>México</v>
+      </c>
+      <c r="P21" s="84"/>
+      <c r="Q21" s="84"/>
+      <c r="R21" s="84"/>
+      <c r="T21" s="84" t="str">
+        <f>Tabela!G22</f>
+        <v>Sérvia</v>
+      </c>
+      <c r="U21" s="84"/>
+      <c r="V21" s="84"/>
+      <c r="W21" s="84"/>
+      <c r="X21">
+        <f>Tabela!H22</f>
+        <v>0</v>
+      </c>
+      <c r="Y21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z21">
+        <f>Tabela!J22</f>
+        <v>0</v>
+      </c>
+      <c r="AA21" s="84" t="str">
+        <f>Tabela!K22</f>
+        <v>Suíça</v>
+      </c>
+      <c r="AB21" s="84"/>
+      <c r="AC21" s="84"/>
+      <c r="AD21" s="84"/>
+    </row>
+    <row r="22" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A22" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B22" s="25"/>
+      <c r="C22" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D22" s="25"/>
+      <c r="E22" s="28" t="s">
+        <v>304</v>
+      </c>
+      <c r="H22" s="84" t="str">
+        <f>Tabela!A23</f>
+        <v>Grupo D</v>
+      </c>
+      <c r="I22" s="84"/>
+      <c r="J22" s="84"/>
+      <c r="K22" s="84"/>
+      <c r="L22" s="2">
+        <f>Tabela!B23</f>
+        <v>0</v>
+      </c>
+      <c r="M22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N22" s="2">
+        <f>Tabela!D23</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="84">
+        <f>Tabela!E23</f>
+        <v>0</v>
+      </c>
+      <c r="P22" s="84"/>
+      <c r="Q22" s="84"/>
+      <c r="R22" s="84"/>
+      <c r="T22" s="84" t="str">
+        <f>Tabela!G23</f>
+        <v>Grupo H</v>
+      </c>
+      <c r="U22" s="84"/>
+      <c r="V22" s="84"/>
+      <c r="W22" s="84"/>
+      <c r="X22">
+        <f>Tabela!H23</f>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z22">
+        <f>Tabela!J23</f>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="84">
+        <f>Tabela!K23</f>
+        <v>0</v>
+      </c>
+      <c r="AB22" s="84"/>
+      <c r="AC22" s="84"/>
+      <c r="AD22" s="84"/>
+    </row>
+    <row r="23" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A23" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B23" s="25"/>
+      <c r="C23" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D23" s="25"/>
+      <c r="E23" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="H23" s="84" t="str">
+        <f>Tabela!A24</f>
+        <v>Dinamarca</v>
+      </c>
+      <c r="I23" s="84"/>
+      <c r="J23" s="84"/>
+      <c r="K23" s="84"/>
+      <c r="L23" s="2">
+        <f>Tabela!B24</f>
+        <v>0</v>
+      </c>
+      <c r="M23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23" s="2">
+        <f>Tabela!D24</f>
+        <v>0</v>
+      </c>
+      <c r="O23" s="84" t="str">
+        <f>Tabela!E24</f>
+        <v>Tunísia</v>
+      </c>
+      <c r="P23" s="84"/>
+      <c r="Q23" s="84"/>
+      <c r="R23" s="84"/>
+      <c r="T23" s="84" t="str">
+        <f>Tabela!G24</f>
+        <v>Uruguai</v>
+      </c>
+      <c r="U23" s="84"/>
+      <c r="V23" s="84"/>
+      <c r="W23" s="84"/>
+      <c r="X23">
+        <f>Tabela!H24</f>
+        <v>0</v>
+      </c>
+      <c r="Y23" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z23">
+        <f>Tabela!J24</f>
+        <v>0</v>
+      </c>
+      <c r="AA23" s="84" t="str">
+        <f>Tabela!K24</f>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="AB23" s="84"/>
+      <c r="AC23" s="84"/>
+      <c r="AD23" s="84"/>
+    </row>
+    <row r="24" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A24" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="D24" s="25"/>
+      <c r="E24" s="28"/>
+      <c r="H24" s="84" t="str">
+        <f>Tabela!A25</f>
+        <v>França</v>
+      </c>
+      <c r="I24" s="84"/>
+      <c r="J24" s="84"/>
+      <c r="K24" s="84"/>
+      <c r="L24" s="2">
+        <f>Tabela!B25</f>
+        <v>0</v>
+      </c>
+      <c r="M24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N24" s="2">
+        <f>Tabela!D25</f>
+        <v>0</v>
+      </c>
+      <c r="O24" s="84" t="str">
+        <f>Tabela!E25</f>
+        <v>Austrália</v>
+      </c>
+      <c r="P24" s="84"/>
+      <c r="Q24" s="84"/>
+      <c r="R24" s="84"/>
+      <c r="T24" s="84" t="str">
+        <f>Tabela!G25</f>
+        <v>Portugal</v>
+      </c>
+      <c r="U24" s="84"/>
+      <c r="V24" s="84"/>
+      <c r="W24" s="84"/>
+      <c r="X24">
+        <f>Tabela!H25</f>
+        <v>0</v>
+      </c>
+      <c r="Y24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z24">
+        <f>Tabela!J25</f>
+        <v>0</v>
+      </c>
+      <c r="AA24" s="84" t="str">
+        <f>Tabela!K25</f>
+        <v>Gana</v>
+      </c>
+      <c r="AB24" s="84"/>
+      <c r="AC24" s="84"/>
+      <c r="AD24" s="84"/>
+    </row>
+    <row r="25" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A25" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25" t="s">
+        <v>117</v>
+      </c>
+      <c r="D25" s="25"/>
+      <c r="E25" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="84" t="str">
+        <f>Tabela!A26</f>
+        <v>Tunísia</v>
+      </c>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="2">
+        <f>Tabela!B26</f>
+        <v>0</v>
+      </c>
+      <c r="M25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N25" s="2">
+        <f>Tabela!D26</f>
+        <v>0</v>
+      </c>
+      <c r="O25" s="84" t="str">
+        <f>Tabela!E26</f>
+        <v>Austrália</v>
+      </c>
+      <c r="P25" s="84"/>
+      <c r="Q25" s="84"/>
+      <c r="R25" s="84"/>
+      <c r="T25" s="84" t="str">
+        <f>Tabela!G26</f>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="U25" s="84"/>
+      <c r="V25" s="84"/>
+      <c r="W25" s="84"/>
+      <c r="X25">
+        <f>Tabela!H26</f>
+        <v>0</v>
+      </c>
+      <c r="Y25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z25">
+        <f>Tabela!J26</f>
+        <v>0</v>
+      </c>
+      <c r="AA25" s="84" t="str">
+        <f>Tabela!K26</f>
+        <v>Gana</v>
+      </c>
+      <c r="AB25" s="84"/>
+      <c r="AC25" s="84"/>
+      <c r="AD25" s="84"/>
+    </row>
+    <row r="26" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A26" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" s="25"/>
+      <c r="E26" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="H26" s="84" t="str">
+        <f>Tabela!A27</f>
+        <v>França</v>
+      </c>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="2">
+        <f>Tabela!B27</f>
+        <v>0</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N26" s="2">
+        <f>Tabela!D27</f>
+        <v>0</v>
+      </c>
+      <c r="O26" s="84" t="str">
+        <f>Tabela!E27</f>
+        <v>Dinamarca</v>
+      </c>
+      <c r="P26" s="84"/>
+      <c r="Q26" s="84"/>
+      <c r="R26" s="84"/>
+      <c r="T26" s="84" t="str">
+        <f>Tabela!G27</f>
+        <v>Portugal</v>
+      </c>
+      <c r="U26" s="84"/>
+      <c r="V26" s="84"/>
+      <c r="W26" s="84"/>
+      <c r="X26">
+        <f>Tabela!H27</f>
+        <v>0</v>
+      </c>
+      <c r="Y26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z26">
+        <f>Tabela!J27</f>
+        <v>0</v>
+      </c>
+      <c r="AA26" s="84" t="str">
+        <f>Tabela!K27</f>
+        <v>Uruguai</v>
+      </c>
+      <c r="AB26" s="84"/>
+      <c r="AC26" s="84"/>
+      <c r="AD26" s="84"/>
+    </row>
+    <row r="27" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="25"/>
+      <c r="C27" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D27" s="25"/>
+      <c r="E27" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="H27" s="84" t="str">
+        <f>Tabela!A28</f>
+        <v>Tunísia</v>
+      </c>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="2">
+        <f>Tabela!B28</f>
+        <v>0</v>
+      </c>
+      <c r="M27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N27" s="2">
+        <f>Tabela!D28</f>
+        <v>0</v>
+      </c>
+      <c r="O27" s="84" t="str">
+        <f>Tabela!E28</f>
+        <v>França</v>
+      </c>
+      <c r="P27" s="84"/>
+      <c r="Q27" s="84"/>
+      <c r="R27" s="84"/>
+      <c r="T27" s="84" t="str">
+        <f>Tabela!G28</f>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="U27" s="84"/>
+      <c r="V27" s="84"/>
+      <c r="W27" s="84"/>
+      <c r="X27">
+        <f>Tabela!H28</f>
+        <v>0</v>
+      </c>
+      <c r="Y27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z27">
+        <f>Tabela!J28</f>
+        <v>0</v>
+      </c>
+      <c r="AA27" s="84" t="str">
+        <f>Tabela!K28</f>
+        <v>Portugal</v>
+      </c>
+      <c r="AB27" s="84"/>
+      <c r="AC27" s="84"/>
+      <c r="AD27" s="84"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="26" t="s">
+        <v>17</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="27"/>
+      <c r="E28" s="29"/>
+      <c r="H28" s="84" t="str">
+        <f>Tabela!A29</f>
+        <v>Austrália</v>
+      </c>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="2">
+        <f>Tabela!B29</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="N28" s="2">
+        <f>Tabela!D29</f>
+        <v>0</v>
+      </c>
+      <c r="O28" s="84" t="str">
+        <f>Tabela!E29</f>
+        <v>Dinamarca</v>
+      </c>
+      <c r="P28" s="84"/>
+      <c r="Q28" s="84"/>
+      <c r="R28" s="84"/>
+      <c r="T28" s="84" t="str">
+        <f>Tabela!G29</f>
+        <v>Gana</v>
+      </c>
+      <c r="U28" s="84"/>
+      <c r="V28" s="84"/>
+      <c r="W28" s="84"/>
+      <c r="X28">
+        <f>Tabela!H29</f>
+        <v>0</v>
+      </c>
+      <c r="Y28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Z28">
+        <f>Tabela!J29</f>
+        <v>0</v>
+      </c>
+      <c r="AA28" s="84" t="str">
+        <f>Tabela!K29</f>
+        <v>Uruguai</v>
+      </c>
+      <c r="AB28" s="84"/>
+      <c r="AC28" s="84"/>
+      <c r="AD28" s="84"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="O29" s="33"/>
+      <c r="P29" s="33"/>
+      <c r="Q29" s="33"/>
+      <c r="R29" s="33"/>
+      <c r="T29" s="33"/>
+      <c r="U29" s="33"/>
+      <c r="V29" s="33"/>
+      <c r="W29" s="33"/>
+    </row>
+    <row r="30" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="T30" s="33"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33"/>
+    </row>
+    <row r="31" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+    </row>
+    <row r="32" spans="1:30" x14ac:dyDescent="0.25">
+      <c r="O32" s="84"/>
+      <c r="P32" s="84"/>
+      <c r="Q32" s="84"/>
+      <c r="R32" s="84"/>
+    </row>
+    <row r="33" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O33" s="84"/>
+      <c r="P33" s="84"/>
+      <c r="Q33" s="84"/>
+      <c r="R33" s="84"/>
+    </row>
+    <row r="34" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O34" s="84"/>
+      <c r="P34" s="84"/>
+      <c r="Q34" s="84"/>
+      <c r="R34" s="84"/>
+    </row>
+    <row r="35" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O35" s="84"/>
+      <c r="P35" s="84"/>
+      <c r="Q35" s="84"/>
+      <c r="R35" s="84"/>
+    </row>
+  </sheetData>
+  <mergeCells count="113">
+    <mergeCell ref="O34:R34"/>
+    <mergeCell ref="O35:R35"/>
+    <mergeCell ref="H28:K28"/>
+    <mergeCell ref="O28:R28"/>
+    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="AA28:AD28"/>
+    <mergeCell ref="O32:R32"/>
+    <mergeCell ref="O33:R33"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="O26:R26"/>
+    <mergeCell ref="T26:W26"/>
+    <mergeCell ref="AA26:AD26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="O27:R27"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="AA27:AD27"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="O24:R24"/>
+    <mergeCell ref="T24:W24"/>
+    <mergeCell ref="AA24:AD24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="O25:R25"/>
+    <mergeCell ref="T25:W25"/>
+    <mergeCell ref="AA25:AD25"/>
+    <mergeCell ref="H22:K22"/>
+    <mergeCell ref="O22:R22"/>
+    <mergeCell ref="T22:W22"/>
+    <mergeCell ref="AA22:AD22"/>
+    <mergeCell ref="H23:K23"/>
+    <mergeCell ref="O23:R23"/>
+    <mergeCell ref="T23:W23"/>
+    <mergeCell ref="AA23:AD23"/>
+    <mergeCell ref="H20:K20"/>
+    <mergeCell ref="O20:R20"/>
+    <mergeCell ref="T20:W20"/>
+    <mergeCell ref="AA20:AD20"/>
+    <mergeCell ref="H21:K21"/>
+    <mergeCell ref="O21:R21"/>
+    <mergeCell ref="T21:W21"/>
+    <mergeCell ref="AA21:AD21"/>
+    <mergeCell ref="H18:K18"/>
+    <mergeCell ref="O18:R18"/>
+    <mergeCell ref="T18:W18"/>
+    <mergeCell ref="AA18:AD18"/>
+    <mergeCell ref="H19:K19"/>
+    <mergeCell ref="O19:R19"/>
+    <mergeCell ref="T19:W19"/>
+    <mergeCell ref="AA19:AD19"/>
+    <mergeCell ref="H16:K16"/>
+    <mergeCell ref="O16:R16"/>
+    <mergeCell ref="T16:W16"/>
+    <mergeCell ref="AA16:AD16"/>
+    <mergeCell ref="H17:K17"/>
+    <mergeCell ref="O17:R17"/>
+    <mergeCell ref="T17:W17"/>
+    <mergeCell ref="AA17:AD17"/>
+    <mergeCell ref="H14:K14"/>
+    <mergeCell ref="O14:R14"/>
+    <mergeCell ref="T14:W14"/>
+    <mergeCell ref="AA14:AD14"/>
+    <mergeCell ref="H15:K15"/>
+    <mergeCell ref="O15:R15"/>
+    <mergeCell ref="T15:W15"/>
+    <mergeCell ref="AA15:AD15"/>
+    <mergeCell ref="H12:K12"/>
+    <mergeCell ref="O12:R12"/>
+    <mergeCell ref="T12:W12"/>
+    <mergeCell ref="AA12:AD12"/>
+    <mergeCell ref="H13:K13"/>
+    <mergeCell ref="O13:R13"/>
+    <mergeCell ref="T13:W13"/>
+    <mergeCell ref="AA13:AD13"/>
+    <mergeCell ref="H10:K10"/>
+    <mergeCell ref="O10:R10"/>
+    <mergeCell ref="T10:W10"/>
+    <mergeCell ref="AA10:AD10"/>
+    <mergeCell ref="H11:K11"/>
+    <mergeCell ref="O11:R11"/>
+    <mergeCell ref="T11:W11"/>
+    <mergeCell ref="AA11:AD11"/>
+    <mergeCell ref="H8:K8"/>
+    <mergeCell ref="O8:R8"/>
+    <mergeCell ref="T8:W8"/>
+    <mergeCell ref="AA8:AD8"/>
+    <mergeCell ref="H9:K9"/>
+    <mergeCell ref="O9:R9"/>
+    <mergeCell ref="T9:W9"/>
+    <mergeCell ref="AA9:AD9"/>
+    <mergeCell ref="H6:K6"/>
+    <mergeCell ref="O6:R6"/>
+    <mergeCell ref="T6:W6"/>
+    <mergeCell ref="AA6:AD6"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="O7:R7"/>
+    <mergeCell ref="T7:W7"/>
+    <mergeCell ref="AA7:AD7"/>
+    <mergeCell ref="H4:K4"/>
+    <mergeCell ref="O4:R4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="AA4:AD4"/>
+    <mergeCell ref="H5:K5"/>
+    <mergeCell ref="O5:R5"/>
+    <mergeCell ref="T5:W5"/>
+    <mergeCell ref="AA5:AD5"/>
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="H2:K2"/>
+    <mergeCell ref="O2:R2"/>
+    <mergeCell ref="T2:W2"/>
+    <mergeCell ref="AA2:AD2"/>
+    <mergeCell ref="H3:K3"/>
+    <mergeCell ref="O3:R3"/>
+    <mergeCell ref="T3:W3"/>
+    <mergeCell ref="AA3:AD3"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -9709,8 +13186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D64DF39F-3F82-40A1-8911-4EAF0D8AC5D2}">
   <dimension ref="A1:V30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T25" sqref="T25"/>
+    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="T6" sqref="T6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -9732,50 +13209,50 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="17.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="34" t="s">
+      <c r="A1" s="75" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="35"/>
-      <c r="C1" s="35"/>
-      <c r="D1" s="35"/>
-      <c r="E1" s="35"/>
-      <c r="F1" s="35"/>
-      <c r="G1" s="35"/>
-      <c r="H1" s="35"/>
-      <c r="I1" s="35"/>
-      <c r="J1" s="35"/>
-      <c r="K1" s="36"/>
+      <c r="B1" s="76"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="77"/>
     </row>
     <row r="2" spans="1:22" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="83" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="37"/>
-      <c r="G2" s="32" t="s">
+      <c r="B2" s="49"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="49" t="s">
         <v>91</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="33"/>
-      <c r="M2" s="40" t="s">
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="50"/>
+      <c r="M2" s="81" t="s">
         <v>90</v>
       </c>
-      <c r="N2" s="41"/>
-      <c r="P2" s="54" t="s">
+      <c r="N2" s="82"/>
+      <c r="P2" s="63" t="s">
+        <v>527</v>
+      </c>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="65"/>
+      <c r="T2" s="46" t="s">
         <v>528</v>
       </c>
-      <c r="Q2" s="55"/>
-      <c r="R2" s="56"/>
-      <c r="T2" s="45" t="s">
-        <v>529</v>
-      </c>
-      <c r="U2" s="46"/>
-      <c r="V2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="48"/>
     </row>
     <row r="3" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
@@ -9793,7 +13270,7 @@
       <c r="E3" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F3" s="38"/>
+      <c r="F3" s="79"/>
       <c r="G3" s="6" t="s">
         <v>56</v>
       </c>
@@ -9811,16 +13288,16 @@
       <c r="N3" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="P3" s="57">
+      <c r="P3" s="34">
         <v>50</v>
       </c>
-      <c r="Q3" s="58"/>
-      <c r="R3" s="59"/>
-      <c r="T3" s="48">
+      <c r="Q3" s="35"/>
+      <c r="R3" s="36"/>
+      <c r="T3" s="51">
         <v>22</v>
       </c>
-      <c r="U3" s="49"/>
-      <c r="V3" s="50"/>
+      <c r="U3" s="52"/>
+      <c r="V3" s="53"/>
     </row>
     <row r="4" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
@@ -9834,7 +13311,7 @@
       <c r="E4" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="F4" s="38"/>
+      <c r="F4" s="79"/>
       <c r="G4" s="6" t="s">
         <v>70</v>
       </c>
@@ -9852,12 +13329,12 @@
       <c r="N4" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="P4" s="57"/>
-      <c r="Q4" s="58"/>
-      <c r="R4" s="59"/>
-      <c r="T4" s="48"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="50"/>
+      <c r="P4" s="34"/>
+      <c r="Q4" s="35"/>
+      <c r="R4" s="36"/>
+      <c r="T4" s="51"/>
+      <c r="U4" s="52"/>
+      <c r="V4" s="53"/>
     </row>
     <row r="5" spans="1:22" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -9871,7 +13348,7 @@
       <c r="E5" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F5" s="38"/>
+      <c r="F5" s="79"/>
       <c r="G5" s="6" t="s">
         <v>77</v>
       </c>
@@ -9889,12 +13366,12 @@
       <c r="N5" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="61"/>
-      <c r="R5" s="62"/>
-      <c r="T5" s="51"/>
-      <c r="U5" s="52"/>
-      <c r="V5" s="53"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="39"/>
+      <c r="T5" s="54"/>
+      <c r="U5" s="55"/>
+      <c r="V5" s="56"/>
     </row>
     <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -9908,7 +13385,7 @@
       <c r="E6" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="F6" s="38"/>
+      <c r="F6" s="79"/>
       <c r="G6" s="6" t="s">
         <v>70</v>
       </c>
@@ -9939,7 +13416,7 @@
       <c r="E7" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="F7" s="38"/>
+      <c r="F7" s="79"/>
       <c r="G7" s="6" t="s">
         <v>77</v>
       </c>
@@ -9957,16 +13434,16 @@
       <c r="N7" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="P7" s="63" t="s">
-        <v>532</v>
-      </c>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="65"/>
-      <c r="T7" s="45" t="s">
-        <v>530</v>
-      </c>
-      <c r="U7" s="46"/>
-      <c r="V7" s="47"/>
+      <c r="P7" s="72" t="s">
+        <v>531</v>
+      </c>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="74"/>
+      <c r="T7" s="46" t="s">
+        <v>529</v>
+      </c>
+      <c r="U7" s="47"/>
+      <c r="V7" s="48"/>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
@@ -9980,7 +13457,7 @@
       <c r="E8" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="38"/>
+      <c r="F8" s="79"/>
       <c r="G8" s="6" t="s">
         <v>66</v>
       </c>
@@ -9998,60 +13475,64 @@
       <c r="N8" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="P8" s="57">
+      <c r="P8" s="34">
         <f>T16*0.5</f>
         <v>85</v>
       </c>
-      <c r="Q8" s="58"/>
-      <c r="R8" s="59"/>
-      <c r="T8" s="72">
+      <c r="Q8" s="35"/>
+      <c r="R8" s="36"/>
+      <c r="T8" s="57">
         <v>10</v>
       </c>
-      <c r="U8" s="73"/>
-      <c r="V8" s="74"/>
+      <c r="U8" s="58"/>
+      <c r="V8" s="59"/>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="32"/>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="32" t="s">
+      <c r="B9" s="49"/>
+      <c r="C9" s="49"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="H9" s="32"/>
-      <c r="I9" s="32"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="33"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="50"/>
       <c r="M9" s="5" t="s">
         <v>62</v>
       </c>
       <c r="N9" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="P9" s="60"/>
-      <c r="Q9" s="61"/>
-      <c r="R9" s="62"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="77"/>
+      <c r="P9" s="37"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="39"/>
+      <c r="T9" s="60"/>
+      <c r="U9" s="61"/>
+      <c r="V9" s="62"/>
     </row>
     <row r="10" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="B10" s="11"/>
+      <c r="B10" s="11">
+        <v>6</v>
+      </c>
       <c r="C10" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
       <c r="E10" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="38"/>
+      <c r="F10" s="79"/>
       <c r="G10" s="6" t="s">
         <v>78</v>
       </c>
@@ -10082,7 +13563,7 @@
       <c r="E11" s="15" t="s">
         <v>89</v>
       </c>
-      <c r="F11" s="38"/>
+      <c r="F11" s="79"/>
       <c r="G11" s="6" t="s">
         <v>60</v>
       </c>
@@ -10100,16 +13581,16 @@
       <c r="N11" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="P11" s="66" t="s">
-        <v>533</v>
-      </c>
-      <c r="Q11" s="67"/>
-      <c r="R11" s="68"/>
-      <c r="T11" s="45" t="s">
-        <v>531</v>
-      </c>
-      <c r="U11" s="46"/>
-      <c r="V11" s="47"/>
+      <c r="P11" s="69" t="s">
+        <v>532</v>
+      </c>
+      <c r="Q11" s="70"/>
+      <c r="R11" s="71"/>
+      <c r="T11" s="46" t="s">
+        <v>530</v>
+      </c>
+      <c r="U11" s="47"/>
+      <c r="V11" s="48"/>
     </row>
     <row r="12" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -10123,7 +13604,7 @@
       <c r="E12" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="F12" s="38"/>
+      <c r="F12" s="79"/>
       <c r="G12" s="6" t="s">
         <v>60</v>
       </c>
@@ -10141,18 +13622,18 @@
       <c r="N12" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="P12" s="57">
+      <c r="P12" s="34">
         <f>T16*0.3</f>
         <v>51</v>
       </c>
-      <c r="Q12" s="58"/>
-      <c r="R12" s="59"/>
-      <c r="T12" s="78">
+      <c r="Q12" s="35"/>
+      <c r="R12" s="36"/>
+      <c r="T12" s="40">
         <f>T3*T8</f>
         <v>220</v>
       </c>
-      <c r="U12" s="79"/>
-      <c r="V12" s="80"/>
+      <c r="U12" s="41"/>
+      <c r="V12" s="42"/>
     </row>
     <row r="13" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5" t="s">
@@ -10166,7 +13647,7 @@
       <c r="E13" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F13" s="38"/>
+      <c r="F13" s="79"/>
       <c r="G13" s="6" t="s">
         <v>67</v>
       </c>
@@ -10184,12 +13665,12 @@
       <c r="N13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="P13" s="60"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="62"/>
-      <c r="T13" s="81"/>
-      <c r="U13" s="82"/>
-      <c r="V13" s="83"/>
+      <c r="P13" s="37"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="39"/>
+      <c r="T13" s="43"/>
+      <c r="U13" s="44"/>
+      <c r="V13" s="45"/>
     </row>
     <row r="14" spans="1:22" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
@@ -10203,7 +13684,7 @@
       <c r="E14" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="F14" s="38"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="6" t="s">
         <v>67</v>
       </c>
@@ -10221,9 +13702,9 @@
       <c r="N14" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="T14" s="84"/>
-      <c r="U14" s="84"/>
-      <c r="V14" s="84"/>
+      <c r="T14" s="32"/>
+      <c r="U14" s="32"/>
+      <c r="V14" s="32"/>
     </row>
     <row r="15" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A15" s="5" t="s">
@@ -10237,7 +13718,7 @@
       <c r="E15" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="79"/>
       <c r="G15" s="6" t="s">
         <v>63</v>
       </c>
@@ -10255,51 +13736,51 @@
       <c r="N15" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="P15" s="69" t="s">
+      <c r="P15" s="66" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q15" s="67"/>
+      <c r="R15" s="68"/>
+      <c r="T15" s="46" t="s">
         <v>534</v>
       </c>
-      <c r="Q15" s="70"/>
-      <c r="R15" s="71"/>
-      <c r="T15" s="45" t="s">
-        <v>535</v>
-      </c>
-      <c r="U15" s="46"/>
-      <c r="V15" s="47"/>
+      <c r="U15" s="47"/>
+      <c r="V15" s="48"/>
     </row>
     <row r="16" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="42" t="s">
+      <c r="A16" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="32" t="s">
+      <c r="B16" s="49"/>
+      <c r="C16" s="49"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="79"/>
+      <c r="G16" s="49" t="s">
         <v>93</v>
       </c>
-      <c r="H16" s="32"/>
-      <c r="I16" s="32"/>
-      <c r="J16" s="32"/>
-      <c r="K16" s="33"/>
+      <c r="H16" s="49"/>
+      <c r="I16" s="49"/>
+      <c r="J16" s="49"/>
+      <c r="K16" s="50"/>
       <c r="M16" s="5" t="s">
         <v>69</v>
       </c>
       <c r="N16" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="P16" s="57">
+      <c r="P16" s="34">
         <f>T16*0.2</f>
         <v>34</v>
       </c>
-      <c r="Q16" s="58"/>
-      <c r="R16" s="59"/>
-      <c r="T16" s="78">
+      <c r="Q16" s="35"/>
+      <c r="R16" s="36"/>
+      <c r="T16" s="40">
         <f>T12-P3</f>
         <v>170</v>
       </c>
-      <c r="U16" s="79"/>
-      <c r="V16" s="80"/>
+      <c r="U16" s="41"/>
+      <c r="V16" s="42"/>
     </row>
     <row r="17" spans="1:22" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -10313,7 +13794,7 @@
       <c r="E17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F17" s="38"/>
+      <c r="F17" s="79"/>
       <c r="G17" s="6" t="s">
         <v>85</v>
       </c>
@@ -10331,12 +13812,12 @@
       <c r="N17" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="P17" s="60"/>
-      <c r="Q17" s="61"/>
-      <c r="R17" s="62"/>
-      <c r="T17" s="81"/>
-      <c r="U17" s="82"/>
-      <c r="V17" s="83"/>
+      <c r="P17" s="37"/>
+      <c r="Q17" s="38"/>
+      <c r="R17" s="39"/>
+      <c r="T17" s="43"/>
+      <c r="U17" s="44"/>
+      <c r="V17" s="45"/>
     </row>
     <row r="18" spans="1:22" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="5" t="s">
@@ -10350,7 +13831,7 @@
       <c r="E18" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="F18" s="38"/>
+      <c r="F18" s="79"/>
       <c r="G18" s="6" t="s">
         <v>61</v>
       </c>
@@ -10381,7 +13862,7 @@
       <c r="E19" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="F19" s="38"/>
+      <c r="F19" s="79"/>
       <c r="G19" s="6" t="s">
         <v>62</v>
       </c>
@@ -10406,7 +13887,7 @@
       <c r="E20" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F20" s="38"/>
+      <c r="F20" s="79"/>
       <c r="G20" s="6" t="s">
         <v>61</v>
       </c>
@@ -10419,7 +13900,7 @@
         <v>85</v>
       </c>
       <c r="M20" s="3" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
@@ -10434,7 +13915,7 @@
       <c r="E21" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="F21" s="38"/>
+      <c r="F21" s="79"/>
       <c r="G21" s="6" t="s">
         <v>62</v>
       </c>
@@ -10447,10 +13928,10 @@
         <v>61</v>
       </c>
       <c r="M21" s="3" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="N21" s="3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="22" spans="1:22" x14ac:dyDescent="0.25">
@@ -10465,7 +13946,7 @@
       <c r="E22" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="F22" s="38"/>
+      <c r="F22" s="79"/>
       <c r="G22" s="6" t="s">
         <v>84</v>
       </c>
@@ -10478,33 +13959,33 @@
         <v>85</v>
       </c>
       <c r="M22" s="3" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N22" s="3" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="83" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="49"/>
+      <c r="C23" s="49"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="79"/>
+      <c r="G23" s="49" t="s">
+        <v>94</v>
+      </c>
+      <c r="H23" s="49"/>
+      <c r="I23" s="49"/>
+      <c r="J23" s="49"/>
+      <c r="K23" s="50"/>
+      <c r="M23" s="3" t="s">
         <v>553</v>
       </c>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A23" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="38"/>
-      <c r="G23" s="32" t="s">
-        <v>94</v>
-      </c>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
-      <c r="M23" s="3" t="s">
+      <c r="N23" s="3" t="s">
         <v>554</v>
-      </c>
-      <c r="N23" s="3" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:22" ht="18.75" x14ac:dyDescent="0.25">
@@ -10519,7 +14000,7 @@
       <c r="E24" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="F24" s="38"/>
+      <c r="F24" s="79"/>
       <c r="G24" s="6" t="s">
         <v>87</v>
       </c>
@@ -10532,7 +14013,7 @@
         <v>65</v>
       </c>
       <c r="N24" s="3" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
@@ -10547,7 +14028,7 @@
       <c r="E25" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F25" s="38"/>
+      <c r="F25" s="79"/>
       <c r="G25" s="6" t="s">
         <v>82</v>
       </c>
@@ -10572,7 +14053,7 @@
       <c r="E26" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="F26" s="38"/>
+      <c r="F26" s="79"/>
       <c r="G26" s="6" t="s">
         <v>65</v>
       </c>
@@ -10597,7 +14078,7 @@
       <c r="E27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="38"/>
+      <c r="F27" s="79"/>
       <c r="G27" s="6" t="s">
         <v>82</v>
       </c>
@@ -10622,7 +14103,7 @@
       <c r="E28" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="F28" s="38"/>
+      <c r="F28" s="79"/>
       <c r="G28" s="6" t="s">
         <v>65</v>
       </c>
@@ -10647,7 +14128,7 @@
       <c r="E29" s="16" t="s">
         <v>68</v>
       </c>
-      <c r="F29" s="39"/>
+      <c r="F29" s="80"/>
       <c r="G29" s="9" t="s">
         <v>73</v>
       </c>
@@ -10673,10 +14154,6 @@
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="G2:K2"/>
     <mergeCell ref="G9:K9"/>
-    <mergeCell ref="P16:R17"/>
-    <mergeCell ref="T16:V17"/>
-    <mergeCell ref="T2:V2"/>
-    <mergeCell ref="T7:V7"/>
     <mergeCell ref="G16:K16"/>
     <mergeCell ref="T12:V13"/>
     <mergeCell ref="T3:V5"/>
@@ -10684,12 +14161,16 @@
     <mergeCell ref="T8:V9"/>
     <mergeCell ref="P3:R5"/>
     <mergeCell ref="T11:V11"/>
-    <mergeCell ref="P2:R2"/>
     <mergeCell ref="P15:R15"/>
     <mergeCell ref="P11:R11"/>
     <mergeCell ref="P7:R7"/>
     <mergeCell ref="P12:R13"/>
     <mergeCell ref="P8:R9"/>
+    <mergeCell ref="P16:R17"/>
+    <mergeCell ref="T16:V17"/>
+    <mergeCell ref="T2:V2"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="P2:R2"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -10704,10 +14185,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:E29"/>
+  <dimension ref="A1:BM37"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="BE10" sqref="BE10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10717,368 +14198,3282 @@
     <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="3.42578125" customWidth="1"/>
     <col min="5" max="5" width="26" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3" customWidth="1"/>
+    <col min="7" max="10" width="4.28515625" style="87" customWidth="1"/>
+    <col min="11" max="13" width="3" style="2" customWidth="1"/>
+    <col min="14" max="17" width="4.28515625" style="89" customWidth="1"/>
+    <col min="18" max="18" width="1.5703125" customWidth="1"/>
+    <col min="19" max="22" width="4.28515625" style="87" customWidth="1"/>
+    <col min="23" max="25" width="3" style="2" customWidth="1"/>
+    <col min="26" max="29" width="4.28515625" style="89" customWidth="1"/>
+    <col min="30" max="30" width="3" customWidth="1"/>
+    <col min="31" max="34" width="4" style="87" customWidth="1"/>
+    <col min="35" max="37" width="3" customWidth="1"/>
+    <col min="38" max="41" width="4" style="89" customWidth="1"/>
+    <col min="42" max="42" width="1.5703125" customWidth="1"/>
+    <col min="43" max="46" width="4" style="87" customWidth="1"/>
+    <col min="47" max="49" width="3" style="2" customWidth="1"/>
+    <col min="50" max="53" width="4" style="89" customWidth="1"/>
+    <col min="54" max="88" width="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:55" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="G1" s="84" t="s">
+        <v>574</v>
+      </c>
+      <c r="H1" s="84"/>
+      <c r="I1" s="84"/>
+      <c r="J1" s="84"/>
+      <c r="K1" s="84"/>
+      <c r="L1" s="84"/>
+      <c r="M1" s="84"/>
+      <c r="N1" s="84"/>
+      <c r="O1" s="84"/>
+      <c r="P1" s="84"/>
+      <c r="Q1" s="84"/>
+      <c r="R1" s="84"/>
+      <c r="S1" s="84"/>
+      <c r="T1" s="84"/>
+      <c r="U1" s="84"/>
+      <c r="V1" s="84"/>
+      <c r="W1" s="84"/>
+      <c r="X1" s="84"/>
+      <c r="Y1" s="84"/>
+      <c r="Z1" s="84"/>
+      <c r="AA1" s="84"/>
+      <c r="AB1" s="84"/>
+      <c r="AC1" s="84"/>
+      <c r="AE1" s="84" t="s">
+        <v>575</v>
+      </c>
+      <c r="AF1" s="84"/>
+      <c r="AG1" s="84"/>
+      <c r="AH1" s="84"/>
+      <c r="AI1" s="84"/>
+      <c r="AJ1" s="84"/>
+      <c r="AK1" s="84"/>
+      <c r="AL1" s="84"/>
+      <c r="AM1" s="84"/>
+      <c r="AN1" s="84"/>
+      <c r="AO1" s="84"/>
+      <c r="AP1" s="84"/>
+      <c r="AQ1" s="84"/>
+      <c r="AR1" s="84"/>
+      <c r="AS1" s="84"/>
+      <c r="AT1" s="84"/>
+      <c r="AU1" s="84"/>
+      <c r="AV1" s="84"/>
+      <c r="AW1" s="84"/>
+      <c r="AX1" s="84"/>
+      <c r="AY1" s="84"/>
+      <c r="AZ1" s="84"/>
+      <c r="BA1" s="84"/>
+    </row>
+    <row r="2" spans="1:55" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B2" s="85" t="s">
         <v>164</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="86"/>
+      <c r="G2" s="92" t="s">
         <v>1</v>
       </c>
+      <c r="H2" s="92"/>
+      <c r="I2" s="92"/>
+      <c r="J2" s="92"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="92"/>
+      <c r="M2" s="92"/>
+      <c r="N2" s="92"/>
+      <c r="O2" s="92"/>
+      <c r="P2" s="92"/>
+      <c r="Q2" s="92"/>
+      <c r="S2" s="92" t="s">
+        <v>91</v>
+      </c>
+      <c r="T2" s="92"/>
+      <c r="U2" s="92"/>
+      <c r="V2" s="92"/>
+      <c r="W2" s="92"/>
+      <c r="X2" s="92"/>
+      <c r="Y2" s="92"/>
+      <c r="Z2" s="92"/>
+      <c r="AA2" s="92"/>
+      <c r="AB2" s="92"/>
+      <c r="AC2" s="92"/>
+      <c r="AE2" s="91" t="str">
+        <f>Tabela!A2</f>
+        <v>Grupo A</v>
+      </c>
+      <c r="AF2" s="91"/>
+      <c r="AG2" s="91"/>
+      <c r="AH2" s="91"/>
+      <c r="AI2" s="91"/>
+      <c r="AJ2" s="91"/>
+      <c r="AK2" s="91"/>
+      <c r="AL2" s="91"/>
+      <c r="AM2" s="91"/>
+      <c r="AN2" s="91"/>
+      <c r="AO2" s="91"/>
+      <c r="AQ2" s="91" t="str">
+        <f>Tabela!G2</f>
+        <v>Grupo E</v>
+      </c>
+      <c r="AR2" s="91"/>
+      <c r="AS2" s="91"/>
+      <c r="AT2" s="91"/>
+      <c r="AU2" s="91"/>
+      <c r="AV2" s="91"/>
+      <c r="AW2" s="91"/>
+      <c r="AX2" s="91"/>
+      <c r="AY2" s="91"/>
+      <c r="AZ2" s="91"/>
+      <c r="BA2" s="91"/>
+    </row>
+    <row r="3" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
+        <v>0</v>
+      </c>
       <c r="B3" s="25"/>
-      <c r="C3" s="20" t="s">
+      <c r="C3" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H3" s="88"/>
+      <c r="I3" s="88"/>
+      <c r="J3" s="88"/>
+      <c r="K3" s="2">
+        <v>1</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M3" s="2">
+        <v>2</v>
+      </c>
+      <c r="N3" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="O3" s="90"/>
+      <c r="P3" s="90"/>
+      <c r="Q3" s="90"/>
+      <c r="S3" s="88" t="s">
+        <v>56</v>
+      </c>
+      <c r="T3" s="88"/>
+      <c r="U3" s="88"/>
+      <c r="V3" s="88"/>
+      <c r="W3" s="2">
+        <v>2</v>
+      </c>
+      <c r="X3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y3" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="90" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA3" s="90"/>
+      <c r="AB3" s="90"/>
+      <c r="AC3" s="90"/>
+      <c r="AE3" s="88" t="str">
+        <f>Tabela!A3</f>
+        <v>Catar</v>
+      </c>
+      <c r="AF3" s="88"/>
+      <c r="AG3" s="88"/>
+      <c r="AH3" s="88"/>
+      <c r="AI3" s="2">
+        <f>Tabela!B3</f>
+        <v>0</v>
+      </c>
+      <c r="AJ3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK3" s="2">
+        <f>Tabela!D3</f>
+        <v>2</v>
+      </c>
+      <c r="AL3" s="90" t="str">
+        <f>Tabela!E3</f>
+        <v>Equador</v>
+      </c>
+      <c r="AM3" s="90"/>
+      <c r="AN3" s="90"/>
+      <c r="AO3" s="90"/>
+      <c r="AQ3" s="88" t="str">
+        <f>Tabela!G3</f>
+        <v>Alemanha</v>
+      </c>
+      <c r="AR3" s="88"/>
+      <c r="AS3" s="88"/>
+      <c r="AT3" s="88"/>
+      <c r="AU3" s="2">
+        <f>Tabela!H3</f>
+        <v>0</v>
+      </c>
+      <c r="AV3" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW3" s="2">
+        <f>Tabela!J3</f>
+        <v>0</v>
+      </c>
+      <c r="AX3" s="90" t="str">
+        <f>Tabela!K3</f>
+        <v>Japão</v>
+      </c>
+      <c r="AY3" s="90"/>
+      <c r="AZ3" s="90"/>
+      <c r="BA3" s="90"/>
+      <c r="BC3">
+        <f>IF(AND(AI3=K3,AK3=M3),25,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A4" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="25"/>
+      <c r="C4" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="25"/>
-      <c r="E3" s="21" t="s">
+      <c r="D4" s="25"/>
+      <c r="E4" s="21" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="25"/>
-      <c r="E4" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G4" s="88" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="88"/>
+      <c r="I4" s="88"/>
+      <c r="J4" s="88"/>
+      <c r="K4" s="2">
+        <v>1</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="2">
+        <v>2</v>
+      </c>
+      <c r="N4" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="O4" s="90"/>
+      <c r="P4" s="90"/>
+      <c r="Q4" s="90"/>
+      <c r="S4" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="T4" s="88"/>
+      <c r="U4" s="88"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="2">
+        <v>2</v>
+      </c>
+      <c r="X4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y4" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="90"/>
+      <c r="AE4" s="88" t="str">
+        <f>Tabela!A4</f>
+        <v>Senegal</v>
+      </c>
+      <c r="AF4" s="88"/>
+      <c r="AG4" s="88"/>
+      <c r="AH4" s="88"/>
+      <c r="AI4" s="2">
+        <f>Tabela!B4</f>
+        <v>0</v>
+      </c>
+      <c r="AJ4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK4" s="2">
+        <f>Tabela!D4</f>
+        <v>0</v>
+      </c>
+      <c r="AL4" s="90" t="str">
+        <f>Tabela!E4</f>
+        <v>Holanda</v>
+      </c>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AQ4" s="88" t="str">
+        <f>Tabela!G4</f>
+        <v>Espanha</v>
+      </c>
+      <c r="AR4" s="88"/>
+      <c r="AS4" s="88"/>
+      <c r="AT4" s="88"/>
+      <c r="AU4" s="2">
+        <f>Tabela!H4</f>
+        <v>0</v>
+      </c>
+      <c r="AV4" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW4" s="2">
+        <f>Tabela!J4</f>
+        <v>0</v>
+      </c>
+      <c r="AX4" s="90" t="str">
+        <f>Tabela!K4</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="AY4" s="90"/>
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BC4">
+        <f>IF(AND(AI4=K4,AK4=M4),25,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="B5" s="25"/>
       <c r="C5" s="25" t="s">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="D5" s="25"/>
       <c r="E5" s="28" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G5" s="88" t="s">
+        <v>64</v>
+      </c>
+      <c r="H5" s="88"/>
+      <c r="I5" s="88"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M5" s="2">
+        <v>2</v>
+      </c>
+      <c r="N5" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="90"/>
+      <c r="P5" s="90"/>
+      <c r="Q5" s="90"/>
+      <c r="S5" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="2">
+        <v>1</v>
+      </c>
+      <c r="X5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="90" t="s">
+        <v>66</v>
+      </c>
+      <c r="AA5" s="90"/>
+      <c r="AB5" s="90"/>
+      <c r="AC5" s="90"/>
+      <c r="AE5" s="88" t="str">
+        <f>Tabela!A5</f>
+        <v>Catar</v>
+      </c>
+      <c r="AF5" s="88"/>
+      <c r="AG5" s="88"/>
+      <c r="AH5" s="88"/>
+      <c r="AI5" s="2">
+        <f>Tabela!B5</f>
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK5" s="2">
+        <f>Tabela!D5</f>
+        <v>0</v>
+      </c>
+      <c r="AL5" s="90" t="str">
+        <f>Tabela!E5</f>
+        <v>Senegal</v>
+      </c>
+      <c r="AM5" s="90"/>
+      <c r="AN5" s="90"/>
+      <c r="AO5" s="90"/>
+      <c r="AQ5" s="88" t="str">
+        <f>Tabela!G5</f>
+        <v>Japão</v>
+      </c>
+      <c r="AR5" s="88"/>
+      <c r="AS5" s="88"/>
+      <c r="AT5" s="88"/>
+      <c r="AU5" s="2">
+        <f>Tabela!H5</f>
+        <v>0</v>
+      </c>
+      <c r="AV5" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW5" s="2">
+        <f>Tabela!J5</f>
+        <v>0</v>
+      </c>
+      <c r="AX5" s="90" t="str">
+        <f>Tabela!K5</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="AY5" s="90"/>
+      <c r="AZ5" s="90"/>
+      <c r="BA5" s="90"/>
+      <c r="BC5">
+        <f>IF(AND(AI5=K5,AK5=M5),25,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A6" s="24" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B6" s="25"/>
       <c r="C6" s="25" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D6" s="25"/>
       <c r="E6" s="28" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="G6" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H6" s="88"/>
+      <c r="I6" s="88"/>
+      <c r="J6" s="88"/>
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M6" s="2">
+        <v>1</v>
+      </c>
+      <c r="N6" s="90" t="s">
+        <v>69</v>
+      </c>
+      <c r="O6" s="90"/>
+      <c r="P6" s="90"/>
+      <c r="Q6" s="90"/>
+      <c r="S6" s="88" t="s">
+        <v>70</v>
+      </c>
+      <c r="T6" s="88"/>
+      <c r="U6" s="88"/>
+      <c r="V6" s="88"/>
+      <c r="W6" s="2">
+        <v>2</v>
+      </c>
+      <c r="X6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y6" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z6" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA6" s="90"/>
+      <c r="AB6" s="90"/>
+      <c r="AC6" s="90"/>
+      <c r="AE6" s="88" t="str">
+        <f>Tabela!A6</f>
+        <v>Holanda</v>
+      </c>
+      <c r="AF6" s="88"/>
+      <c r="AG6" s="88"/>
+      <c r="AH6" s="88"/>
+      <c r="AI6" s="2">
+        <f>Tabela!B6</f>
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK6" s="2">
+        <f>Tabela!D6</f>
+        <v>0</v>
+      </c>
+      <c r="AL6" s="90" t="str">
+        <f>Tabela!E6</f>
+        <v>Equador</v>
+      </c>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AQ6" s="88" t="str">
+        <f>Tabela!G6</f>
+        <v>Espanha</v>
+      </c>
+      <c r="AR6" s="88"/>
+      <c r="AS6" s="88"/>
+      <c r="AT6" s="88"/>
+      <c r="AU6" s="2">
+        <f>Tabela!H6</f>
+        <v>0</v>
+      </c>
+      <c r="AV6" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW6" s="2">
+        <f>Tabela!J6</f>
+        <v>0</v>
+      </c>
+      <c r="AX6" s="90" t="str">
+        <f>Tabela!K6</f>
+        <v>Alemanha</v>
+      </c>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="90"/>
+      <c r="BC6">
+        <f>IF(AND(AI6=K6,AK6=M6),25,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A7" s="24" t="s">
-        <v>128</v>
+        <v>3</v>
       </c>
       <c r="B7" s="25"/>
       <c r="C7" s="25" t="s">
-        <v>152</v>
+        <v>20</v>
       </c>
       <c r="D7" s="25"/>
       <c r="E7" s="28" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="G7" s="88" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
+      <c r="J7" s="88"/>
+      <c r="K7" s="2">
+        <v>2</v>
+      </c>
+      <c r="L7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="90" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" s="90"/>
+      <c r="P7" s="90"/>
+      <c r="Q7" s="90"/>
+      <c r="S7" s="88" t="s">
+        <v>77</v>
+      </c>
+      <c r="T7" s="88"/>
+      <c r="U7" s="88"/>
+      <c r="V7" s="88"/>
+      <c r="W7" s="2">
+        <v>2</v>
+      </c>
+      <c r="X7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="90" t="s">
+        <v>70</v>
+      </c>
+      <c r="AA7" s="90"/>
+      <c r="AB7" s="90"/>
+      <c r="AC7" s="90"/>
+      <c r="AE7" s="88" t="str">
+        <f>Tabela!A7</f>
+        <v>Holanda</v>
+      </c>
+      <c r="AF7" s="88"/>
+      <c r="AG7" s="88"/>
+      <c r="AH7" s="88"/>
+      <c r="AI7" s="2">
+        <f>Tabela!B7</f>
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK7" s="2">
+        <f>Tabela!D7</f>
+        <v>0</v>
+      </c>
+      <c r="AL7" s="90" t="str">
+        <f>Tabela!E7</f>
+        <v>Catar</v>
+      </c>
+      <c r="AM7" s="90"/>
+      <c r="AN7" s="90"/>
+      <c r="AO7" s="90"/>
+      <c r="AQ7" s="88" t="str">
+        <f>Tabela!G7</f>
+        <v>Japão</v>
+      </c>
+      <c r="AR7" s="88"/>
+      <c r="AS7" s="88"/>
+      <c r="AT7" s="88"/>
+      <c r="AU7" s="2">
+        <f>Tabela!H7</f>
+        <v>0</v>
+      </c>
+      <c r="AV7" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW7" s="2">
+        <f>Tabela!J7</f>
+        <v>0</v>
+      </c>
+      <c r="AX7" s="90" t="str">
+        <f>Tabela!K7</f>
+        <v>Espanha</v>
+      </c>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="90"/>
+      <c r="BC7">
+        <f>IF(AND(AI7=K7,AK7=M7),25,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A8" s="24" t="s">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="B8" s="25"/>
       <c r="C8" s="25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D8" s="25"/>
       <c r="E8" s="28" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="G8" s="88" t="s">
+        <v>69</v>
+      </c>
+      <c r="H8" s="88"/>
+      <c r="I8" s="88"/>
+      <c r="J8" s="88"/>
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="90" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="90"/>
+      <c r="P8" s="90"/>
+      <c r="Q8" s="90"/>
+      <c r="S8" s="88" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="88"/>
+      <c r="U8" s="88"/>
+      <c r="V8" s="88"/>
+      <c r="W8" s="2">
+        <v>0</v>
+      </c>
+      <c r="X8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y8" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z8" s="90" t="s">
+        <v>56</v>
+      </c>
+      <c r="AA8" s="90"/>
+      <c r="AB8" s="90"/>
+      <c r="AC8" s="90"/>
+      <c r="AE8" s="88" t="str">
+        <f>Tabela!A8</f>
+        <v>Equador</v>
+      </c>
+      <c r="AF8" s="88"/>
+      <c r="AG8" s="88"/>
+      <c r="AH8" s="88"/>
+      <c r="AI8" s="2">
+        <f>Tabela!B8</f>
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK8" s="2">
+        <f>Tabela!D8</f>
+        <v>0</v>
+      </c>
+      <c r="AL8" s="90" t="str">
+        <f>Tabela!E8</f>
+        <v>Senegal</v>
+      </c>
+      <c r="AM8" s="90"/>
+      <c r="AN8" s="90"/>
+      <c r="AO8" s="90"/>
+      <c r="AQ8" s="88" t="str">
+        <f>Tabela!G8</f>
+        <v>Costa Rica</v>
+      </c>
+      <c r="AR8" s="88"/>
+      <c r="AS8" s="88"/>
+      <c r="AT8" s="88"/>
+      <c r="AU8" s="2">
+        <f>Tabela!H8</f>
+        <v>0</v>
+      </c>
+      <c r="AV8" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW8" s="2">
+        <f>Tabela!J8</f>
+        <v>0</v>
+      </c>
+      <c r="AX8" s="90" t="str">
+        <f>Tabela!K8</f>
+        <v>Alemanha</v>
+      </c>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="90"/>
+      <c r="BA8" s="90"/>
+      <c r="BC8">
+        <f>IF(AND(AI8=K8,AK8=M8),25,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B9" s="25"/>
       <c r="C9" s="25" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D9" s="25"/>
       <c r="E9" s="28" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="G9" s="92" t="s">
+        <v>8</v>
+      </c>
+      <c r="H9" s="92"/>
+      <c r="I9" s="92"/>
+      <c r="J9" s="92"/>
+      <c r="K9" s="92"/>
+      <c r="L9" s="92"/>
+      <c r="M9" s="92"/>
+      <c r="N9" s="92"/>
+      <c r="O9" s="92"/>
+      <c r="P9" s="92"/>
+      <c r="Q9" s="92"/>
+      <c r="S9" s="92" t="s">
+        <v>92</v>
+      </c>
+      <c r="T9" s="92"/>
+      <c r="U9" s="92"/>
+      <c r="V9" s="92"/>
+      <c r="W9" s="92"/>
+      <c r="X9" s="92"/>
+      <c r="Y9" s="92"/>
+      <c r="Z9" s="92"/>
+      <c r="AA9" s="92"/>
+      <c r="AB9" s="92"/>
+      <c r="AC9" s="92"/>
+      <c r="AE9" s="91" t="str">
+        <f>Tabela!A9</f>
+        <v>Grupo B</v>
+      </c>
+      <c r="AF9" s="91"/>
+      <c r="AG9" s="91"/>
+      <c r="AH9" s="91"/>
+      <c r="AI9" s="91"/>
+      <c r="AJ9" s="91"/>
+      <c r="AK9" s="91"/>
+      <c r="AL9" s="91"/>
+      <c r="AM9" s="91"/>
+      <c r="AN9" s="91"/>
+      <c r="AO9" s="91"/>
+      <c r="AQ9" s="91" t="str">
+        <f>Tabela!G9</f>
+        <v>Grupo F</v>
+      </c>
+      <c r="AR9" s="91"/>
+      <c r="AS9" s="91"/>
+      <c r="AT9" s="91"/>
+      <c r="AU9" s="91"/>
+      <c r="AV9" s="91"/>
+      <c r="AW9" s="91"/>
+      <c r="AX9" s="91"/>
+      <c r="AY9" s="91"/>
+      <c r="AZ9" s="91"/>
+      <c r="BA9" s="91"/>
+    </row>
+    <row r="10" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
-        <v>150</v>
+        <v>6</v>
       </c>
       <c r="B10" s="25"/>
       <c r="C10" s="25" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D10" s="25"/>
       <c r="E10" s="28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="G10" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" s="88"/>
+      <c r="I10" s="88"/>
+      <c r="J10" s="88"/>
+      <c r="K10" s="2">
+        <v>2</v>
+      </c>
+      <c r="L10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="O10" s="90"/>
+      <c r="P10" s="90"/>
+      <c r="Q10" s="90"/>
+      <c r="S10" s="88" t="s">
+        <v>78</v>
+      </c>
+      <c r="T10" s="88"/>
+      <c r="U10" s="88"/>
+      <c r="V10" s="88"/>
+      <c r="W10" s="2">
+        <v>1</v>
+      </c>
+      <c r="X10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y10" s="2">
+        <v>3</v>
+      </c>
+      <c r="Z10" s="90" t="s">
+        <v>67</v>
+      </c>
+      <c r="AA10" s="90"/>
+      <c r="AB10" s="90"/>
+      <c r="AC10" s="90"/>
+      <c r="AE10" s="88" t="str">
+        <f>Tabela!A10</f>
+        <v>Inglaterra</v>
+      </c>
+      <c r="AF10" s="88"/>
+      <c r="AG10" s="88"/>
+      <c r="AH10" s="88"/>
+      <c r="AI10" s="2">
+        <f>Tabela!B10</f>
+        <v>6</v>
+      </c>
+      <c r="AJ10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK10" s="2">
+        <f>Tabela!D10</f>
+        <v>2</v>
+      </c>
+      <c r="AL10" s="90" t="str">
+        <f>Tabela!E10</f>
+        <v>Irã</v>
+      </c>
+      <c r="AM10" s="90"/>
+      <c r="AN10" s="90"/>
+      <c r="AO10" s="90"/>
+      <c r="AQ10" s="88" t="str">
+        <f>Tabela!G10</f>
+        <v>Marrocos</v>
+      </c>
+      <c r="AR10" s="88"/>
+      <c r="AS10" s="88"/>
+      <c r="AT10" s="88"/>
+      <c r="AU10" s="2">
+        <f>Tabela!H10</f>
+        <v>0</v>
+      </c>
+      <c r="AV10" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW10" s="2">
+        <f>Tabela!J10</f>
+        <v>0</v>
+      </c>
+      <c r="AX10" s="90" t="str">
+        <f>Tabela!K10</f>
+        <v>Croácia</v>
+      </c>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="90"/>
+      <c r="BC10">
+        <f t="shared" ref="BC9:BC29" si="0">IF(AND(AI10=K10,AK10=M10),25,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
-        <v>0</v>
+        <v>150</v>
       </c>
       <c r="B11" s="25"/>
       <c r="C11" s="25" t="s">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="D11" s="25"/>
       <c r="E11" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="G11" s="88" t="s">
+        <v>71</v>
+      </c>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
+      <c r="J11" s="88"/>
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="90" t="s">
+        <v>89</v>
+      </c>
+      <c r="O11" s="90"/>
+      <c r="P11" s="90"/>
+      <c r="Q11" s="90"/>
+      <c r="S11" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="T11" s="88"/>
+      <c r="U11" s="88"/>
+      <c r="V11" s="88"/>
+      <c r="W11" s="2">
+        <v>2</v>
+      </c>
+      <c r="X11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y11" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA11" s="90"/>
+      <c r="AB11" s="90"/>
+      <c r="AC11" s="90"/>
+      <c r="AE11" s="88" t="str">
+        <f>Tabela!A11</f>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="AF11" s="88"/>
+      <c r="AG11" s="88"/>
+      <c r="AH11" s="88"/>
+      <c r="AI11" s="2">
+        <f>Tabela!B11</f>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK11" s="2">
+        <f>Tabela!D11</f>
+        <v>0</v>
+      </c>
+      <c r="AL11" s="90" t="str">
+        <f>Tabela!E11</f>
+        <v>Gales</v>
+      </c>
+      <c r="AM11" s="90"/>
+      <c r="AN11" s="90"/>
+      <c r="AO11" s="90"/>
+      <c r="AQ11" s="88" t="str">
+        <f>Tabela!G11</f>
+        <v>Bélgica</v>
+      </c>
+      <c r="AR11" s="88"/>
+      <c r="AS11" s="88"/>
+      <c r="AT11" s="88"/>
+      <c r="AU11" s="2">
+        <f>Tabela!H11</f>
+        <v>0</v>
+      </c>
+      <c r="AV11" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW11" s="2">
+        <f>Tabela!J11</f>
+        <v>0</v>
+      </c>
+      <c r="AX11" s="90" t="str">
+        <f>Tabela!K11</f>
+        <v>Canadá</v>
+      </c>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="90"/>
+      <c r="BC11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A12" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="25"/>
+      <c r="C12" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D12" s="25"/>
+      <c r="E12" s="28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G12" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M12" s="2">
+        <v>1</v>
+      </c>
+      <c r="N12" s="90" t="s">
+        <v>76</v>
+      </c>
+      <c r="O12" s="90"/>
+      <c r="P12" s="90"/>
+      <c r="Q12" s="90"/>
+      <c r="S12" s="88" t="s">
+        <v>60</v>
+      </c>
+      <c r="T12" s="88"/>
+      <c r="U12" s="88"/>
+      <c r="V12" s="88"/>
+      <c r="W12" s="2">
+        <v>2</v>
+      </c>
+      <c r="X12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA12" s="90"/>
+      <c r="AB12" s="90"/>
+      <c r="AC12" s="90"/>
+      <c r="AE12" s="88" t="str">
+        <f>Tabela!A12</f>
+        <v>Gales</v>
+      </c>
+      <c r="AF12" s="88"/>
+      <c r="AG12" s="88"/>
+      <c r="AH12" s="88"/>
+      <c r="AI12" s="2">
+        <f>Tabela!B12</f>
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK12" s="2">
+        <f>Tabela!D12</f>
+        <v>0</v>
+      </c>
+      <c r="AL12" s="90" t="str">
+        <f>Tabela!E12</f>
+        <v>Irã</v>
+      </c>
+      <c r="AM12" s="90"/>
+      <c r="AN12" s="90"/>
+      <c r="AO12" s="90"/>
+      <c r="AQ12" s="88" t="str">
+        <f>Tabela!G12</f>
+        <v>Bélgica</v>
+      </c>
+      <c r="AR12" s="88"/>
+      <c r="AS12" s="88"/>
+      <c r="AT12" s="88"/>
+      <c r="AU12" s="2">
+        <f>Tabela!H12</f>
+        <v>0</v>
+      </c>
+      <c r="AV12" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW12" s="2">
+        <f>Tabela!J12</f>
+        <v>0</v>
+      </c>
+      <c r="AX12" s="90" t="str">
+        <f>Tabela!K12</f>
+        <v>Marrocos</v>
+      </c>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="90"/>
+      <c r="BA12" s="90"/>
+      <c r="BC12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:55" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="25"/>
-      <c r="C12" s="20" t="s">
+      <c r="B13" s="25"/>
+      <c r="C13" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="21" t="s">
+      <c r="D13" s="25"/>
+      <c r="E13" s="21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="28" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G13" s="88" t="s">
+        <v>75</v>
+      </c>
+      <c r="H13" s="88"/>
+      <c r="I13" s="88"/>
+      <c r="J13" s="88"/>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+      <c r="L13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M13" s="2">
+        <v>1</v>
+      </c>
+      <c r="N13" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="O13" s="90"/>
+      <c r="P13" s="90"/>
+      <c r="Q13" s="90"/>
+      <c r="S13" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="T13" s="88"/>
+      <c r="U13" s="88"/>
+      <c r="V13" s="88"/>
+      <c r="W13" s="2">
+        <v>2</v>
+      </c>
+      <c r="X13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y13" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="90" t="s">
+        <v>63</v>
+      </c>
+      <c r="AA13" s="90"/>
+      <c r="AB13" s="90"/>
+      <c r="AC13" s="90"/>
+      <c r="AE13" s="88" t="str">
+        <f>Tabela!A13</f>
+        <v>Inglaterra</v>
+      </c>
+      <c r="AF13" s="88"/>
+      <c r="AG13" s="88"/>
+      <c r="AH13" s="88"/>
+      <c r="AI13" s="2">
+        <f>Tabela!B13</f>
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK13" s="2">
+        <f>Tabela!D13</f>
+        <v>0</v>
+      </c>
+      <c r="AL13" s="90" t="str">
+        <f>Tabela!E13</f>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="AM13" s="90"/>
+      <c r="AN13" s="90"/>
+      <c r="AO13" s="90"/>
+      <c r="AQ13" s="88" t="str">
+        <f>Tabela!G13</f>
+        <v>Croácia</v>
+      </c>
+      <c r="AR13" s="88"/>
+      <c r="AS13" s="88"/>
+      <c r="AT13" s="88"/>
+      <c r="AU13" s="2">
+        <f>Tabela!H13</f>
+        <v>0</v>
+      </c>
+      <c r="AV13" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW13" s="2">
+        <f>Tabela!J13</f>
+        <v>0</v>
+      </c>
+      <c r="AX13" s="90" t="str">
+        <f>Tabela!K13</f>
+        <v>Canadá</v>
+      </c>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="90"/>
+      <c r="BA13" s="90"/>
+      <c r="BC13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="B14" s="25"/>
       <c r="C14" s="25" t="s">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="D14" s="25"/>
       <c r="E14" s="28" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="G14" s="88" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="88"/>
+      <c r="I14" s="88"/>
+      <c r="J14" s="88"/>
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M14" s="2">
+        <v>1</v>
+      </c>
+      <c r="N14" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="O14" s="90"/>
+      <c r="P14" s="90"/>
+      <c r="Q14" s="90"/>
+      <c r="S14" s="88" t="s">
+        <v>67</v>
+      </c>
+      <c r="T14" s="88"/>
+      <c r="U14" s="88"/>
+      <c r="V14" s="88"/>
+      <c r="W14" s="2">
+        <v>1</v>
+      </c>
+      <c r="X14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y14" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="90" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA14" s="90"/>
+      <c r="AB14" s="90"/>
+      <c r="AC14" s="90"/>
+      <c r="AE14" s="88" t="str">
+        <f>Tabela!A14</f>
+        <v>Irã</v>
+      </c>
+      <c r="AF14" s="88"/>
+      <c r="AG14" s="88"/>
+      <c r="AH14" s="88"/>
+      <c r="AI14" s="2">
+        <f>Tabela!B14</f>
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK14" s="2">
+        <f>Tabela!D14</f>
+        <v>0</v>
+      </c>
+      <c r="AL14" s="90" t="str">
+        <f>Tabela!E14</f>
+        <v>Estados Unidos</v>
+      </c>
+      <c r="AM14" s="90"/>
+      <c r="AN14" s="90"/>
+      <c r="AO14" s="90"/>
+      <c r="AQ14" s="88" t="str">
+        <f>Tabela!G14</f>
+        <v>Croácia</v>
+      </c>
+      <c r="AR14" s="88"/>
+      <c r="AS14" s="88"/>
+      <c r="AT14" s="88"/>
+      <c r="AU14" s="2">
+        <f>Tabela!H14</f>
+        <v>0</v>
+      </c>
+      <c r="AV14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW14" s="2">
+        <f>Tabela!J14</f>
+        <v>0</v>
+      </c>
+      <c r="AX14" s="90" t="str">
+        <f>Tabela!K14</f>
+        <v>Bélgica</v>
+      </c>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="90"/>
+      <c r="BA14" s="90"/>
+      <c r="BC14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A15" s="24" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B15" s="25"/>
       <c r="C15" s="25" t="s">
-        <v>156</v>
+        <v>49</v>
       </c>
       <c r="D15" s="25"/>
       <c r="E15" s="28" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+        <v>160</v>
+      </c>
+      <c r="G15" s="88" t="s">
+        <v>89</v>
+      </c>
+      <c r="H15" s="88"/>
+      <c r="I15" s="88"/>
+      <c r="J15" s="88"/>
+      <c r="K15" s="2">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M15" s="2">
+        <v>3</v>
+      </c>
+      <c r="N15" s="90" t="s">
+        <v>75</v>
+      </c>
+      <c r="O15" s="90"/>
+      <c r="P15" s="90"/>
+      <c r="Q15" s="90"/>
+      <c r="S15" s="88" t="s">
+        <v>63</v>
+      </c>
+      <c r="T15" s="88"/>
+      <c r="U15" s="88"/>
+      <c r="V15" s="88"/>
+      <c r="W15" s="2">
+        <v>1</v>
+      </c>
+      <c r="X15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z15" s="90" t="s">
+        <v>78</v>
+      </c>
+      <c r="AA15" s="90"/>
+      <c r="AB15" s="90"/>
+      <c r="AC15" s="90"/>
+      <c r="AE15" s="88" t="str">
+        <f>Tabela!A15</f>
+        <v>Gales</v>
+      </c>
+      <c r="AF15" s="88"/>
+      <c r="AG15" s="88"/>
+      <c r="AH15" s="88"/>
+      <c r="AI15" s="2">
+        <f>Tabela!B15</f>
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK15" s="2">
+        <f>Tabela!D15</f>
+        <v>0</v>
+      </c>
+      <c r="AL15" s="90" t="str">
+        <f>Tabela!E15</f>
+        <v>Inglaterra</v>
+      </c>
+      <c r="AM15" s="90"/>
+      <c r="AN15" s="90"/>
+      <c r="AO15" s="90"/>
+      <c r="AQ15" s="88" t="str">
+        <f>Tabela!G15</f>
+        <v>Canadá</v>
+      </c>
+      <c r="AR15" s="88"/>
+      <c r="AS15" s="88"/>
+      <c r="AT15" s="88"/>
+      <c r="AU15" s="2">
+        <f>Tabela!H15</f>
+        <v>0</v>
+      </c>
+      <c r="AV15" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW15" s="2">
+        <f>Tabela!J15</f>
+        <v>0</v>
+      </c>
+      <c r="AX15" s="90" t="str">
+        <f>Tabela!K15</f>
+        <v>Marrocos</v>
+      </c>
+      <c r="AY15" s="90"/>
+      <c r="AZ15" s="90"/>
+      <c r="BA15" s="90"/>
+      <c r="BC15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:55" x14ac:dyDescent="0.25">
       <c r="A16" s="24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B16" s="25"/>
       <c r="C16" s="25" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
       <c r="D16" s="25"/>
       <c r="E16" s="28" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+        <v>161</v>
+      </c>
+      <c r="G16" s="92" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16" s="92"/>
+      <c r="I16" s="92"/>
+      <c r="J16" s="92"/>
+      <c r="K16" s="92"/>
+      <c r="L16" s="92"/>
+      <c r="M16" s="92"/>
+      <c r="N16" s="92"/>
+      <c r="O16" s="92"/>
+      <c r="P16" s="92"/>
+      <c r="Q16" s="92"/>
+      <c r="S16" s="92" t="s">
+        <v>93</v>
+      </c>
+      <c r="T16" s="92"/>
+      <c r="U16" s="92"/>
+      <c r="V16" s="92"/>
+      <c r="W16" s="92"/>
+      <c r="X16" s="92"/>
+      <c r="Y16" s="92"/>
+      <c r="Z16" s="92"/>
+      <c r="AA16" s="92"/>
+      <c r="AB16" s="92"/>
+      <c r="AC16" s="92"/>
+      <c r="AE16" s="91" t="str">
+        <f>Tabela!A16</f>
+        <v>Grupo C</v>
+      </c>
+      <c r="AF16" s="91"/>
+      <c r="AG16" s="91"/>
+      <c r="AH16" s="91"/>
+      <c r="AI16" s="91"/>
+      <c r="AJ16" s="91"/>
+      <c r="AK16" s="91"/>
+      <c r="AL16" s="91"/>
+      <c r="AM16" s="91"/>
+      <c r="AN16" s="91"/>
+      <c r="AO16" s="91"/>
+      <c r="AQ16" s="91" t="str">
+        <f>Tabela!G16</f>
+        <v>Grupo G</v>
+      </c>
+      <c r="AR16" s="91"/>
+      <c r="AS16" s="91"/>
+      <c r="AT16" s="91"/>
+      <c r="AU16" s="91"/>
+      <c r="AV16" s="91"/>
+      <c r="AW16" s="91"/>
+      <c r="AX16" s="91"/>
+      <c r="AY16" s="91"/>
+      <c r="AZ16" s="91"/>
+      <c r="BA16" s="91"/>
+    </row>
+    <row r="17" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A17" s="24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B17" s="25"/>
       <c r="C17" s="25" t="s">
-        <v>26</v>
+        <v>112</v>
       </c>
       <c r="D17" s="25"/>
       <c r="E17" s="28" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="G17" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="H17" s="88"/>
+      <c r="I17" s="88"/>
+      <c r="J17" s="88"/>
+      <c r="K17" s="2">
+        <v>3</v>
+      </c>
+      <c r="L17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="O17" s="90"/>
+      <c r="P17" s="90"/>
+      <c r="Q17" s="90"/>
+      <c r="S17" s="88" t="s">
+        <v>85</v>
+      </c>
+      <c r="T17" s="88"/>
+      <c r="U17" s="88"/>
+      <c r="V17" s="88"/>
+      <c r="W17" s="2">
+        <v>2</v>
+      </c>
+      <c r="X17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y17" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="90" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA17" s="90"/>
+      <c r="AB17" s="90"/>
+      <c r="AC17" s="90"/>
+      <c r="AE17" s="88" t="str">
+        <f>Tabela!A17</f>
+        <v>Argentina</v>
+      </c>
+      <c r="AF17" s="88"/>
+      <c r="AG17" s="88"/>
+      <c r="AH17" s="88"/>
+      <c r="AI17" s="2">
+        <f>Tabela!B17</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK17" s="2">
+        <f>Tabela!D17</f>
+        <v>0</v>
+      </c>
+      <c r="AL17" s="90" t="str">
+        <f>Tabela!E17</f>
+        <v>Arábia Saudita</v>
+      </c>
+      <c r="AM17" s="90"/>
+      <c r="AN17" s="90"/>
+      <c r="AO17" s="90"/>
+      <c r="AQ17" s="88" t="str">
+        <f>Tabela!G17</f>
+        <v>Suíça</v>
+      </c>
+      <c r="AR17" s="88"/>
+      <c r="AS17" s="88"/>
+      <c r="AT17" s="88"/>
+      <c r="AU17" s="2">
+        <f>Tabela!H17</f>
+        <v>0</v>
+      </c>
+      <c r="AV17" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW17" s="2">
+        <f>Tabela!J17</f>
+        <v>0</v>
+      </c>
+      <c r="AX17" s="90" t="str">
+        <f>Tabela!K17</f>
+        <v>Camarões</v>
+      </c>
+      <c r="AY17" s="90"/>
+      <c r="AZ17" s="90"/>
+      <c r="BA17" s="90"/>
+      <c r="BC17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A18" s="24" t="s">
-        <v>103</v>
+        <v>11</v>
       </c>
       <c r="B18" s="25"/>
       <c r="C18" s="25" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" s="25"/>
       <c r="E18" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="G18" s="88" t="s">
+        <v>79</v>
+      </c>
+      <c r="H18" s="88"/>
+      <c r="I18" s="88"/>
+      <c r="J18" s="88"/>
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M18" s="2">
+        <v>1</v>
+      </c>
+      <c r="N18" s="90" t="s">
+        <v>81</v>
+      </c>
+      <c r="O18" s="90"/>
+      <c r="P18" s="90"/>
+      <c r="Q18" s="90"/>
+      <c r="S18" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="T18" s="88"/>
+      <c r="U18" s="88"/>
+      <c r="V18" s="88"/>
+      <c r="W18" s="2">
+        <v>2</v>
+      </c>
+      <c r="X18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z18" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA18" s="90"/>
+      <c r="AB18" s="90"/>
+      <c r="AC18" s="90"/>
+      <c r="AE18" s="88" t="str">
+        <f>Tabela!A18</f>
+        <v>México</v>
+      </c>
+      <c r="AF18" s="88"/>
+      <c r="AG18" s="88"/>
+      <c r="AH18" s="88"/>
+      <c r="AI18" s="2">
+        <f>Tabela!B18</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK18" s="2">
+        <f>Tabela!D18</f>
+        <v>0</v>
+      </c>
+      <c r="AL18" s="90" t="str">
+        <f>Tabela!E18</f>
+        <v>Polônia</v>
+      </c>
+      <c r="AM18" s="90"/>
+      <c r="AN18" s="90"/>
+      <c r="AO18" s="90"/>
+      <c r="AQ18" s="88" t="str">
+        <f>Tabela!G18</f>
+        <v>Brasil</v>
+      </c>
+      <c r="AR18" s="88"/>
+      <c r="AS18" s="88"/>
+      <c r="AT18" s="88"/>
+      <c r="AU18" s="2">
+        <f>Tabela!H18</f>
+        <v>0</v>
+      </c>
+      <c r="AV18" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW18" s="2">
+        <f>Tabela!J18</f>
+        <v>0</v>
+      </c>
+      <c r="AX18" s="90" t="str">
+        <f>Tabela!K18</f>
+        <v>Sérvia</v>
+      </c>
+      <c r="AY18" s="90"/>
+      <c r="AZ18" s="90"/>
+      <c r="BA18" s="90"/>
+      <c r="BC18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A19" s="24" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="B19" s="25"/>
       <c r="C19" s="25" t="s">
-        <v>157</v>
+        <v>27</v>
       </c>
       <c r="D19" s="25"/>
       <c r="E19" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="G19" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+      <c r="L19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="90" t="s">
+        <v>57</v>
+      </c>
+      <c r="O19" s="90"/>
+      <c r="P19" s="90"/>
+      <c r="Q19" s="90"/>
+      <c r="S19" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19" s="88"/>
+      <c r="U19" s="88"/>
+      <c r="V19" s="88"/>
+      <c r="W19" s="2">
+        <v>1</v>
+      </c>
+      <c r="X19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y19" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="90" t="s">
+        <v>84</v>
+      </c>
+      <c r="AA19" s="90"/>
+      <c r="AB19" s="90"/>
+      <c r="AC19" s="90"/>
+      <c r="AE19" s="88" t="str">
+        <f>Tabela!A19</f>
+        <v>Polônia</v>
+      </c>
+      <c r="AF19" s="88"/>
+      <c r="AG19" s="88"/>
+      <c r="AH19" s="88"/>
+      <c r="AI19" s="2">
+        <f>Tabela!B19</f>
+        <v>0</v>
+      </c>
+      <c r="AJ19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK19" s="2">
+        <f>Tabela!D19</f>
+        <v>0</v>
+      </c>
+      <c r="AL19" s="90" t="str">
+        <f>Tabela!E19</f>
+        <v>Arábia Saudita</v>
+      </c>
+      <c r="AM19" s="90"/>
+      <c r="AN19" s="90"/>
+      <c r="AO19" s="90"/>
+      <c r="AQ19" s="88" t="str">
+        <f>Tabela!G19</f>
+        <v>Camarões</v>
+      </c>
+      <c r="AR19" s="88"/>
+      <c r="AS19" s="88"/>
+      <c r="AT19" s="88"/>
+      <c r="AU19" s="2">
+        <f>Tabela!H19</f>
+        <v>0</v>
+      </c>
+      <c r="AV19" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW19" s="2">
+        <f>Tabela!J19</f>
+        <v>0</v>
+      </c>
+      <c r="AX19" s="90" t="str">
+        <f>Tabela!K19</f>
+        <v>Sérvia</v>
+      </c>
+      <c r="AY19" s="90"/>
+      <c r="AZ19" s="90"/>
+      <c r="BA19" s="90"/>
+      <c r="BC19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A20" s="24" t="s">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="B20" s="25"/>
       <c r="C20" s="25" t="s">
-        <v>0</v>
+        <v>157</v>
       </c>
       <c r="D20" s="25"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="19" t="s">
+      <c r="E20" s="28" t="s">
+        <v>163</v>
+      </c>
+      <c r="G20" s="88" t="s">
+        <v>58</v>
+      </c>
+      <c r="H20" s="88"/>
+      <c r="I20" s="88"/>
+      <c r="J20" s="88"/>
+      <c r="K20" s="2">
+        <v>2</v>
+      </c>
+      <c r="L20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M20" s="2">
+        <v>1</v>
+      </c>
+      <c r="N20" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="O20" s="90"/>
+      <c r="P20" s="90"/>
+      <c r="Q20" s="90"/>
+      <c r="S20" s="88" t="s">
+        <v>61</v>
+      </c>
+      <c r="T20" s="88"/>
+      <c r="U20" s="88"/>
+      <c r="V20" s="88"/>
+      <c r="W20" s="2">
+        <v>2</v>
+      </c>
+      <c r="X20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y20" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z20" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA20" s="90"/>
+      <c r="AB20" s="90"/>
+      <c r="AC20" s="90"/>
+      <c r="AE20" s="88" t="str">
+        <f>Tabela!A20</f>
+        <v>Argentina</v>
+      </c>
+      <c r="AF20" s="88"/>
+      <c r="AG20" s="88"/>
+      <c r="AH20" s="88"/>
+      <c r="AI20" s="2">
+        <f>Tabela!B20</f>
+        <v>0</v>
+      </c>
+      <c r="AJ20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK20" s="2">
+        <f>Tabela!D20</f>
+        <v>0</v>
+      </c>
+      <c r="AL20" s="90" t="str">
+        <f>Tabela!E20</f>
+        <v>México</v>
+      </c>
+      <c r="AM20" s="90"/>
+      <c r="AN20" s="90"/>
+      <c r="AO20" s="90"/>
+      <c r="AQ20" s="88" t="str">
+        <f>Tabela!G20</f>
+        <v>Brasil</v>
+      </c>
+      <c r="AR20" s="88"/>
+      <c r="AS20" s="88"/>
+      <c r="AT20" s="88"/>
+      <c r="AU20" s="2">
+        <f>Tabela!H20</f>
+        <v>0</v>
+      </c>
+      <c r="AV20" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW20" s="2">
+        <f>Tabela!J20</f>
+        <v>0</v>
+      </c>
+      <c r="AX20" s="90" t="str">
+        <f>Tabela!K20</f>
+        <v>Suíça</v>
+      </c>
+      <c r="AY20" s="90"/>
+      <c r="AZ20" s="90"/>
+      <c r="BA20" s="90"/>
+      <c r="BC20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A21" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="25"/>
+      <c r="C21" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="D21" s="25"/>
+      <c r="E21" s="28"/>
+      <c r="G21" s="88" t="s">
+        <v>81</v>
+      </c>
+      <c r="H21" s="88"/>
+      <c r="I21" s="88"/>
+      <c r="J21" s="88"/>
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M21" s="2">
+        <v>2</v>
+      </c>
+      <c r="N21" s="90" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="90"/>
+      <c r="P21" s="90"/>
+      <c r="Q21" s="90"/>
+      <c r="S21" s="88" t="s">
+        <v>62</v>
+      </c>
+      <c r="T21" s="88"/>
+      <c r="U21" s="88"/>
+      <c r="V21" s="88"/>
+      <c r="W21" s="2">
+        <v>0</v>
+      </c>
+      <c r="X21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y21" s="2">
+        <v>4</v>
+      </c>
+      <c r="Z21" s="90" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA21" s="90"/>
+      <c r="AB21" s="90"/>
+      <c r="AC21" s="90"/>
+      <c r="AE21" s="88" t="str">
+        <f>Tabela!A21</f>
+        <v>Polônia</v>
+      </c>
+      <c r="AF21" s="88"/>
+      <c r="AG21" s="88"/>
+      <c r="AH21" s="88"/>
+      <c r="AI21" s="2">
+        <f>Tabela!B21</f>
+        <v>0</v>
+      </c>
+      <c r="AJ21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK21" s="2">
+        <f>Tabela!D21</f>
+        <v>0</v>
+      </c>
+      <c r="AL21" s="90" t="str">
+        <f>Tabela!E21</f>
+        <v>Argentina</v>
+      </c>
+      <c r="AM21" s="90"/>
+      <c r="AN21" s="90"/>
+      <c r="AO21" s="90"/>
+      <c r="AQ21" s="88" t="str">
+        <f>Tabela!G21</f>
+        <v>Camarões</v>
+      </c>
+      <c r="AR21" s="88"/>
+      <c r="AS21" s="88"/>
+      <c r="AT21" s="88"/>
+      <c r="AU21" s="2">
+        <f>Tabela!H21</f>
+        <v>0</v>
+      </c>
+      <c r="AV21" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW21" s="2">
+        <f>Tabela!J21</f>
+        <v>0</v>
+      </c>
+      <c r="AX21" s="90" t="str">
+        <f>Tabela!K21</f>
+        <v>Brasil</v>
+      </c>
+      <c r="AY21" s="90"/>
+      <c r="AZ21" s="90"/>
+      <c r="BA21" s="90"/>
+      <c r="BC21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A22" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="25"/>
-      <c r="C21" s="20" t="s">
+      <c r="B22" s="25"/>
+      <c r="C22" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="22" t="s">
+      <c r="D22" s="25"/>
+      <c r="E22" s="22" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="24" t="s">
-        <v>0</v>
-      </c>
-      <c r="B22" s="25"/>
-      <c r="C22" s="25" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="28" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G22" s="88" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="88"/>
+      <c r="I22" s="88"/>
+      <c r="J22" s="88"/>
+      <c r="K22" s="2">
+        <v>0</v>
+      </c>
+      <c r="L22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M22" s="2">
+        <v>1</v>
+      </c>
+      <c r="N22" s="90" t="s">
+        <v>79</v>
+      </c>
+      <c r="O22" s="90"/>
+      <c r="P22" s="90"/>
+      <c r="Q22" s="90"/>
+      <c r="S22" s="88" t="s">
+        <v>84</v>
+      </c>
+      <c r="T22" s="88"/>
+      <c r="U22" s="88"/>
+      <c r="V22" s="88"/>
+      <c r="W22" s="2">
+        <v>1</v>
+      </c>
+      <c r="X22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y22" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="90" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA22" s="90"/>
+      <c r="AB22" s="90"/>
+      <c r="AC22" s="90"/>
+      <c r="AE22" s="88" t="str">
+        <f>Tabela!A22</f>
+        <v>Arábia Saudita</v>
+      </c>
+      <c r="AF22" s="88"/>
+      <c r="AG22" s="88"/>
+      <c r="AH22" s="88"/>
+      <c r="AI22" s="2">
+        <f>Tabela!B22</f>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK22" s="2">
+        <f>Tabela!D22</f>
+        <v>0</v>
+      </c>
+      <c r="AL22" s="90" t="str">
+        <f>Tabela!E22</f>
+        <v>México</v>
+      </c>
+      <c r="AM22" s="90"/>
+      <c r="AN22" s="90"/>
+      <c r="AO22" s="90"/>
+      <c r="AQ22" s="88" t="str">
+        <f>Tabela!G22</f>
+        <v>Sérvia</v>
+      </c>
+      <c r="AR22" s="88"/>
+      <c r="AS22" s="88"/>
+      <c r="AT22" s="88"/>
+      <c r="AU22" s="2">
+        <f>Tabela!H22</f>
+        <v>0</v>
+      </c>
+      <c r="AV22" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW22" s="2">
+        <f>Tabela!J22</f>
+        <v>0</v>
+      </c>
+      <c r="AX22" s="90" t="str">
+        <f>Tabela!K22</f>
+        <v>Suíça</v>
+      </c>
+      <c r="AY22" s="90"/>
+      <c r="AZ22" s="90"/>
+      <c r="BA22" s="90"/>
+      <c r="BC22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A23" s="24" t="s">
-        <v>151</v>
+        <v>0</v>
       </c>
       <c r="B23" s="25"/>
       <c r="C23" s="25" t="s">
-        <v>158</v>
+        <v>0</v>
       </c>
       <c r="D23" s="25"/>
       <c r="E23" s="28" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>304</v>
+      </c>
+      <c r="G23" s="92" t="s">
+        <v>18</v>
+      </c>
+      <c r="H23" s="92"/>
+      <c r="I23" s="92"/>
+      <c r="J23" s="92"/>
+      <c r="K23" s="92"/>
+      <c r="L23" s="92"/>
+      <c r="M23" s="92"/>
+      <c r="N23" s="92"/>
+      <c r="O23" s="92"/>
+      <c r="P23" s="92"/>
+      <c r="Q23" s="92"/>
+      <c r="S23" s="92" t="s">
+        <v>94</v>
+      </c>
+      <c r="T23" s="92"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="92"/>
+      <c r="W23" s="92"/>
+      <c r="X23" s="92"/>
+      <c r="Y23" s="92"/>
+      <c r="Z23" s="92"/>
+      <c r="AA23" s="92"/>
+      <c r="AB23" s="92"/>
+      <c r="AC23" s="92"/>
+      <c r="AE23" s="91" t="str">
+        <f>Tabela!A23</f>
+        <v>Grupo D</v>
+      </c>
+      <c r="AF23" s="91"/>
+      <c r="AG23" s="91"/>
+      <c r="AH23" s="91"/>
+      <c r="AI23" s="91"/>
+      <c r="AJ23" s="91"/>
+      <c r="AK23" s="91"/>
+      <c r="AL23" s="91"/>
+      <c r="AM23" s="91"/>
+      <c r="AN23" s="91"/>
+      <c r="AO23" s="91"/>
+      <c r="AQ23" s="91" t="str">
+        <f>Tabela!G23</f>
+        <v>Grupo H</v>
+      </c>
+      <c r="AR23" s="91"/>
+      <c r="AS23" s="91"/>
+      <c r="AT23" s="91"/>
+      <c r="AU23" s="91"/>
+      <c r="AV23" s="91"/>
+      <c r="AW23" s="91"/>
+      <c r="AX23" s="91"/>
+      <c r="AY23" s="91"/>
+      <c r="AZ23" s="91"/>
+      <c r="BA23" s="91"/>
+    </row>
+    <row r="24" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A24" s="24" t="s">
-        <v>14</v>
+        <v>151</v>
       </c>
       <c r="B24" s="25"/>
       <c r="C24" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D24" s="25"/>
-      <c r="E24" s="28"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E24" s="28" t="s">
+        <v>305</v>
+      </c>
+      <c r="G24" s="88" t="s">
+        <v>68</v>
+      </c>
+      <c r="H24" s="88"/>
+      <c r="I24" s="88"/>
+      <c r="J24" s="88"/>
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M24" s="2">
+        <v>1</v>
+      </c>
+      <c r="N24" s="90" t="s">
+        <v>86</v>
+      </c>
+      <c r="O24" s="90"/>
+      <c r="P24" s="90"/>
+      <c r="Q24" s="90"/>
+      <c r="S24" s="88" t="s">
+        <v>87</v>
+      </c>
+      <c r="T24" s="88"/>
+      <c r="U24" s="88"/>
+      <c r="V24" s="88"/>
+      <c r="W24" s="2">
+        <v>2</v>
+      </c>
+      <c r="X24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y24" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="90" t="s">
+        <v>65</v>
+      </c>
+      <c r="AA24" s="90"/>
+      <c r="AB24" s="90"/>
+      <c r="AC24" s="90"/>
+      <c r="AE24" s="88" t="str">
+        <f>Tabela!A24</f>
+        <v>Dinamarca</v>
+      </c>
+      <c r="AF24" s="88"/>
+      <c r="AG24" s="88"/>
+      <c r="AH24" s="88"/>
+      <c r="AI24" s="2">
+        <f>Tabela!B24</f>
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK24" s="2">
+        <f>Tabela!D24</f>
+        <v>0</v>
+      </c>
+      <c r="AL24" s="90" t="str">
+        <f>Tabela!E24</f>
+        <v>Tunísia</v>
+      </c>
+      <c r="AM24" s="90"/>
+      <c r="AN24" s="90"/>
+      <c r="AO24" s="90"/>
+      <c r="AQ24" s="88" t="str">
+        <f>Tabela!G24</f>
+        <v>Uruguai</v>
+      </c>
+      <c r="AR24" s="88"/>
+      <c r="AS24" s="88"/>
+      <c r="AT24" s="88"/>
+      <c r="AU24" s="2">
+        <f>Tabela!H24</f>
+        <v>0</v>
+      </c>
+      <c r="AV24" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW24" s="2">
+        <f>Tabela!J24</f>
+        <v>0</v>
+      </c>
+      <c r="AX24" s="90" t="str">
+        <f>Tabela!K24</f>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="AY24" s="90"/>
+      <c r="AZ24" s="90"/>
+      <c r="BA24" s="90"/>
+      <c r="BC24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A25" s="24" t="s">
-        <v>133</v>
+        <v>14</v>
       </c>
       <c r="B25" s="25"/>
       <c r="C25" s="25" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="D25" s="25"/>
-      <c r="E25" s="22" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E25" s="28"/>
+      <c r="G25" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H25" s="88"/>
+      <c r="I25" s="88"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="2">
+        <v>2</v>
+      </c>
+      <c r="L25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M25" s="2">
+        <v>1</v>
+      </c>
+      <c r="N25" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="O25" s="90"/>
+      <c r="P25" s="90"/>
+      <c r="Q25" s="90"/>
+      <c r="S25" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="T25" s="88"/>
+      <c r="U25" s="88"/>
+      <c r="V25" s="88"/>
+      <c r="W25" s="2">
+        <v>1</v>
+      </c>
+      <c r="X25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Z25" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA25" s="90"/>
+      <c r="AB25" s="90"/>
+      <c r="AC25" s="90"/>
+      <c r="AE25" s="88" t="str">
+        <f>Tabela!A25</f>
+        <v>França</v>
+      </c>
+      <c r="AF25" s="88"/>
+      <c r="AG25" s="88"/>
+      <c r="AH25" s="88"/>
+      <c r="AI25" s="2">
+        <f>Tabela!B25</f>
+        <v>0</v>
+      </c>
+      <c r="AJ25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK25" s="2">
+        <f>Tabela!D25</f>
+        <v>0</v>
+      </c>
+      <c r="AL25" s="90" t="str">
+        <f>Tabela!E25</f>
+        <v>Austrália</v>
+      </c>
+      <c r="AM25" s="90"/>
+      <c r="AN25" s="90"/>
+      <c r="AO25" s="90"/>
+      <c r="AQ25" s="88" t="str">
+        <f>Tabela!G25</f>
+        <v>Portugal</v>
+      </c>
+      <c r="AR25" s="88"/>
+      <c r="AS25" s="88"/>
+      <c r="AT25" s="88"/>
+      <c r="AU25" s="2">
+        <f>Tabela!H25</f>
+        <v>0</v>
+      </c>
+      <c r="AV25" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW25" s="2">
+        <f>Tabela!J25</f>
+        <v>0</v>
+      </c>
+      <c r="AX25" s="90" t="str">
+        <f>Tabela!K25</f>
+        <v>Gana</v>
+      </c>
+      <c r="AY25" s="90"/>
+      <c r="AZ25" s="90"/>
+      <c r="BA25" s="90"/>
+      <c r="BC25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A26" s="24" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="B26" s="25"/>
       <c r="C26" s="25" t="s">
-        <v>29</v>
+        <v>117</v>
       </c>
       <c r="D26" s="25"/>
-      <c r="E26" s="28" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E26" s="22" t="s">
+        <v>148</v>
+      </c>
+      <c r="G26" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="H26" s="88"/>
+      <c r="I26" s="88"/>
+      <c r="J26" s="88"/>
+      <c r="K26" s="2">
+        <v>0</v>
+      </c>
+      <c r="L26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="90" t="s">
+        <v>59</v>
+      </c>
+      <c r="O26" s="90"/>
+      <c r="P26" s="90"/>
+      <c r="Q26" s="90"/>
+      <c r="S26" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="T26" s="88"/>
+      <c r="U26" s="88"/>
+      <c r="V26" s="88"/>
+      <c r="W26" s="2">
+        <v>2</v>
+      </c>
+      <c r="X26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y26" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="90" t="s">
+        <v>73</v>
+      </c>
+      <c r="AA26" s="90"/>
+      <c r="AB26" s="90"/>
+      <c r="AC26" s="90"/>
+      <c r="AE26" s="88" t="str">
+        <f>Tabela!A26</f>
+        <v>Tunísia</v>
+      </c>
+      <c r="AF26" s="88"/>
+      <c r="AG26" s="88"/>
+      <c r="AH26" s="88"/>
+      <c r="AI26" s="2">
+        <f>Tabela!B26</f>
+        <v>0</v>
+      </c>
+      <c r="AJ26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK26" s="2">
+        <f>Tabela!D26</f>
+        <v>0</v>
+      </c>
+      <c r="AL26" s="90" t="str">
+        <f>Tabela!E26</f>
+        <v>Austrália</v>
+      </c>
+      <c r="AM26" s="90"/>
+      <c r="AN26" s="90"/>
+      <c r="AO26" s="90"/>
+      <c r="AQ26" s="88" t="str">
+        <f>Tabela!G26</f>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="AR26" s="88"/>
+      <c r="AS26" s="88"/>
+      <c r="AT26" s="88"/>
+      <c r="AU26" s="2">
+        <f>Tabela!H26</f>
+        <v>0</v>
+      </c>
+      <c r="AV26" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW26" s="2">
+        <f>Tabela!J26</f>
+        <v>0</v>
+      </c>
+      <c r="AX26" s="90" t="str">
+        <f>Tabela!K26</f>
+        <v>Gana</v>
+      </c>
+      <c r="AY26" s="90"/>
+      <c r="AZ26" s="90"/>
+      <c r="BA26" s="90"/>
+      <c r="BC26">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A27" s="24" t="s">
-        <v>16</v>
+        <v>46</v>
       </c>
       <c r="B27" s="25"/>
       <c r="C27" s="25" t="s">
-        <v>119</v>
+        <v>29</v>
       </c>
       <c r="D27" s="25"/>
       <c r="E27" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="G27" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="88"/>
+      <c r="I27" s="88"/>
+      <c r="J27" s="88"/>
+      <c r="K27" s="2">
+        <v>2</v>
+      </c>
+      <c r="L27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="O27" s="90"/>
+      <c r="P27" s="90"/>
+      <c r="Q27" s="90"/>
+      <c r="S27" s="88" t="s">
+        <v>82</v>
+      </c>
+      <c r="T27" s="88"/>
+      <c r="U27" s="88"/>
+      <c r="V27" s="88"/>
+      <c r="W27" s="2">
+        <v>2</v>
+      </c>
+      <c r="X27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y27" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z27" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA27" s="90"/>
+      <c r="AB27" s="90"/>
+      <c r="AC27" s="90"/>
+      <c r="AE27" s="88" t="str">
+        <f>Tabela!A27</f>
+        <v>França</v>
+      </c>
+      <c r="AF27" s="88"/>
+      <c r="AG27" s="88"/>
+      <c r="AH27" s="88"/>
+      <c r="AI27" s="2">
+        <f>Tabela!B27</f>
+        <v>0</v>
+      </c>
+      <c r="AJ27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK27" s="2">
+        <f>Tabela!D27</f>
+        <v>0</v>
+      </c>
+      <c r="AL27" s="90" t="str">
+        <f>Tabela!E27</f>
+        <v>Dinamarca</v>
+      </c>
+      <c r="AM27" s="90"/>
+      <c r="AN27" s="90"/>
+      <c r="AO27" s="90"/>
+      <c r="AQ27" s="88" t="str">
+        <f>Tabela!G27</f>
+        <v>Portugal</v>
+      </c>
+      <c r="AR27" s="88"/>
+      <c r="AS27" s="88"/>
+      <c r="AT27" s="88"/>
+      <c r="AU27" s="2">
+        <f>Tabela!H27</f>
+        <v>0</v>
+      </c>
+      <c r="AV27" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW27" s="2">
+        <f>Tabela!J27</f>
+        <v>0</v>
+      </c>
+      <c r="AX27" s="90" t="str">
+        <f>Tabela!K27</f>
+        <v>Uruguai</v>
+      </c>
+      <c r="AY27" s="90"/>
+      <c r="AZ27" s="90"/>
+      <c r="BA27" s="90"/>
+      <c r="BC27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="25"/>
+      <c r="C28" s="25" t="s">
+        <v>119</v>
+      </c>
+      <c r="D28" s="25"/>
+      <c r="E28" s="28" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="26" t="s">
+      <c r="G28" s="88" t="s">
+        <v>86</v>
+      </c>
+      <c r="H28" s="88"/>
+      <c r="I28" s="88"/>
+      <c r="J28" s="88"/>
+      <c r="K28" s="2">
+        <v>0</v>
+      </c>
+      <c r="L28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M28" s="2">
+        <v>3</v>
+      </c>
+      <c r="N28" s="90" t="s">
+        <v>72</v>
+      </c>
+      <c r="O28" s="90"/>
+      <c r="P28" s="90"/>
+      <c r="Q28" s="90"/>
+      <c r="S28" s="88" t="s">
+        <v>65</v>
+      </c>
+      <c r="T28" s="88"/>
+      <c r="U28" s="88"/>
+      <c r="V28" s="88"/>
+      <c r="W28" s="2">
+        <v>1</v>
+      </c>
+      <c r="X28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y28" s="2">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="90" t="s">
+        <v>82</v>
+      </c>
+      <c r="AA28" s="90"/>
+      <c r="AB28" s="90"/>
+      <c r="AC28" s="90"/>
+      <c r="AE28" s="88" t="str">
+        <f>Tabela!A28</f>
+        <v>Tunísia</v>
+      </c>
+      <c r="AF28" s="88"/>
+      <c r="AG28" s="88"/>
+      <c r="AH28" s="88"/>
+      <c r="AI28" s="2">
+        <f>Tabela!B28</f>
+        <v>0</v>
+      </c>
+      <c r="AJ28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK28" s="2">
+        <f>Tabela!D28</f>
+        <v>0</v>
+      </c>
+      <c r="AL28" s="90" t="str">
+        <f>Tabela!E28</f>
+        <v>França</v>
+      </c>
+      <c r="AM28" s="90"/>
+      <c r="AN28" s="90"/>
+      <c r="AO28" s="90"/>
+      <c r="AQ28" s="88" t="str">
+        <f>Tabela!G28</f>
+        <v>Coreia do Sul</v>
+      </c>
+      <c r="AR28" s="88"/>
+      <c r="AS28" s="88"/>
+      <c r="AT28" s="88"/>
+      <c r="AU28" s="2">
+        <f>Tabela!H28</f>
+        <v>0</v>
+      </c>
+      <c r="AV28" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW28" s="2">
+        <f>Tabela!J28</f>
+        <v>0</v>
+      </c>
+      <c r="AX28" s="90" t="str">
+        <f>Tabela!K28</f>
+        <v>Portugal</v>
+      </c>
+      <c r="AY28" s="90"/>
+      <c r="AZ28" s="90"/>
+      <c r="BA28" s="90"/>
+      <c r="BC28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B28" s="27"/>
-      <c r="C28" s="27" t="s">
+      <c r="B29" s="27"/>
+      <c r="C29" s="27" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="29"/>
-    </row>
-    <row r="29" spans="1:5" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="29"/>
+      <c r="G29" s="88" t="s">
+        <v>59</v>
+      </c>
+      <c r="H29" s="88"/>
+      <c r="I29" s="88"/>
+      <c r="J29" s="88"/>
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="90" t="s">
+        <v>68</v>
+      </c>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="S29" s="88" t="s">
+        <v>73</v>
+      </c>
+      <c r="T29" s="88"/>
+      <c r="U29" s="88"/>
+      <c r="V29" s="88"/>
+      <c r="W29" s="2">
+        <v>1</v>
+      </c>
+      <c r="X29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>2</v>
+      </c>
+      <c r="Z29" s="90" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA29" s="90"/>
+      <c r="AB29" s="90"/>
+      <c r="AC29" s="90"/>
+      <c r="AE29" s="88" t="str">
+        <f>Tabela!A29</f>
+        <v>Austrália</v>
+      </c>
+      <c r="AF29" s="88"/>
+      <c r="AG29" s="88"/>
+      <c r="AH29" s="88"/>
+      <c r="AI29" s="2">
+        <f>Tabela!B29</f>
+        <v>0</v>
+      </c>
+      <c r="AJ29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AK29" s="2">
+        <f>Tabela!D29</f>
+        <v>0</v>
+      </c>
+      <c r="AL29" s="90" t="str">
+        <f>Tabela!E29</f>
+        <v>Dinamarca</v>
+      </c>
+      <c r="AM29" s="90"/>
+      <c r="AN29" s="90"/>
+      <c r="AO29" s="90"/>
+      <c r="AQ29" s="88" t="str">
+        <f>Tabela!G29</f>
+        <v>Gana</v>
+      </c>
+      <c r="AR29" s="88"/>
+      <c r="AS29" s="88"/>
+      <c r="AT29" s="88"/>
+      <c r="AU29" s="2">
+        <f>Tabela!H29</f>
+        <v>0</v>
+      </c>
+      <c r="AV29" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="AW29" s="2">
+        <f>Tabela!J29</f>
+        <v>0</v>
+      </c>
+      <c r="AX29" s="90" t="str">
+        <f>Tabela!K29</f>
+        <v>Uruguai</v>
+      </c>
+      <c r="AY29" s="90"/>
+      <c r="AZ29" s="90"/>
+      <c r="BA29" s="90"/>
+      <c r="BC29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BC31" s="93" t="s">
+        <v>576</v>
+      </c>
+      <c r="BD31" s="93"/>
+      <c r="BE31" s="93"/>
+      <c r="BF31" s="93"/>
+      <c r="BG31" s="93"/>
+      <c r="BH31" s="93"/>
+      <c r="BI31" s="93"/>
+      <c r="BJ31" s="93"/>
+      <c r="BK31" s="93"/>
+      <c r="BL31" s="93"/>
+      <c r="BM31" s="93"/>
+    </row>
+    <row r="32" spans="1:65" x14ac:dyDescent="0.25">
+      <c r="BC32" s="93"/>
+      <c r="BD32" s="93"/>
+      <c r="BE32" s="93"/>
+      <c r="BF32" s="93"/>
+      <c r="BG32" s="93"/>
+      <c r="BH32" s="93"/>
+      <c r="BI32" s="93"/>
+      <c r="BJ32" s="93"/>
+      <c r="BK32" s="93"/>
+      <c r="BL32" s="93"/>
+      <c r="BM32" s="93"/>
+    </row>
+    <row r="33" spans="38:65" x14ac:dyDescent="0.25">
+      <c r="AL33" s="90"/>
+      <c r="AM33" s="90"/>
+      <c r="AN33" s="90"/>
+      <c r="AO33" s="90"/>
+      <c r="BC33" s="94"/>
+      <c r="BD33" s="94"/>
+      <c r="BE33" s="94"/>
+      <c r="BF33" s="94"/>
+      <c r="BG33" s="94"/>
+      <c r="BH33" s="94"/>
+      <c r="BI33" s="94"/>
+      <c r="BJ33" s="94"/>
+      <c r="BK33" s="94"/>
+      <c r="BL33" s="94"/>
+      <c r="BM33" s="94"/>
+    </row>
+    <row r="34" spans="38:65" x14ac:dyDescent="0.25">
+      <c r="AL34" s="90"/>
+      <c r="AM34" s="90"/>
+      <c r="AN34" s="90"/>
+      <c r="AO34" s="90"/>
+      <c r="BC34" s="94"/>
+      <c r="BD34" s="94"/>
+      <c r="BE34" s="94"/>
+      <c r="BF34" s="94"/>
+      <c r="BG34" s="94"/>
+      <c r="BH34" s="94"/>
+      <c r="BI34" s="94"/>
+      <c r="BJ34" s="94"/>
+      <c r="BK34" s="94"/>
+      <c r="BL34" s="94"/>
+      <c r="BM34" s="94"/>
+    </row>
+    <row r="35" spans="38:65" x14ac:dyDescent="0.25">
+      <c r="AL35" s="90"/>
+      <c r="AM35" s="90"/>
+      <c r="AN35" s="90"/>
+      <c r="AO35" s="90"/>
+      <c r="BC35" s="94"/>
+      <c r="BD35" s="94"/>
+      <c r="BE35" s="94"/>
+      <c r="BF35" s="94"/>
+      <c r="BG35" s="94"/>
+      <c r="BH35" s="94"/>
+      <c r="BI35" s="94"/>
+      <c r="BJ35" s="94"/>
+      <c r="BK35" s="94"/>
+      <c r="BL35" s="94"/>
+      <c r="BM35" s="94"/>
+    </row>
+    <row r="36" spans="38:65" x14ac:dyDescent="0.25">
+      <c r="AL36" s="90"/>
+      <c r="AM36" s="90"/>
+      <c r="AN36" s="90"/>
+      <c r="AO36" s="90"/>
+      <c r="BC36" s="94"/>
+      <c r="BD36" s="94"/>
+      <c r="BE36" s="94"/>
+      <c r="BF36" s="94"/>
+      <c r="BG36" s="94"/>
+      <c r="BH36" s="94"/>
+      <c r="BI36" s="94"/>
+      <c r="BJ36" s="94"/>
+      <c r="BK36" s="94"/>
+      <c r="BL36" s="94"/>
+      <c r="BM36" s="94"/>
+    </row>
+    <row r="37" spans="38:65" x14ac:dyDescent="0.25">
+      <c r="BC37" s="94"/>
+      <c r="BD37" s="94"/>
+      <c r="BE37" s="94"/>
+      <c r="BF37" s="94"/>
+      <c r="BG37" s="94"/>
+      <c r="BH37" s="94"/>
+      <c r="BI37" s="94"/>
+      <c r="BJ37" s="94"/>
+      <c r="BK37" s="94"/>
+      <c r="BL37" s="94"/>
+      <c r="BM37" s="94"/>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="B1:E1"/>
+  <mergeCells count="217">
+    <mergeCell ref="BC33:BM37"/>
+    <mergeCell ref="BC31:BM32"/>
+    <mergeCell ref="AE1:BA1"/>
+    <mergeCell ref="N22:Q22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="Z24:AC24"/>
+    <mergeCell ref="Z29:AC29"/>
+    <mergeCell ref="S24:V24"/>
+    <mergeCell ref="S29:V29"/>
+    <mergeCell ref="N29:Q29"/>
+    <mergeCell ref="N24:Q24"/>
+    <mergeCell ref="G29:J29"/>
+    <mergeCell ref="G24:J24"/>
+    <mergeCell ref="S13:V13"/>
+    <mergeCell ref="S15:V15"/>
+    <mergeCell ref="Z13:AC13"/>
+    <mergeCell ref="Z15:AC15"/>
+    <mergeCell ref="Z22:AC22"/>
+    <mergeCell ref="S22:V22"/>
+    <mergeCell ref="S8:V8"/>
+    <mergeCell ref="S3:V3"/>
+    <mergeCell ref="Z8:AC8"/>
+    <mergeCell ref="Z3:AC3"/>
+    <mergeCell ref="G28:J28"/>
+    <mergeCell ref="N28:Q28"/>
+    <mergeCell ref="S28:V28"/>
+    <mergeCell ref="Z28:AC28"/>
+    <mergeCell ref="N4:Q4"/>
+    <mergeCell ref="N3:Q3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="G1:AC1"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="N25:Q25"/>
+    <mergeCell ref="S25:V25"/>
+    <mergeCell ref="Z25:AC25"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="N26:Q26"/>
+    <mergeCell ref="S26:V26"/>
+    <mergeCell ref="Z26:AC26"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="N27:Q27"/>
+    <mergeCell ref="S27:V27"/>
+    <mergeCell ref="Z27:AC27"/>
+    <mergeCell ref="G23:Q23"/>
+    <mergeCell ref="S23:AC23"/>
+    <mergeCell ref="G19:J19"/>
+    <mergeCell ref="N19:Q19"/>
+    <mergeCell ref="S19:V19"/>
+    <mergeCell ref="Z19:AC19"/>
+    <mergeCell ref="G20:J20"/>
+    <mergeCell ref="N20:Q20"/>
+    <mergeCell ref="S20:V20"/>
+    <mergeCell ref="Z20:AC20"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="N21:Q21"/>
+    <mergeCell ref="S21:V21"/>
+    <mergeCell ref="Z21:AC21"/>
+    <mergeCell ref="G17:J17"/>
+    <mergeCell ref="N17:Q17"/>
+    <mergeCell ref="S17:V17"/>
+    <mergeCell ref="Z17:AC17"/>
+    <mergeCell ref="G18:J18"/>
+    <mergeCell ref="N18:Q18"/>
+    <mergeCell ref="S18:V18"/>
+    <mergeCell ref="Z18:AC18"/>
+    <mergeCell ref="N14:Q14"/>
+    <mergeCell ref="G15:J15"/>
+    <mergeCell ref="N15:Q15"/>
+    <mergeCell ref="S14:V14"/>
+    <mergeCell ref="Z14:AC14"/>
+    <mergeCell ref="G16:Q16"/>
+    <mergeCell ref="S16:AC16"/>
+    <mergeCell ref="S6:V6"/>
+    <mergeCell ref="Z6:AC6"/>
+    <mergeCell ref="G8:J8"/>
+    <mergeCell ref="N8:Q8"/>
+    <mergeCell ref="S7:V7"/>
+    <mergeCell ref="Z7:AC7"/>
+    <mergeCell ref="G9:Q9"/>
+    <mergeCell ref="S9:AC9"/>
+    <mergeCell ref="G10:J10"/>
+    <mergeCell ref="N10:Q10"/>
+    <mergeCell ref="AQ2:BA2"/>
+    <mergeCell ref="G2:Q2"/>
+    <mergeCell ref="S2:AC2"/>
+    <mergeCell ref="AE6:AH6"/>
+    <mergeCell ref="AE7:AH7"/>
+    <mergeCell ref="AE8:AH8"/>
+    <mergeCell ref="AE10:AH10"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="AE3:AH3"/>
+    <mergeCell ref="AL3:AO3"/>
+    <mergeCell ref="AE4:AH4"/>
+    <mergeCell ref="AE5:AH5"/>
+    <mergeCell ref="AL4:AO4"/>
+    <mergeCell ref="AL5:AO5"/>
+    <mergeCell ref="AE9:AO9"/>
+    <mergeCell ref="AE2:AO2"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="N5:Q5"/>
+    <mergeCell ref="S4:V4"/>
+    <mergeCell ref="Z4:AC4"/>
+    <mergeCell ref="G6:J6"/>
+    <mergeCell ref="N6:Q6"/>
+    <mergeCell ref="S5:V5"/>
+    <mergeCell ref="Z5:AC5"/>
+    <mergeCell ref="G7:J7"/>
+    <mergeCell ref="N7:Q7"/>
+    <mergeCell ref="AE17:AH17"/>
+    <mergeCell ref="AE18:AH18"/>
+    <mergeCell ref="AE19:AH19"/>
+    <mergeCell ref="AE20:AH20"/>
+    <mergeCell ref="AE11:AH11"/>
+    <mergeCell ref="AE12:AH12"/>
+    <mergeCell ref="AE13:AH13"/>
+    <mergeCell ref="AE14:AH14"/>
+    <mergeCell ref="AE15:AH15"/>
+    <mergeCell ref="AE16:AO16"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="N11:Q11"/>
+    <mergeCell ref="S10:V10"/>
+    <mergeCell ref="Z10:AC10"/>
+    <mergeCell ref="G12:J12"/>
+    <mergeCell ref="N12:Q12"/>
+    <mergeCell ref="S11:V11"/>
+    <mergeCell ref="Z11:AC11"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="N13:Q13"/>
+    <mergeCell ref="S12:V12"/>
+    <mergeCell ref="Z12:AC12"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="AL11:AO11"/>
+    <mergeCell ref="AL12:AO12"/>
+    <mergeCell ref="AL13:AO13"/>
+    <mergeCell ref="AL14:AO14"/>
+    <mergeCell ref="AL15:AO15"/>
+    <mergeCell ref="AL6:AO6"/>
+    <mergeCell ref="AL7:AO7"/>
+    <mergeCell ref="AL8:AO8"/>
+    <mergeCell ref="AL10:AO10"/>
+    <mergeCell ref="AL21:AO21"/>
+    <mergeCell ref="AL22:AO22"/>
+    <mergeCell ref="AL24:AO24"/>
+    <mergeCell ref="AL25:AO25"/>
+    <mergeCell ref="AL17:AO17"/>
+    <mergeCell ref="AL18:AO18"/>
+    <mergeCell ref="AL19:AO19"/>
+    <mergeCell ref="AL20:AO20"/>
+    <mergeCell ref="AE23:AO23"/>
+    <mergeCell ref="AQ4:AT4"/>
+    <mergeCell ref="AQ5:AT5"/>
+    <mergeCell ref="AQ6:AT6"/>
+    <mergeCell ref="AQ7:AT7"/>
+    <mergeCell ref="AQ8:AT8"/>
+    <mergeCell ref="AX3:BA3"/>
+    <mergeCell ref="AQ3:AT3"/>
+    <mergeCell ref="AL36:AO36"/>
+    <mergeCell ref="AE21:AH21"/>
+    <mergeCell ref="AE22:AH22"/>
+    <mergeCell ref="AE24:AH24"/>
+    <mergeCell ref="AE25:AH25"/>
+    <mergeCell ref="AE26:AH26"/>
+    <mergeCell ref="AE27:AH27"/>
+    <mergeCell ref="AE28:AH28"/>
+    <mergeCell ref="AE29:AH29"/>
+    <mergeCell ref="AL33:AO33"/>
+    <mergeCell ref="AL34:AO34"/>
+    <mergeCell ref="AL35:AO35"/>
+    <mergeCell ref="AL26:AO26"/>
+    <mergeCell ref="AL27:AO27"/>
+    <mergeCell ref="AL28:AO28"/>
+    <mergeCell ref="AL29:AO29"/>
+    <mergeCell ref="AQ14:AT14"/>
+    <mergeCell ref="AQ15:AT15"/>
+    <mergeCell ref="AQ17:AT17"/>
+    <mergeCell ref="AQ18:AT18"/>
+    <mergeCell ref="AQ10:AT10"/>
+    <mergeCell ref="AQ11:AT11"/>
+    <mergeCell ref="AQ12:AT12"/>
+    <mergeCell ref="AQ13:AT13"/>
+    <mergeCell ref="AQ9:BA9"/>
+    <mergeCell ref="AQ16:BA16"/>
+    <mergeCell ref="AQ29:AT29"/>
+    <mergeCell ref="AX4:BA4"/>
+    <mergeCell ref="AX5:BA5"/>
+    <mergeCell ref="AX6:BA6"/>
+    <mergeCell ref="AX7:BA7"/>
+    <mergeCell ref="AX8:BA8"/>
+    <mergeCell ref="AX10:BA10"/>
+    <mergeCell ref="AX11:BA11"/>
+    <mergeCell ref="AX12:BA12"/>
+    <mergeCell ref="AX13:BA13"/>
+    <mergeCell ref="AX14:BA14"/>
+    <mergeCell ref="AX15:BA15"/>
+    <mergeCell ref="AQ24:AT24"/>
+    <mergeCell ref="AQ25:AT25"/>
+    <mergeCell ref="AQ26:AT26"/>
+    <mergeCell ref="AQ27:AT27"/>
+    <mergeCell ref="AQ28:AT28"/>
+    <mergeCell ref="AQ19:AT19"/>
+    <mergeCell ref="AQ20:AT20"/>
+    <mergeCell ref="AQ21:AT21"/>
+    <mergeCell ref="AQ22:AT22"/>
+    <mergeCell ref="AX27:BA27"/>
+    <mergeCell ref="AX28:BA28"/>
+    <mergeCell ref="AX29:BA29"/>
+    <mergeCell ref="AX22:BA22"/>
+    <mergeCell ref="AX24:BA24"/>
+    <mergeCell ref="AX25:BA25"/>
+    <mergeCell ref="AX26:BA26"/>
+    <mergeCell ref="AX17:BA17"/>
+    <mergeCell ref="AX18:BA18"/>
+    <mergeCell ref="AX19:BA19"/>
+    <mergeCell ref="AX20:BA20"/>
+    <mergeCell ref="AX21:BA21"/>
+    <mergeCell ref="AQ23:BA23"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -11112,12 +17507,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>329</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -11501,12 +17896,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -11890,12 +18285,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>192</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12279,12 +18674,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>220</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
@@ -12668,12 +19063,12 @@
       <c r="A1" s="30" t="s">
         <v>165</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="85" t="s">
         <v>221</v>
       </c>
-      <c r="C1" s="43"/>
-      <c r="D1" s="43"/>
-      <c r="E1" s="44"/>
+      <c r="C1" s="85"/>
+      <c r="D1" s="85"/>
+      <c r="E1" s="86"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="24" t="s">
